--- a/data_clean/Tomra Systems 15.12.2020.xlsx
+++ b/data_clean/Tomra Systems 15.12.2020.xlsx
@@ -1386,7 +1386,7 @@
         <v>1.11625493571202</v>
       </c>
       <c r="K2">
-        <v>52.51105645489871</v>
+        <v>0.02511056454898693</v>
       </c>
       <c r="L2">
         <v>0.004898566611194723</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1457,7 +1457,7 @@
         <v>1.11625493571202</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.0369310235390035</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1528,7 +1528,7 @@
         <v>1.11625493571202</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
         <v>0.05186055300509793</v>
@@ -1558,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.001762303889963</v>
+        <v>0.001762303889963457</v>
       </c>
       <c r="V4">
-        <v>1.001762303889963</v>
+        <v>0.001762303889963457</v>
       </c>
       <c r="W4">
-        <v>1.004121586810922</v>
+        <v>0.00412158681092234</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1599,7 +1599,7 @@
         <v>1.11625493571202</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L5">
         <v>0.05944092750785134</v>
@@ -1629,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.001523212906548</v>
+        <v>0.001523212906547666</v>
       </c>
       <c r="V5">
-        <v>1.001523212906548</v>
+        <v>0.001523212906547666</v>
       </c>
       <c r="W5">
-        <v>1.002565418163161</v>
+        <v>0.002565418163160693</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1670,7 +1670,7 @@
         <v>1.11625493571202</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
         <v>0.06159058525005926</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.001066769487822</v>
+        <v>0.001066769487822139</v>
       </c>
       <c r="V6">
-        <v>1.001066769487822</v>
+        <v>0.001066769487822139</v>
       </c>
       <c r="W6">
-        <v>1.000767656090072</v>
+        <v>0.0007676560900715668</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1741,7 +1741,7 @@
         <v>2.057722265624978</v>
       </c>
       <c r="K7">
-        <v>67.29591790457768</v>
+        <v>0.1729591790457767</v>
       </c>
       <c r="L7">
         <v>0.0545916563520359</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000025677896467</v>
+        <v>2.567789646668039E-05</v>
       </c>
       <c r="V7">
-        <v>1.000025677896467</v>
+        <v>2.567789646668039E-05</v>
       </c>
       <c r="W7">
-        <v>0.9959089746867809</v>
+        <v>-0.004091025313219143</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1812,7 +1812,7 @@
         <v>1.718537276785689</v>
       </c>
       <c r="K8">
-        <v>63.21551267517038</v>
+        <v>0.1321551267517038</v>
       </c>
       <c r="L8">
         <v>0.04571069029527221</v>
@@ -1842,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9999082955816812</v>
+        <v>-9.170441831884979E-05</v>
       </c>
       <c r="V8">
-        <v>0.9999082955816812</v>
+        <v>-9.170441831884979E-05</v>
       </c>
       <c r="W8">
-        <v>0.9992297817715019</v>
+        <v>-0.0007702182284980985</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1883,7 +1883,7 @@
         <v>1.014459184555305</v>
       </c>
       <c r="K9">
-        <v>50.35888502150261</v>
+        <v>0.003588850215026085</v>
       </c>
       <c r="L9">
         <v>0.03476027047048386</v>
@@ -1913,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9995460214974871</v>
+        <v>-0.0004539785025129417</v>
       </c>
       <c r="V9">
-        <v>0.9995460214974871</v>
+        <v>-0.0004539785025129417</v>
       </c>
       <c r="W9">
-        <v>0.9969167523124358</v>
+        <v>-0.003083247687564183</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1954,7 +1954,7 @@
         <v>1.697286087935286</v>
       </c>
       <c r="K10">
-        <v>62.92569763092953</v>
+        <v>0.1292569763092952</v>
       </c>
       <c r="L10">
         <v>0.02845524792345244</v>
@@ -1984,13 +1984,13 @@
         <v>0.2513888888888687</v>
       </c>
       <c r="U10">
-        <v>1.000189116185134</v>
+        <v>0.0001891161851339529</v>
       </c>
       <c r="V10">
-        <v>1.000189116185134</v>
+        <v>0.0001891161851339529</v>
       </c>
       <c r="W10">
-        <v>1.004896907216495</v>
+        <v>0.004896907216494828</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2025,7 +2025,7 @@
         <v>1.427311865899388</v>
       </c>
       <c r="K11">
-        <v>58.80216242301969</v>
+        <v>0.08802162423019699</v>
       </c>
       <c r="L11">
         <v>0.02363772212819292</v>
@@ -2055,13 +2055,13 @@
         <v>0.3924999999999841</v>
       </c>
       <c r="U11">
-        <v>1.000022832353445</v>
+        <v>2.283235344480161E-05</v>
       </c>
       <c r="V11">
-        <v>1.000022832353445</v>
+        <v>2.283235344480161E-05</v>
       </c>
       <c r="W11">
-        <v>0.9987176199025392</v>
+        <v>-0.001282380097460845</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2096,7 +2096,7 @@
         <v>1.381064438438982</v>
       </c>
       <c r="K12">
-        <v>58.0019766010366</v>
+        <v>0.08001976601036598</v>
       </c>
       <c r="L12">
         <v>0.01969834847592363</v>
@@ -2126,13 +2126,13 @@
         <v>0.3318181818181642</v>
       </c>
       <c r="U12">
-        <v>0.9999953298525167</v>
+        <v>-4.670147483287757E-06</v>
       </c>
       <c r="V12">
-        <v>0.9999953298525167</v>
+        <v>-4.670147483287757E-06</v>
       </c>
       <c r="W12">
-        <v>0.999743194658449</v>
+        <v>-0.0002568053415510363</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2167,7 +2167,7 @@
         <v>1.58570718156887</v>
       </c>
       <c r="K13">
-        <v>61.32586059519497</v>
+        <v>0.1132586059519497</v>
       </c>
       <c r="L13">
         <v>0.01732548299818962</v>
@@ -2197,13 +2197,13 @@
         <v>0.1708333333334053</v>
       </c>
       <c r="U13">
-        <v>1.00012453784783</v>
+        <v>0.0001245378478302861</v>
       </c>
       <c r="V13">
-        <v>1.00012453784783</v>
+        <v>0.0001245378478302861</v>
       </c>
       <c r="W13">
-        <v>1.00154122784485</v>
+        <v>0.001541227844849669</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2238,7 +2238,7 @@
         <v>1.108245352222137</v>
       </c>
       <c r="K14">
-        <v>52.56719058121116</v>
+        <v>0.02567190581211154</v>
       </c>
       <c r="L14">
         <v>0.01420267138434839</v>
@@ -2268,13 +2268,13 @@
         <v>-0.07788461538467573</v>
       </c>
       <c r="U14">
-        <v>0.9998682936787553</v>
+        <v>-0.0001317063212447067</v>
       </c>
       <c r="V14">
-        <v>0.9998682936787553</v>
+        <v>-0.0001317063212447067</v>
       </c>
       <c r="W14">
-        <v>0.9969222877660939</v>
+        <v>-0.003077712233906071</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2309,7 +2309,7 @@
         <v>1.108245352222137</v>
       </c>
       <c r="K15">
-        <v>52.56719058121116</v>
+        <v>0.02567190581211154</v>
       </c>
       <c r="L15">
         <v>0.0109361618427937</v>
@@ -2339,13 +2339,13 @@
         <v>-0.1339285714286689</v>
       </c>
       <c r="U15">
-        <v>0.9998870939970701</v>
+        <v>-0.0001129060029299023</v>
       </c>
       <c r="V15">
-        <v>0.9998870939970701</v>
+        <v>-0.0001129060029299023</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2380,7 +2380,7 @@
         <v>0.9973312825602019</v>
       </c>
       <c r="K16">
-        <v>49.93319291939449</v>
+        <v>-0.0006680708060550766</v>
       </c>
       <c r="L16">
         <v>0.007349544681447918</v>
@@ -2410,13 +2410,13 @@
         <v>-0.1816666666667288</v>
       </c>
       <c r="U16">
-        <v>0.9998336330385214</v>
+        <v>-0.0001663669614786478</v>
       </c>
       <c r="V16">
-        <v>0.9998336330385214</v>
+        <v>-0.0001663669614786478</v>
       </c>
       <c r="W16">
-        <v>0.998970928736815</v>
+        <v>-0.001029071263184966</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2451,7 +2451,7 @@
         <v>1.10267948189316</v>
       </c>
       <c r="K17">
-        <v>52.44163418099061</v>
+        <v>0.02441634180990615</v>
       </c>
       <c r="L17">
         <v>0.004327991804253582</v>
@@ -2481,13 +2481,13 @@
         <v>-0.06250000000005684</v>
       </c>
       <c r="U17">
-        <v>0.9999186379130196</v>
+        <v>-8.13620869803966E-05</v>
       </c>
       <c r="V17">
-        <v>1.000239804045837</v>
+        <v>0.0002398040458366779</v>
       </c>
       <c r="W17">
-        <v>1.001030131341746</v>
+        <v>0.00103013134174601</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2522,7 +2522,7 @@
         <v>1.241295533647059</v>
       </c>
       <c r="K18">
-        <v>55.38294771984889</v>
+        <v>0.05382947719848896</v>
       </c>
       <c r="L18">
         <v>0.002392306503263435</v>
@@ -2552,13 +2552,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U18">
-        <v>1.000003778732538</v>
+        <v>3.778732537540463E-06</v>
       </c>
       <c r="V18">
-        <v>1.000171247538317</v>
+        <v>0.0001712475383166545</v>
       </c>
       <c r="W18">
-        <v>1.001286339078981</v>
+        <v>0.001286339078981236</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2593,7 +2593,7 @@
         <v>1.030739828773309</v>
       </c>
       <c r="K19">
-        <v>50.75686280285047</v>
+        <v>0.007568628028504665</v>
       </c>
       <c r="L19">
         <v>0.0004253384084696175</v>
@@ -2623,13 +2623,13 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="U19">
-        <v>0.9999034327556093</v>
+        <v>-9.656724439066622E-05</v>
       </c>
       <c r="V19">
-        <v>0.999777416317096</v>
+        <v>-0.000222583682903954</v>
       </c>
       <c r="W19">
-        <v>0.9982014388489209</v>
+        <v>-0.001798561151079126</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2664,7 +2664,7 @@
         <v>1.05624746265488</v>
       </c>
       <c r="K20">
-        <v>51.36772114437668</v>
+        <v>0.01367721144376677</v>
       </c>
       <c r="L20">
         <v>-0.001306331546402644</v>
@@ -2694,13 +2694,13 @@
         <v>-0.4125000000000227</v>
       </c>
       <c r="U20">
-        <v>0.9999271145241218</v>
+        <v>-7.288547587824823E-05</v>
       </c>
       <c r="V20">
-        <v>0.9996232360597342</v>
+        <v>-0.0003767639402657563</v>
       </c>
       <c r="W20">
-        <v>1.0002574002574</v>
+        <v>0.0002574002574002865</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2735,7 +2735,7 @@
         <v>1.109947744510803</v>
       </c>
       <c r="K21">
-        <v>52.60546131525864</v>
+        <v>0.02605461315258639</v>
       </c>
       <c r="L21">
         <v>-0.002564694574721102</v>
@@ -2765,13 +2765,13 @@
         <v>-0.4249999999999545</v>
       </c>
       <c r="U21">
-        <v>0.99996009792915</v>
+        <v>-3.990207085002861E-05</v>
       </c>
       <c r="V21">
-        <v>0.9996059619667637</v>
+        <v>-0.0003940380332363436</v>
       </c>
       <c r="W21">
-        <v>1.000514668039115</v>
+        <v>0.0005146680391148184</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2806,7 +2806,7 @@
         <v>1.22300096947064</v>
       </c>
       <c r="K22">
-        <v>55.01576410746557</v>
+        <v>0.0501576410746557</v>
       </c>
       <c r="L22">
         <v>-0.003042807888140824</v>
@@ -2836,13 +2836,13 @@
         <v>-0.2437500000000341</v>
       </c>
       <c r="U22">
-        <v>1.000012850332181</v>
+        <v>1.285033218123566E-05</v>
       </c>
       <c r="V22">
-        <v>0.9999485834747289</v>
+        <v>-5.141652527107521E-05</v>
       </c>
       <c r="W22">
-        <v>1.001028806584362</v>
+        <v>0.001028806584361996</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2877,7 +2877,7 @@
         <v>0.9425764701908069</v>
       </c>
       <c r="K23">
-        <v>48.52197504987918</v>
+        <v>-0.01478024950120821</v>
       </c>
       <c r="L23">
         <v>-0.004037116033307118</v>
@@ -2907,13 +2907,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U23">
-        <v>0.9998948622695729</v>
+        <v>-0.0001051377304270851</v>
       </c>
       <c r="V23">
-        <v>0.9998286027697793</v>
+        <v>-0.0001713972302207489</v>
       </c>
       <c r="W23">
-        <v>0.9974306269270298</v>
+        <v>-0.002569373072970227</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2948,7 +2948,7 @@
         <v>0.841075429132679</v>
       </c>
       <c r="K24">
-        <v>45.68392016012648</v>
+        <v>-0.04316079839873521</v>
       </c>
       <c r="L24">
         <v>-0.005745121936327867</v>
@@ -2978,13 +2978,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U24">
-        <v>0.999848118420899</v>
+        <v>-0.0001518815791009542</v>
       </c>
       <c r="V24">
-        <v>0.9999485720163197</v>
+        <v>-5.142798368029666E-05</v>
       </c>
       <c r="W24">
-        <v>0.9987120041215868</v>
+        <v>-0.001287995878413217</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3019,7 +3019,7 @@
         <v>1.090450466473494</v>
       </c>
       <c r="K25">
-        <v>52.16342046664422</v>
+        <v>0.02163420466644217</v>
       </c>
       <c r="L25">
         <v>-0.006642936733994337</v>
@@ -3049,13 +3049,13 @@
         <v>-0.2437500000000341</v>
       </c>
       <c r="U25">
-        <v>0.9999785775492716</v>
+        <v>-2.142245072844773E-05</v>
       </c>
       <c r="V25">
-        <v>0.9998114210282697</v>
+        <v>-0.0001885789717303021</v>
       </c>
       <c r="W25">
-        <v>1.002837245292752</v>
+        <v>0.002837245292752089</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3090,7 +3090,7 @@
         <v>0.9538731535785357</v>
       </c>
       <c r="K26">
-        <v>48.81960488742623</v>
+        <v>-0.01180395112573768</v>
       </c>
       <c r="L26">
         <v>-0.007566797484598075</v>
@@ -3120,13 +3120,13 @@
         <v>-0.2624999999999886</v>
       </c>
       <c r="U26">
-        <v>0.9999185929432937</v>
+        <v>-8.140705670633963E-05</v>
       </c>
       <c r="V26">
-        <v>0.9997942386831277</v>
+        <v>-0.0002057613168723327</v>
       </c>
       <c r="W26">
-        <v>0.9984567901234568</v>
+        <v>-0.001543209876543217</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3161,7 +3161,7 @@
         <v>1.217554259582257</v>
       </c>
       <c r="K27">
-        <v>54.90527477833259</v>
+        <v>0.04905274778332591</v>
       </c>
       <c r="L27">
         <v>-0.007246967978510057</v>
@@ -3191,13 +3191,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U27">
-        <v>1.000043508527672</v>
+        <v>4.350852767154301E-05</v>
       </c>
       <c r="V27">
-        <v>1.000017150305275</v>
+        <v>1.715030527527084E-05</v>
       </c>
       <c r="W27">
-        <v>1.003091190108192</v>
+        <v>0.003091190108191588</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3232,7 +3232,7 @@
         <v>1.138550507710135</v>
       </c>
       <c r="K28">
-        <v>53.23935551698727</v>
+        <v>0.03239355516987263</v>
       </c>
       <c r="L28">
         <v>-0.006474022740794771</v>
@@ -3262,13 +3262,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U28">
-        <v>1.000011718958858</v>
+        <v>1.171895885843099E-05</v>
       </c>
       <c r="V28">
-        <v>0.9998627999108201</v>
+        <v>-0.0001372000891799452</v>
       </c>
       <c r="W28">
-        <v>0.9992295839753468</v>
+        <v>-0.0007704160246532199</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3303,7 +3303,7 @@
         <v>1.206852879798628</v>
       </c>
       <c r="K29">
-        <v>54.68660330038637</v>
+        <v>0.04686603300386372</v>
       </c>
       <c r="L29">
         <v>-0.005169302333268666</v>
@@ -3333,13 +3333,13 @@
         <v>0.03125</v>
       </c>
       <c r="U29">
-        <v>1.000038426225049</v>
+        <v>3.842622504857118E-05</v>
       </c>
       <c r="V29">
-        <v>1.000120066551174</v>
+        <v>0.0001200665511740251</v>
       </c>
       <c r="W29">
-        <v>1.00077101002313</v>
+        <v>0.0007710100231301809</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3374,7 +3374,7 @@
         <v>1.15165246225908</v>
       </c>
       <c r="K30">
-        <v>53.5240928755719</v>
+        <v>0.03524092875571905</v>
       </c>
       <c r="L30">
         <v>-0.003805366155241002</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1.000018045678361</v>
+        <v>1.804567836072302E-05</v>
       </c>
       <c r="V30">
-        <v>1.000085751526377</v>
+        <v>8.575152637702033E-05</v>
       </c>
       <c r="W30">
-        <v>0.9994863893168978</v>
+        <v>-0.0005136106831021836</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3445,7 +3445,7 @@
         <v>1.050497021353864</v>
       </c>
       <c r="K31">
-        <v>51.23133613041102</v>
+        <v>0.0123133613041102</v>
       </c>
       <c r="L31">
         <v>-0.002863009761791299</v>
@@ -3475,13 +3475,13 @@
         <v>0.06875000000007958</v>
       </c>
       <c r="U31">
-        <v>0.999982566711875</v>
+        <v>-1.743328812497946E-05</v>
       </c>
       <c r="V31">
-        <v>1.000085744173683</v>
+        <v>8.574417368345522E-05</v>
       </c>
       <c r="W31">
-        <v>0.998972250770812</v>
+        <v>-0.001027749229188024</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3516,7 +3516,7 @@
         <v>1.212298412133718</v>
       </c>
       <c r="K32">
-        <v>54.79814140283545</v>
+        <v>0.04798141402835443</v>
       </c>
       <c r="L32">
         <v>-0.001557301839689213</v>
@@ -3546,13 +3546,13 @@
         <v>0.2187500000000568</v>
       </c>
       <c r="U32">
-        <v>1.000188519181827</v>
+        <v>0.0001885191818267185</v>
       </c>
       <c r="V32">
-        <v>1.000137178915601</v>
+        <v>0.0001371789156006109</v>
       </c>
       <c r="W32">
-        <v>1.001800411522634</v>
+        <v>0.001800411522633771</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3587,7 +3587,7 @@
         <v>1.183502568292911</v>
       </c>
       <c r="K33">
-        <v>54.20202318416267</v>
+        <v>0.04202023184162673</v>
       </c>
       <c r="L33">
         <v>-0.0002074808418932772</v>
@@ -3617,13 +3617,13 @@
         <v>0.25</v>
       </c>
       <c r="U33">
-        <v>1.000102809263115</v>
+        <v>0.0001028092631145672</v>
       </c>
       <c r="V33">
-        <v>1.000034290025032</v>
+        <v>3.429002503185785E-05</v>
       </c>
       <c r="W33">
-        <v>0.9997432605905006</v>
+        <v>-0.0002567394094994402</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3658,7 +3658,7 @@
         <v>1.308518877255628</v>
       </c>
       <c r="K34">
-        <v>56.6821822488711</v>
+        <v>0.06682182248871105</v>
       </c>
       <c r="L34">
         <v>0.00155609708035012</v>
@@ -3688,13 +3688,13 @@
         <v>0.4187499999999886</v>
       </c>
       <c r="U34">
-        <v>1.000008566557872</v>
+        <v>8.566557871736435E-06</v>
       </c>
       <c r="V34">
-        <v>1.000240021944863</v>
+        <v>0.0002400219448634999</v>
       </c>
       <c r="W34">
-        <v>1.001284026707756</v>
+        <v>0.001284026707755626</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3729,7 +3729,7 @@
         <v>1.274962845875439</v>
       </c>
       <c r="K35">
-        <v>56.04323816483318</v>
+        <v>0.06043238164833187</v>
       </c>
       <c r="L35">
         <v>0.003354358948241113</v>
@@ -3759,13 +3759,13 @@
         <v>0.3874999999999886</v>
       </c>
       <c r="U35">
-        <v>0.9999143351551388</v>
+        <v>-8.566484486116632E-05</v>
       </c>
       <c r="V35">
-        <v>1.000205683726989</v>
+        <v>0.0002056837269890366</v>
       </c>
       <c r="W35">
-        <v>0.9997435239805079</v>
+        <v>-0.0002564760194920801</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3800,7 +3800,7 @@
         <v>1.241451133223559</v>
       </c>
       <c r="K36">
-        <v>55.38604499658029</v>
+        <v>0.05386044996580286</v>
       </c>
       <c r="L36">
         <v>0.00495072898563196</v>
@@ -3830,13 +3830,13 @@
         <v>0.3937500000000114</v>
       </c>
       <c r="U36">
-        <v>0.9998800589424627</v>
+        <v>-0.0001199410575373205</v>
       </c>
       <c r="V36">
-        <v>1.00015423107242</v>
+        <v>0.0001542310724202967</v>
       </c>
       <c r="W36">
-        <v>0.9997434581836839</v>
+        <v>-0.0002565418163160693</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3871,7 +3871,7 @@
         <v>1.296786842991239</v>
       </c>
       <c r="K37">
-        <v>56.46091394804222</v>
+        <v>0.06460913948042224</v>
       </c>
       <c r="L37">
         <v>0.00649299373823722</v>
@@ -3901,13 +3901,13 @@
         <v>0.3874999999999886</v>
       </c>
       <c r="U37">
-        <v>1.00003427298432</v>
+        <v>3.427298432012726E-05</v>
       </c>
       <c r="V37">
-        <v>1.00011993900245</v>
+        <v>0.000119939002449998</v>
       </c>
       <c r="W37">
-        <v>1.000513215293816</v>
+        <v>0.0005132152938156498</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3942,7 +3942,7 @@
         <v>1.077183218899861</v>
       </c>
       <c r="K38">
-        <v>51.85788182278738</v>
+        <v>0.01857881822787388</v>
       </c>
       <c r="L38">
         <v>0.007220178269276734</v>
@@ -3972,13 +3972,13 @@
         <v>0.3874999999999886</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1.000171320884016</v>
+        <v>0.0001713208840159464</v>
       </c>
       <c r="W38">
-        <v>0.9982046678635548</v>
+        <v>-0.001795332136445227</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4013,7 +4013,7 @@
         <v>1.229975182570406</v>
       </c>
       <c r="K39">
-        <v>55.15645161363013</v>
+        <v>0.0515645161363012</v>
       </c>
       <c r="L39">
         <v>0.00794678754243021</v>
@@ -4043,13 +4043,13 @@
         <v>0.4125000000000227</v>
       </c>
       <c r="U39">
-        <v>1.000154223143753</v>
+        <v>0.0001542231437530184</v>
       </c>
       <c r="V39">
-        <v>1.000359712230216</v>
+        <v>0.0003597122302156919</v>
       </c>
       <c r="W39">
-        <v>1.001541623843782</v>
+        <v>0.001541623843782203</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4084,7 +4084,7 @@
         <v>1.084607382729367</v>
       </c>
       <c r="K40">
-        <v>52.02933615774188</v>
+        <v>0.02029336157741879</v>
       </c>
       <c r="L40">
         <v>0.008127183828884131</v>
@@ -4114,13 +4114,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U40">
-        <v>0.9999486002124525</v>
+        <v>-5.139978754753471E-05</v>
       </c>
       <c r="V40">
-        <v>1.000085614972346</v>
+        <v>8.561497234627069E-05</v>
       </c>
       <c r="W40">
-        <v>0.9987172909184197</v>
+        <v>-0.001282709081580347</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4155,7 +4155,7 @@
         <v>0.98643142437618</v>
       </c>
       <c r="K41">
-        <v>49.65846856183115</v>
+        <v>-0.003415314381688517</v>
       </c>
       <c r="L41">
         <v>0.007560469654155566</v>
@@ -4185,13 +4185,13 @@
         <v>0.21875</v>
       </c>
       <c r="U41">
-        <v>0.9999571646419818</v>
+        <v>-4.28353580181895E-05</v>
       </c>
       <c r="V41">
-        <v>1.000119850700271</v>
+        <v>0.0001198507002706517</v>
       </c>
       <c r="W41">
-        <v>0.9989725147701001</v>
+        <v>-0.001027485229899927</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4226,7 +4226,7 @@
         <v>1.010251821439111</v>
       </c>
       <c r="K42">
-        <v>50.25498848775504</v>
+        <v>0.002549884877550368</v>
       </c>
       <c r="L42">
         <v>0.006644734601263799</v>
@@ -4256,13 +4256,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U42">
-        <v>0.9999742976842215</v>
+        <v>-2.570231577847526E-05</v>
       </c>
       <c r="V42">
-        <v>0.9999315220926849</v>
+        <v>-6.847790731512315E-05</v>
       </c>
       <c r="W42">
-        <v>1.000257135510414</v>
+        <v>0.0002571355104139528</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4297,7 +4297,7 @@
         <v>1.06040002578211</v>
       </c>
       <c r="K43">
-        <v>51.4657354160919</v>
+        <v>0.01465735416091907</v>
       </c>
       <c r="L43">
         <v>0.005739947386943073</v>
@@ -4327,13 +4327,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U43">
-        <v>0.9999400263883892</v>
+        <v>-5.99736116108085E-05</v>
       </c>
       <c r="V43">
-        <v>1.000017120649215</v>
+        <v>1.712064921477463E-05</v>
       </c>
       <c r="W43">
-        <v>1.000514138817481</v>
+        <v>0.0005141388174807471</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4368,7 +4368,7 @@
         <v>1.350731735136338</v>
       </c>
       <c r="K44">
-        <v>57.4600544565328</v>
+        <v>0.07460054456532794</v>
       </c>
       <c r="L44">
         <v>0.005910305416759271</v>
@@ -4398,13 +4398,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U44">
-        <v>1.000137090762653</v>
+        <v>0.0001370907626530027</v>
       </c>
       <c r="V44">
-        <v>1.000154083204931</v>
+        <v>0.0001540832049307106</v>
       </c>
       <c r="W44">
-        <v>1.002826310380267</v>
+        <v>0.002826310380267261</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4439,7 +4439,7 @@
         <v>1.246811474831028</v>
       </c>
       <c r="K45">
-        <v>55.49248296076086</v>
+        <v>0.05492482960760858</v>
       </c>
       <c r="L45">
         <v>0.006417286327633148</v>
@@ -4469,13 +4469,13 @@
         <v>-0.03125000000005684</v>
       </c>
       <c r="U45">
-        <v>1.000111370976724</v>
+        <v>0.0001113709767235349</v>
       </c>
       <c r="V45">
-        <v>1.000136941748404</v>
+        <v>0.0001369417484038404</v>
       </c>
       <c r="W45">
-        <v>0.9992313604919293</v>
+        <v>-0.000768639508070712</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4510,7 +4510,7 @@
         <v>1.246811474831028</v>
       </c>
       <c r="K46">
-        <v>55.49248296076086</v>
+        <v>0.05492482960760858</v>
       </c>
       <c r="L46">
         <v>0.007072077799073267</v>
@@ -4540,13 +4540,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U46">
-        <v>1.000145622751413</v>
+        <v>0.0001456227514131658</v>
       </c>
       <c r="V46">
-        <v>1.000205384496893</v>
+        <v>0.000205384496893446</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4581,7 +4581,7 @@
         <v>1.275227456044788</v>
       </c>
       <c r="K47">
-        <v>56.04835035973147</v>
+        <v>0.06048350359731469</v>
       </c>
       <c r="L47">
         <v>0.007842313422202382</v>
@@ -4611,13 +4611,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U47">
-        <v>1.000119907157601</v>
+        <v>0.000119907157601018</v>
       </c>
       <c r="V47">
-        <v>1.000102671161382</v>
+        <v>0.000102671161381851</v>
       </c>
       <c r="W47">
-        <v>1.00025641025641</v>
+        <v>0.0002564102564102111</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4652,7 +4652,7 @@
         <v>1.203245554820932</v>
       </c>
       <c r="K48">
-        <v>54.61241268310309</v>
+        <v>0.04612412683103095</v>
       </c>
       <c r="L48">
         <v>0.008417237522767736</v>
@@ -4682,13 +4682,13 @@
         <v>0.02499999999992042</v>
       </c>
       <c r="U48">
-        <v>1.000059946390799</v>
+        <v>5.99463907990927E-05</v>
       </c>
       <c r="V48">
-        <v>1.000085550517581</v>
+        <v>8.555051758074583E-05</v>
       </c>
       <c r="W48">
-        <v>0.9994873109459111</v>
+        <v>-0.0005126890540888551</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4723,7 +4723,7 @@
         <v>1.232954146014502</v>
       </c>
       <c r="K49">
-        <v>55.21627697618177</v>
+        <v>0.05216276976181777</v>
       </c>
       <c r="L49">
         <v>0.008900113024470593</v>
@@ -4753,13 +4753,13 @@
         <v>0.125</v>
       </c>
       <c r="U49">
-        <v>1.000128448851667</v>
+        <v>0.0001284488516672955</v>
       </c>
       <c r="V49">
-        <v>1.000017108639863</v>
+        <v>1.710863986303934E-05</v>
       </c>
       <c r="W49">
-        <v>1.000256476019492</v>
+        <v>0.0002564760194923021</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4794,7 +4794,7 @@
         <v>1.09587273511848</v>
       </c>
       <c r="K50">
-        <v>52.28717930988928</v>
+        <v>0.02287179309889276</v>
       </c>
       <c r="L50">
         <v>0.008889492014951194</v>
@@ -4824,13 +4824,13 @@
         <v>0.2187500000000568</v>
       </c>
       <c r="U50">
-        <v>1.000085621569786</v>
+        <v>8.56215697857543E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999657833056748</v>
+        <v>-3.421669432523977E-05</v>
       </c>
       <c r="W50">
-        <v>0.998974358974359</v>
+        <v>-0.001025641025640955</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4865,7 +4865,7 @@
         <v>1.212905653546344</v>
       </c>
       <c r="K51">
-        <v>54.81054520343304</v>
+        <v>0.04810545203433036</v>
       </c>
       <c r="L51">
         <v>0.008922729232626624</v>
@@ -4895,13 +4895,13 @@
         <v>0.3062499999999773</v>
       </c>
       <c r="U51">
-        <v>1.000102737087232</v>
+        <v>0.0001027370872324074</v>
       </c>
       <c r="V51">
-        <v>1.000051326797721</v>
+        <v>5.132679772112958E-05</v>
       </c>
       <c r="W51">
-        <v>1.001026694045174</v>
+        <v>0.001026694045174414</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4936,7 +4936,7 @@
         <v>1.17666651760638</v>
       </c>
       <c r="K52">
-        <v>54.05818980944898</v>
+        <v>0.04058189809448975</v>
       </c>
       <c r="L52">
         <v>0.008854258199168265</v>
@@ -4966,13 +4966,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U52">
-        <v>1.000059923811154</v>
+        <v>5.992381115427214E-05</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W52">
-        <v>0.9997435897435897</v>
+        <v>-0.0002564102564103221</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5007,7 +5007,7 @@
         <v>1.140788187288846</v>
       </c>
       <c r="K53">
-        <v>53.28823253334429</v>
+        <v>0.03288232533344282</v>
       </c>
       <c r="L53">
         <v>0.008602719532953114</v>
@@ -5037,13 +5037,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U53">
-        <v>1.000136960504015</v>
+        <v>0.0001369605040149047</v>
       </c>
       <c r="V53">
-        <v>1.000102648326832</v>
+        <v>0.0001026483268320444</v>
       </c>
       <c r="W53">
-        <v>0.9997435239805079</v>
+        <v>-0.0002564760194920801</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5078,7 +5078,7 @@
         <v>1.140788187288846</v>
       </c>
       <c r="K54">
-        <v>53.28823253334429</v>
+        <v>0.03288232533344282</v>
       </c>
       <c r="L54">
         <v>0.008225014261150453</v>
@@ -5108,13 +5108,13 @@
         <v>0.1625000000000796</v>
       </c>
       <c r="U54">
-        <v>1.00017973604478</v>
+        <v>0.0001797360447797214</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5149,7 +5149,7 @@
         <v>1.242144983021058</v>
       </c>
       <c r="K55">
-        <v>55.39985114376486</v>
+        <v>0.05399851143764856</v>
       </c>
       <c r="L55">
         <v>0.008045594773372777</v>
@@ -5179,13 +5179,13 @@
         <v>0.1437499999999545</v>
       </c>
       <c r="U55">
-        <v>1.00011124517581</v>
+        <v>0.0001112451758102928</v>
       </c>
       <c r="V55">
-        <v>1.000136850388313</v>
+        <v>0.0001368503883130145</v>
       </c>
       <c r="W55">
-        <v>1.000769625448948</v>
+        <v>0.0007696254489482079</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5220,7 +5220,7 @@
         <v>1.277708770997259</v>
       </c>
       <c r="K56">
-        <v>56.09623088195926</v>
+        <v>0.06096230881959253</v>
       </c>
       <c r="L56">
         <v>0.008061852553991052</v>
@@ -5250,13 +5250,13 @@
         <v>0.125</v>
       </c>
       <c r="U56">
-        <v>1.000171127387227</v>
+        <v>0.0001711273872271324</v>
       </c>
       <c r="V56">
-        <v>1.000222351452126</v>
+        <v>0.0002223514521257908</v>
       </c>
       <c r="W56">
-        <v>1.000256344527044</v>
+        <v>0.000256344527044261</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5291,7 +5291,7 @@
         <v>1.277708770997259</v>
       </c>
       <c r="K57">
-        <v>56.09623088195926</v>
+        <v>0.06096230881959253</v>
       </c>
       <c r="L57">
         <v>0.008166154687285989</v>
@@ -5321,13 +5321,13 @@
         <v>0.06875000000007958</v>
       </c>
       <c r="U57">
-        <v>1.000068439243062</v>
+        <v>6.843924306187965E-05</v>
       </c>
       <c r="V57">
-        <v>1.000205201867337</v>
+        <v>0.0002052018673368572</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5362,7 +5362,7 @@
         <v>1.142629839137783</v>
       </c>
       <c r="K58">
-        <v>53.32838263829973</v>
+        <v>0.03328382638299732</v>
       </c>
       <c r="L58">
         <v>0.008006864512771631</v>
@@ -5392,13 +5392,13 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="U58">
-        <v>1.000068434559452</v>
+        <v>6.843455945237942E-05</v>
       </c>
       <c r="V58">
-        <v>1.000119676531432</v>
+        <v>0.0001196765314324111</v>
       </c>
       <c r="W58">
-        <v>0.9992311635058944</v>
+        <v>-0.0007688364941056403</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5433,7 +5433,7 @@
         <v>1.101760457838897</v>
       </c>
       <c r="K59">
-        <v>52.42083862267374</v>
+        <v>0.02420838622673738</v>
       </c>
       <c r="L59">
         <v>0.007575440688528142</v>
@@ -5463,13 +5463,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U59">
-        <v>1.000034214938242</v>
+        <v>3.421493824218302E-05</v>
       </c>
       <c r="V59">
-        <v>0.9999145269923756</v>
+        <v>-8.547300762440369E-05</v>
       </c>
       <c r="W59">
-        <v>0.9997435239805079</v>
+        <v>-0.0002564760194920801</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5504,7 +5504,7 @@
         <v>0.9575518490183166</v>
       </c>
       <c r="K60">
-        <v>48.91578475934187</v>
+        <v>-0.01084215240658132</v>
       </c>
       <c r="L60">
         <v>0.006605251282376847</v>
@@ -5534,13 +5534,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U60">
-        <v>1.00001710688381</v>
+        <v>1.710688380995862E-05</v>
       </c>
       <c r="V60">
-        <v>0.9998974236233397</v>
+        <v>-0.0001025763766603349</v>
       </c>
       <c r="W60">
-        <v>0.9989738327347357</v>
+        <v>-0.001026167265264277</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5575,7 +5575,7 @@
         <v>0.8415980174050189</v>
       </c>
       <c r="K61">
-        <v>45.69933337520139</v>
+        <v>-0.0430066662479861</v>
       </c>
       <c r="L61">
         <v>0.004972755746078442</v>
@@ -5605,13 +5605,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U61">
-        <v>1.00001710659117</v>
+        <v>1.710659116960223E-05</v>
       </c>
       <c r="V61">
-        <v>0.9998290218339119</v>
+        <v>-0.0001709781660881315</v>
       </c>
       <c r="W61">
-        <v>0.9989727786337956</v>
+        <v>-0.001027221366204367</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5646,7 +5646,7 @@
         <v>0.8415980174050192</v>
       </c>
       <c r="K62">
-        <v>45.69933337520139</v>
+        <v>-0.0430066662479861</v>
       </c>
       <c r="L62">
         <v>0.003025116375717787</v>
@@ -5676,13 +5676,13 @@
         <v>-0.09374999999994316</v>
       </c>
       <c r="U62">
-        <v>0.9999572342536521</v>
+        <v>-4.276574634787256E-05</v>
       </c>
       <c r="V62">
-        <v>0.9998118918549175</v>
+        <v>-0.0001881081450825217</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5717,7 +5717,7 @@
         <v>0.742034608941661</v>
       </c>
       <c r="K63">
-        <v>42.59585918287063</v>
+        <v>-0.07404140817129368</v>
       </c>
       <c r="L63">
         <v>0.0006259183014725358</v>
@@ -5747,13 +5747,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U63">
-        <v>0.9999315718794639</v>
+        <v>-6.842812053609038E-05</v>
       </c>
       <c r="V63">
-        <v>0.9997776485478738</v>
+        <v>-0.0002223514521262349</v>
       </c>
       <c r="W63">
-        <v>0.9989717223650386</v>
+        <v>-0.001028277634961383</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5788,7 +5788,7 @@
         <v>1.364680965567616</v>
       </c>
       <c r="K64">
-        <v>57.710997189003</v>
+        <v>0.07710997189002999</v>
       </c>
       <c r="L64">
         <v>-2.731124553855108E-05</v>
@@ -5818,13 +5818,13 @@
         <v>-0.1812499999999773</v>
       </c>
       <c r="U64">
-        <v>1.000059878702856</v>
+        <v>5.987870285606434E-05</v>
       </c>
       <c r="V64">
-        <v>1.000102646570749</v>
+        <v>0.0001026465707492097</v>
       </c>
       <c r="W64">
-        <v>1.005146680391148</v>
+        <v>0.00514668039114774</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5859,7 +5859,7 @@
         <v>1.242525112755966</v>
       </c>
       <c r="K65">
-        <v>55.40741130113618</v>
+        <v>0.05407411301136178</v>
       </c>
       <c r="L65">
         <v>0.0001384987858587253</v>
@@ -5889,13 +5889,13 @@
         <v>-0.1874999999999432</v>
       </c>
       <c r="U65">
-        <v>1.000042767941151</v>
+        <v>4.276794115121163E-05</v>
       </c>
       <c r="V65">
-        <v>1.000119742041431</v>
+        <v>0.000119742041430948</v>
       </c>
       <c r="W65">
-        <v>0.9992319508448541</v>
+        <v>-0.0007680491551459445</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5930,7 +5930,7 @@
         <v>1.273932968381098</v>
       </c>
       <c r="K66">
-        <v>56.02332989120875</v>
+        <v>0.06023329891208751</v>
       </c>
       <c r="L66">
         <v>0.0008828552083156507</v>
@@ -5960,13 +5960,13 @@
         <v>-0.1749999999999545</v>
       </c>
       <c r="U66">
-        <v>1.000059872556986</v>
+        <v>5.987255698580718E-05</v>
       </c>
       <c r="V66">
-        <v>1.000068415831423</v>
+        <v>6.841583142325192E-05</v>
       </c>
       <c r="W66">
-        <v>1.000256213169357</v>
+        <v>0.000256213169356867</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6001,7 +6001,7 @@
         <v>1.158982001893887</v>
       </c>
       <c r="K67">
-        <v>53.68187418316656</v>
+        <v>0.03681874183166567</v>
       </c>
       <c r="L67">
         <v>0.001646703398552057</v>
@@ -6031,13 +6031,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U67">
-        <v>1.000017105420708</v>
+        <v>1.710542070787469E-05</v>
       </c>
       <c r="V67">
-        <v>1.000034205575509</v>
+        <v>3.420557550870562E-05</v>
       </c>
       <c r="W67">
-        <v>0.9992315573770493</v>
+        <v>-0.0007684426229507269</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6072,7 +6072,7 @@
         <v>1.253964250064076</v>
       </c>
       <c r="K68">
-        <v>55.63372400553505</v>
+        <v>0.05633724005535046</v>
       </c>
       <c r="L68">
         <v>0.002647984096447659</v>
@@ -6102,13 +6102,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U68">
-        <v>1.000102630768704</v>
+        <v>0.0001026307687044259</v>
       </c>
       <c r="V68">
-        <v>1.000102613216582</v>
+        <v>0.0001026132165824478</v>
       </c>
       <c r="W68">
-        <v>1.000769033581133</v>
+        <v>0.0007690335811330051</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6143,7 +6143,7 @@
         <v>1.420599773169696</v>
       </c>
       <c r="K69">
-        <v>58.68792474145641</v>
+        <v>0.0868792474145641</v>
       </c>
       <c r="L69">
         <v>0.004186786950176062</v>
@@ -6173,13 +6173,13 @@
         <v>0.1187499999999204</v>
       </c>
       <c r="U69">
-        <v>1.000094068550318</v>
+        <v>9.406855031812711E-05</v>
       </c>
       <c r="V69">
-        <v>1.000188104928349</v>
+        <v>0.0001881049283491976</v>
       </c>
       <c r="W69">
-        <v>1.001280737704918</v>
+        <v>0.001280737704917989</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6214,7 +6214,7 @@
         <v>1.455680935928781</v>
       </c>
       <c r="K70">
-        <v>59.27809735503027</v>
+        <v>0.09278097355030268</v>
       </c>
       <c r="L70">
         <v>0.00603121314526203</v>
@@ -6244,13 +6244,13 @@
         <v>0.2937499999999318</v>
       </c>
       <c r="U70">
-        <v>1.000145364994399</v>
+        <v>0.0001453649943992108</v>
       </c>
       <c r="V70">
-        <v>1.000153875087623</v>
+        <v>0.000153875087623323</v>
       </c>
       <c r="W70">
-        <v>1.000255819902788</v>
+        <v>0.0002558199027884456</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6285,7 +6285,7 @@
         <v>1.824956333392759</v>
       </c>
       <c r="K71">
-        <v>64.6012227453086</v>
+        <v>0.1460122274530861</v>
       </c>
       <c r="L71">
         <v>0.008855349899175467</v>
@@ -6315,13 +6315,13 @@
         <v>0.5999999999999659</v>
       </c>
       <c r="U71">
-        <v>1.000265038815362</v>
+        <v>0.0002650388153619954</v>
       </c>
       <c r="V71">
-        <v>1.000307702827447</v>
+        <v>0.0003077028274471871</v>
       </c>
       <c r="W71">
-        <v>1.002557544757033</v>
+        <v>0.002557544757033181</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6356,7 +6356,7 @@
         <v>1.35197989086122</v>
       </c>
       <c r="K72">
-        <v>57.48262968210022</v>
+        <v>0.07482629682100217</v>
       </c>
       <c r="L72">
         <v>0.01121948810971569</v>
@@ -6386,13 +6386,13 @@
         <v>0.6062499999999886</v>
       </c>
       <c r="U72">
-        <v>1.000179494850207</v>
+        <v>0.0001794948502071847</v>
       </c>
       <c r="V72">
-        <v>1.000153804087771</v>
+        <v>0.0001538040877708813</v>
       </c>
       <c r="W72">
-        <v>0.9977040816326531</v>
+        <v>-0.002295918367346883</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6427,7 +6427,7 @@
         <v>1.274701275098639</v>
       </c>
       <c r="K73">
-        <v>56.03818352119064</v>
+        <v>0.06038183521190643</v>
       </c>
       <c r="L73">
         <v>0.01292629576689532</v>
@@ -6457,13 +6457,13 @@
         <v>0.6374999999999318</v>
       </c>
       <c r="U73">
-        <v>1.000145279278047</v>
+        <v>0.0001452792780474166</v>
       </c>
       <c r="V73">
-        <v>1.00017086715079</v>
+        <v>0.0001708671507902881</v>
       </c>
       <c r="W73">
-        <v>0.9994886218358475</v>
+        <v>-0.0005113781641524762</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6498,7 +6498,7 @@
         <v>1.108031245378517</v>
       </c>
       <c r="K74">
-        <v>52.56237296328877</v>
+        <v>0.02562372963288773</v>
       </c>
       <c r="L74">
         <v>0.01361187512293861</v>
@@ -6528,13 +6528,13 @@
         <v>0.6062499999999886</v>
       </c>
       <c r="U74">
-        <v>1.000008544598532</v>
+        <v>8.544598532278513E-06</v>
       </c>
       <c r="V74">
-        <v>1.000102502776117</v>
+        <v>0.0001025027761170083</v>
       </c>
       <c r="W74">
-        <v>0.9987209004860578</v>
+        <v>-0.001279099513942228</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6569,7 +6569,7 @@
         <v>1.38329909044115</v>
       </c>
       <c r="K75">
-        <v>58.04135519495794</v>
+        <v>0.08041355194957944</v>
       </c>
       <c r="L75">
         <v>0.01451943918568029</v>
@@ -6599,13 +6599,13 @@
         <v>0.6687499999999886</v>
       </c>
       <c r="U75">
-        <v>1.000119623357315</v>
+        <v>0.0001196233573148575</v>
       </c>
       <c r="V75">
-        <v>1.000341640901248</v>
+        <v>0.0003416409012484412</v>
       </c>
       <c r="W75">
-        <v>1.002561475409836</v>
+        <v>0.002561475409835978</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6640,7 +6640,7 @@
         <v>1.412274653079329</v>
       </c>
       <c r="K76">
-        <v>58.54535059996277</v>
+        <v>0.08545350599962764</v>
       </c>
       <c r="L76">
         <v>0.01554380836518426</v>
@@ -6670,13 +6670,13 @@
         <v>0.6750000000000114</v>
       </c>
       <c r="U76">
-        <v>1.000128152552799</v>
+        <v>0.0001281525527989658</v>
       </c>
       <c r="V76">
-        <v>1.000426905278257</v>
+        <v>0.0004269052782568394</v>
       </c>
       <c r="W76">
-        <v>1.000255493101686</v>
+        <v>0.000255493101686266</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6711,7 +6711,7 @@
         <v>1.16379878718974</v>
       </c>
       <c r="K77">
-        <v>53.78498195302336</v>
+        <v>0.03784981953023359</v>
       </c>
       <c r="L77">
         <v>0.01586322711627803</v>
@@ -6741,13 +6741,13 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="U77">
-        <v>1.000059796861519</v>
+        <v>5.979686151902364E-05</v>
       </c>
       <c r="V77">
-        <v>1.000307240637695</v>
+        <v>0.0003072406376949388</v>
       </c>
       <c r="W77">
-        <v>0.9982120051085569</v>
+        <v>-0.001787994891443101</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6782,7 +6782,7 @@
         <v>1.105311933719458</v>
       </c>
       <c r="K78">
-        <v>52.50110047904879</v>
+        <v>0.0250110047904879</v>
       </c>
       <c r="L78">
         <v>0.01549083249207853</v>
@@ -6812,13 +6812,13 @@
         <v>0.4000000000000341</v>
       </c>
       <c r="U78">
-        <v>1.000059793286068</v>
+        <v>5.979328606819934E-05</v>
       </c>
       <c r="V78">
-        <v>1.000341273633199</v>
+        <v>0.0003412736331991351</v>
       </c>
       <c r="W78">
-        <v>0.9994882292732856</v>
+        <v>-0.0005117707267143778</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6853,7 +6853,7 @@
         <v>1.369812591366443</v>
       </c>
       <c r="K79">
-        <v>57.80257039551823</v>
+        <v>0.07802570395518227</v>
       </c>
       <c r="L79">
         <v>0.01560006211291893</v>
@@ -6883,13 +6883,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U79">
-        <v>1.000136662196674</v>
+        <v>0.0001366621966740755</v>
       </c>
       <c r="V79">
-        <v>1.00017057860262</v>
+        <v>0.0001705786026200418</v>
       </c>
       <c r="W79">
-        <v>1.002560163850486</v>
+        <v>0.002560163850486408</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6924,7 +6924,7 @@
         <v>1.369812591366443</v>
       </c>
       <c r="K80">
-        <v>57.80257039551823</v>
+        <v>0.07802570395518227</v>
       </c>
       <c r="L80">
         <v>0.01593696007891239</v>
@@ -6954,13 +6954,13 @@
         <v>0.1624999999999659</v>
       </c>
       <c r="U80">
-        <v>1.000170804403337</v>
+        <v>0.0001708044033374989</v>
       </c>
       <c r="V80">
-        <v>1.00022171436368</v>
+        <v>0.0002217143636797925</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6995,7 +6995,7 @@
         <v>1.369812591366443</v>
       </c>
       <c r="K81">
-        <v>57.80257039551824</v>
+        <v>0.07802570395518238</v>
       </c>
       <c r="L81">
         <v>0.01633199106131552</v>
@@ -7025,13 +7025,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U81">
-        <v>1.00013662018734</v>
+        <v>0.0001366201873402861</v>
       </c>
       <c r="V81">
-        <v>1.000204614046755</v>
+        <v>0.0002046140467546476</v>
       </c>
       <c r="W81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7066,7 +7066,7 @@
         <v>1.219345134335228</v>
       </c>
       <c r="K82">
-        <v>54.9416634425571</v>
+        <v>0.04941663442557098</v>
       </c>
       <c r="L82">
         <v>0.01630423058593139</v>
@@ -7096,13 +7096,13 @@
         <v>0.21875</v>
       </c>
       <c r="U82">
-        <v>1.000110988738912</v>
+        <v>0.0001109887389119102</v>
       </c>
       <c r="V82">
-        <v>1.000187524506043</v>
+        <v>0.0001875245060432018</v>
       </c>
       <c r="W82">
-        <v>0.9989785495403473</v>
+        <v>-0.00102145045965274</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7137,7 +7137,7 @@
         <v>1.09296884365064</v>
       </c>
       <c r="K83">
-        <v>52.22098011474647</v>
+        <v>0.02220980114746474</v>
       </c>
       <c r="L83">
         <v>0.01558968657335342</v>
@@ -7167,13 +7167,13 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="U83">
-        <v>1.000085366478291</v>
+        <v>8.536647829116006E-05</v>
       </c>
       <c r="V83">
-        <v>1.000068177944435</v>
+        <v>6.81779444351438E-05</v>
       </c>
       <c r="W83">
-        <v>0.9989775051124745</v>
+        <v>-0.001022494887525482</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7208,7 +7208,7 @@
         <v>1.010302621208754</v>
       </c>
       <c r="K84">
-        <v>50.25624552990334</v>
+        <v>0.002562455299033428</v>
       </c>
       <c r="L84">
         <v>0.014168317229468</v>
@@ -7238,13 +7238,13 @@
         <v>-0.03125000000005684</v>
       </c>
       <c r="U84">
-        <v>1.000059751434035</v>
+        <v>5.975143403458283E-05</v>
       </c>
       <c r="V84">
-        <v>0.9999318267034801</v>
+        <v>-6.817329651986892E-05</v>
       </c>
       <c r="W84">
-        <v>0.9992323439099283</v>
+        <v>-0.0007676560900716778</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7279,7 +7279,7 @@
         <v>1.010302621208754</v>
       </c>
       <c r="K85">
-        <v>50.25624552990334</v>
+        <v>0.002562455299033428</v>
       </c>
       <c r="L85">
         <v>0.01235803718057559</v>
@@ -7309,13 +7309,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U85">
-        <v>1.000034141636579</v>
+        <v>3.414163657922131E-05</v>
       </c>
       <c r="V85">
-        <v>0.9999147775694563</v>
+        <v>-8.522243054365219E-05</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7350,7 +7350,7 @@
         <v>1.317589863646115</v>
       </c>
       <c r="K86">
-        <v>56.85172705981876</v>
+        <v>0.06851727059818769</v>
       </c>
       <c r="L86">
         <v>0.01140819296207793</v>
@@ -7380,13 +7380,13 @@
         <v>0.04375000000004547</v>
       </c>
       <c r="U86">
-        <v>1.000119491648387</v>
+        <v>0.0001194916483873154</v>
       </c>
       <c r="V86">
-        <v>0.9999318162447796</v>
+        <v>-6.818375522044118E-05</v>
       </c>
       <c r="W86">
-        <v>1.002816901408451</v>
+        <v>0.0028169014084507</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7421,7 +7421,7 @@
         <v>1.119987294811229</v>
       </c>
       <c r="K87">
-        <v>52.82990598823171</v>
+        <v>0.02829905988231707</v>
       </c>
       <c r="L87">
         <v>0.01043907315995436</v>
@@ -7451,13 +7451,13 @@
         <v>0.03125000000005684</v>
       </c>
       <c r="U87">
-        <v>1.000068272783908</v>
+        <v>6.827278390808544E-05</v>
       </c>
       <c r="V87">
-        <v>0.9999829528988595</v>
+        <v>-1.704710114047714E-05</v>
       </c>
       <c r="W87">
-        <v>0.9984678243105208</v>
+        <v>-0.001532175689479165</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7492,7 +7492,7 @@
         <v>1.146298302732561</v>
       </c>
       <c r="K88">
-        <v>53.40815399579596</v>
+        <v>0.03408153995795959</v>
       </c>
       <c r="L88">
         <v>0.009575249739408041</v>
@@ -7522,13 +7522,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U88">
-        <v>1.00010240218458</v>
+        <v>0.0001024021845799084</v>
       </c>
       <c r="V88">
-        <v>1.000034094783498</v>
+        <v>3.409478349802875E-05</v>
       </c>
       <c r="W88">
-        <v>1.000255754475703</v>
+        <v>0.0002557544757033625</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7563,7 +7563,7 @@
         <v>1.173994100544474</v>
       </c>
       <c r="K89">
-        <v>54.0017151035713</v>
+        <v>0.04001715103571302</v>
       </c>
       <c r="L89">
         <v>0.008888580545896587</v>
@@ -7593,13 +7593,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U89">
-        <v>1.000119456982687</v>
+        <v>0.0001194569826872272</v>
       </c>
       <c r="V89">
-        <v>1.000136374484334</v>
+        <v>0.000136374484333901</v>
       </c>
       <c r="W89">
-        <v>1.000255689082076</v>
+        <v>0.0002556890820761826</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7634,7 +7634,7 @@
         <v>1.109313426103601</v>
       </c>
       <c r="K90">
-        <v>52.5912087021019</v>
+        <v>0.02591208702101899</v>
       </c>
       <c r="L90">
         <v>0.008134216336748452</v>
@@ -7664,13 +7664,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U90">
-        <v>1.000136505959339</v>
+        <v>0.000136505959338562</v>
       </c>
       <c r="V90">
-        <v>0.9999318220555651</v>
+        <v>-6.817794443492176E-05</v>
       </c>
       <c r="W90">
-        <v>0.9994887525562373</v>
+        <v>-0.0005112474437627412</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7705,7 +7705,7 @@
         <v>1.078052982985278</v>
       </c>
       <c r="K91">
-        <v>51.87803159073328</v>
+        <v>0.01878031590733276</v>
       </c>
       <c r="L91">
         <v>0.007264139935037911</v>
@@ -7735,13 +7735,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U91">
-        <v>1.000162078702005</v>
+        <v>0.0001620787020053527</v>
       </c>
       <c r="V91">
-        <v>0.999897726110524</v>
+        <v>-0.0001022738894760344</v>
       </c>
       <c r="W91">
-        <v>0.9997442455242966</v>
+        <v>-0.0002557544757033625</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7776,7 +7776,7 @@
         <v>1.10771613212232</v>
       </c>
       <c r="K92">
-        <v>52.55528081985732</v>
+        <v>0.0255528081985732</v>
       </c>
       <c r="L92">
         <v>0.006446170840951402</v>
@@ -7806,13 +7806,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U92">
-        <v>1.000170581512376</v>
+        <v>0.0001705815123755894</v>
       </c>
       <c r="V92">
-        <v>1.000034094783498</v>
+        <v>3.409478349825079E-05</v>
       </c>
       <c r="W92">
-        <v>1.000255819902788</v>
+        <v>0.0002558199027884456</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7847,7 +7847,7 @@
         <v>1.10771613212232</v>
       </c>
       <c r="K93">
-        <v>52.55528081985732</v>
+        <v>0.0255528081985732</v>
       </c>
       <c r="L93">
         <v>0.005688428664311848</v>
@@ -7877,13 +7877,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U93">
-        <v>1.000204662903143</v>
+        <v>0.000204662903143138</v>
       </c>
       <c r="V93">
-        <v>1.000068187242167</v>
+        <v>6.818724216683947E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7918,7 +7918,7 @@
         <v>1.10771613212232</v>
       </c>
       <c r="K94">
-        <v>52.55528081985732</v>
+        <v>0.0255528081985732</v>
       </c>
       <c r="L94">
         <v>0.004994750941472452</v>
@@ -7948,13 +7948,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U94">
-        <v>1.000034103504135</v>
+        <v>3.410350413490804E-05</v>
       </c>
       <c r="V94">
-        <v>0.999897726110524</v>
+        <v>-0.0001022738894760344</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7989,7 +7989,7 @@
         <v>1.17691140638862</v>
       </c>
       <c r="K95">
-        <v>54.06335797289303</v>
+        <v>0.04063357972893034</v>
       </c>
       <c r="L95">
         <v>0.004552217535026733</v>
@@ -8019,13 +8019,13 @@
         <v>-0.02500000000009095</v>
       </c>
       <c r="U95">
-        <v>1.000076730267533</v>
+        <v>7.673026753285406E-05</v>
       </c>
       <c r="V95">
-        <v>0.9999318104330038</v>
+        <v>-6.818956699616852E-05</v>
       </c>
       <c r="W95">
-        <v>1.000511508951407</v>
+        <v>0.000511508951406725</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8060,7 +8060,7 @@
         <v>1.135556082913899</v>
       </c>
       <c r="K96">
-        <v>53.17378887865443</v>
+        <v>0.03173788878654438</v>
       </c>
       <c r="L96">
         <v>0.004180278117777989</v>
@@ -8090,13 +8090,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U96">
-        <v>1.000059674518128</v>
+        <v>5.967451812827207E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999147572285868</v>
+        <v>-8.524277141319647E-05</v>
       </c>
       <c r="W96">
-        <v>0.9997443762781187</v>
+        <v>-0.0002556237218812596</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8131,7 +8131,7 @@
         <v>1.209532627300813</v>
       </c>
       <c r="K97">
-        <v>54.7415599279197</v>
+        <v>0.04741559927919692</v>
       </c>
       <c r="L97">
         <v>0.004045877828321471</v>
@@ -8161,13 +8161,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U97">
-        <v>1.000102293069645</v>
+        <v>0.0001022930696445989</v>
       </c>
       <c r="V97">
-        <v>1.000017050007673</v>
+        <v>1.705000767260323E-05</v>
       </c>
       <c r="W97">
-        <v>1.000511378164152</v>
+        <v>0.0005113781641523651</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8202,7 +8202,7 @@
         <v>1.046543798350249</v>
       </c>
       <c r="K98">
-        <v>51.13713174347328</v>
+        <v>0.01137131743473274</v>
       </c>
       <c r="L98">
         <v>0.003676608461582828</v>
@@ -8232,13 +8232,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U98">
-        <v>1.000042617752851</v>
+        <v>4.261775285119285E-05</v>
       </c>
       <c r="V98">
-        <v>1.000017049716974</v>
+        <v>1.7049716974471E-05</v>
       </c>
       <c r="W98">
-        <v>0.9989777664196268</v>
+        <v>-0.001022233580373233</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8273,7 +8273,7 @@
         <v>1.472081360123698</v>
       </c>
       <c r="K99">
-        <v>59.54825694126983</v>
+        <v>0.09548256941269839</v>
       </c>
       <c r="L99">
         <v>0.004292915588173736</v>
@@ -8303,13 +8303,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U99">
-        <v>1.000102278247974</v>
+        <v>0.0001022782479735973</v>
       </c>
       <c r="V99">
-        <v>1.000272790820589</v>
+        <v>0.0002727908205890639</v>
       </c>
       <c r="W99">
-        <v>1.003069838833461</v>
+        <v>0.003069838833461347</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8344,7 +8344,7 @@
         <v>1.240546628701028</v>
       </c>
       <c r="K100">
-        <v>55.36803442560993</v>
+        <v>0.05368034425609935</v>
       </c>
       <c r="L100">
         <v>0.004985585785946906</v>
@@ -8374,13 +8374,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U100">
-        <v>1.000051133894102</v>
+        <v>5.113389410160707E-05</v>
       </c>
       <c r="V100">
-        <v>1.00018749254291</v>
+        <v>0.0001874925429101726</v>
       </c>
       <c r="W100">
-        <v>0.9987248150981892</v>
+        <v>-0.001275184901810777</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8415,7 +8415,7 @@
         <v>1.200785725604336</v>
       </c>
       <c r="K101">
-        <v>54.56168274967343</v>
+        <v>0.04561682749673435</v>
       </c>
       <c r="L101">
         <v>0.00556902865793796</v>
@@ -8445,13 +8445,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U101">
-        <v>0.9999573906003665</v>
+        <v>-4.260939963351973E-05</v>
       </c>
       <c r="V101">
-        <v>0.9999829584185415</v>
+        <v>-1.70415814585434E-05</v>
       </c>
       <c r="W101">
-        <v>0.9997446373850868</v>
+        <v>-0.0002553626149132127</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8486,7 +8486,7 @@
         <v>1.234523741764896</v>
       </c>
       <c r="K102">
-        <v>55.24773439148294</v>
+        <v>0.05247734391482939</v>
       </c>
       <c r="L102">
         <v>0.006121925569580553</v>
@@ -8516,13 +8516,13 @@
         <v>0.1937500000000227</v>
       </c>
       <c r="U102">
-        <v>1.000042611215272</v>
+        <v>4.26112152718261E-05</v>
       </c>
       <c r="V102">
-        <v>1.000102251231275</v>
+        <v>0.0001022512312751633</v>
       </c>
       <c r="W102">
-        <v>1.000255427841635</v>
+        <v>0.0002554278416349032</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8557,7 +8557,7 @@
         <v>1.11566008499468</v>
       </c>
       <c r="K103">
-        <v>52.73342787470915</v>
+        <v>0.02733427874709149</v>
       </c>
       <c r="L103">
         <v>0.006319370484375919</v>
@@ -8587,13 +8587,13 @@
         <v>0.1875</v>
       </c>
       <c r="U103">
-        <v>1.000034087519707</v>
+        <v>3.40875197069046E-05</v>
       </c>
       <c r="V103">
-        <v>1.00003408025901</v>
+        <v>3.408025900997202E-05</v>
       </c>
       <c r="W103">
-        <v>0.9992339121552605</v>
+        <v>-0.000766087844739527</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8628,7 +8628,7 @@
         <v>1.521062215298344</v>
       </c>
       <c r="K104">
-        <v>60.33418001619371</v>
+        <v>0.1033418001619372</v>
       </c>
       <c r="L104">
         <v>0.007383286501082762</v>
@@ -8658,13 +8658,13 @@
         <v>0.2749999999999773</v>
       </c>
       <c r="U104">
-        <v>1.000178953378384</v>
+        <v>0.000178953378384028</v>
       </c>
       <c r="V104">
-        <v>1.000221514134306</v>
+        <v>0.0002215141343056004</v>
       </c>
       <c r="W104">
-        <v>1.003066700741119</v>
+        <v>0.003066700741119366</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8699,7 +8699,7 @@
         <v>1.291434832699733</v>
       </c>
       <c r="K105">
-        <v>56.35922149172293</v>
+        <v>0.06359221491722922</v>
       </c>
       <c r="L105">
         <v>0.008411647683269532</v>
@@ -8729,13 +8729,13 @@
         <v>0.3125</v>
       </c>
       <c r="U105">
-        <v>1.000051120388515</v>
+        <v>5.112038851495804E-05</v>
       </c>
       <c r="V105">
-        <v>1.000170357751278</v>
+        <v>0.0001703577512777166</v>
       </c>
       <c r="W105">
-        <v>0.9987261146496815</v>
+        <v>-0.001273885350318471</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8770,7 +8770,7 @@
         <v>1.179019551901933</v>
       </c>
       <c r="K106">
-        <v>54.10780049554117</v>
+        <v>0.0410780049554117</v>
       </c>
       <c r="L106">
         <v>0.009042867113240583</v>
@@ -8800,13 +8800,13 @@
         <v>0.3687500000000341</v>
       </c>
       <c r="U106">
-        <v>1.000017039258452</v>
+        <v>1.703925845153442E-05</v>
       </c>
       <c r="V106">
-        <v>1.000136262987566</v>
+        <v>0.0001362629875660826</v>
       </c>
       <c r="W106">
-        <v>0.999234693877551</v>
+        <v>-0.000765306122448961</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8841,7 +8841,7 @@
         <v>1.080055948234662</v>
       </c>
       <c r="K107">
-        <v>51.92437007049271</v>
+        <v>0.01924370070492709</v>
       </c>
       <c r="L107">
         <v>0.009081024623248207</v>
@@ -8871,13 +8871,13 @@
         <v>0.2500000000000568</v>
       </c>
       <c r="U107">
-        <v>1.00005111690436</v>
+        <v>5.111690436021554E-05</v>
       </c>
       <c r="V107">
-        <v>1.000068122211247</v>
+        <v>6.812221124685713E-05</v>
       </c>
       <c r="W107">
-        <v>0.9992341077355118</v>
+        <v>-0.0007658922644881994</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8912,7 +8912,7 @@
         <v>1.019975995689493</v>
       </c>
       <c r="K108">
-        <v>50.49446121469069</v>
+        <v>0.00494461214690689</v>
       </c>
       <c r="L108">
         <v>0.008538297129118647</v>
@@ -8942,13 +8942,13 @@
         <v>0.1874999999999432</v>
       </c>
       <c r="U108">
-        <v>1.000051114291556</v>
+        <v>5.111429155602032E-05</v>
       </c>
       <c r="V108">
-        <v>1.000034058785464</v>
+        <v>3.405878546391961E-05</v>
       </c>
       <c r="W108">
-        <v>0.9994890137966275</v>
+        <v>-0.0005109862033725321</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8983,7 +8983,7 @@
         <v>0.990963350949179</v>
       </c>
       <c r="K109">
-        <v>49.77305837783219</v>
+        <v>-0.002269416221678089</v>
       </c>
       <c r="L109">
         <v>0.007554196948288731</v>
@@ -9013,13 +9013,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U109">
-        <v>0.9999574069341511</v>
+        <v>-4.259306584886158E-05</v>
       </c>
       <c r="V109">
-        <v>1.000017028812751</v>
+        <v>1.702881275100765E-05</v>
       </c>
       <c r="W109">
-        <v>0.9997443762781187</v>
+        <v>-0.0002556237218812596</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9054,7 +9054,7 @@
         <v>0.9621549738687222</v>
       </c>
       <c r="K110">
-        <v>49.03562596646839</v>
+        <v>-0.00964374033531612</v>
       </c>
       <c r="L110">
         <v>0.006244952809833762</v>
@@ -9084,13 +9084,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U110">
-        <v>0.9999488861438854</v>
+        <v>-5.111385611455965E-05</v>
       </c>
       <c r="V110">
-        <v>0.9999659429544487</v>
+        <v>-3.405704555126121E-05</v>
       </c>
       <c r="W110">
-        <v>0.9997443109179237</v>
+        <v>-0.0002556890820762936</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9125,7 +9125,7 @@
         <v>0.9066650095245099</v>
       </c>
       <c r="K111">
-        <v>47.55240196864036</v>
+        <v>-0.02447598031359638</v>
       </c>
       <c r="L111">
         <v>0.004613383797520031</v>
@@ -9155,13 +9155,13 @@
         <v>0.01875000000006821</v>
       </c>
       <c r="U111">
-        <v>0.9999318447081676</v>
+        <v>-6.815529183235025E-05</v>
       </c>
       <c r="V111">
-        <v>0.9999489126917902</v>
+        <v>-5.108730820979623E-05</v>
       </c>
       <c r="W111">
-        <v>0.9994884910485934</v>
+        <v>-0.000511508951406614</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9196,7 +9196,7 @@
         <v>1.45303686575127</v>
       </c>
       <c r="K112">
-        <v>59.23420418332203</v>
+        <v>0.09234204183322026</v>
       </c>
       <c r="L112">
         <v>0.004548852631773413</v>
@@ -9226,13 +9226,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U112">
-        <v>1.000119279890263</v>
+        <v>0.0001192798902625025</v>
       </c>
       <c r="V112">
-        <v>1.000221389645777</v>
+        <v>0.0002213896457765596</v>
       </c>
       <c r="W112">
-        <v>1.00460593654043</v>
+        <v>0.004605936540429845</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9267,7 +9267,7 @@
         <v>1.365760481050358</v>
       </c>
       <c r="K113">
-        <v>57.73029400017634</v>
+        <v>0.07730294000176341</v>
       </c>
       <c r="L113">
         <v>0.005234911853716347</v>
@@ -9297,13 +9297,13 @@
         <v>-0.08124999999995453</v>
       </c>
       <c r="U113">
-        <v>1.000136303616305</v>
+        <v>0.0001363036163053444</v>
       </c>
       <c r="V113">
-        <v>1.000255393049904</v>
+        <v>0.0002553930499036294</v>
       </c>
       <c r="W113">
-        <v>0.9994905756495159</v>
+        <v>-0.0005094243504840668</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9338,7 +9338,7 @@
         <v>1.179346700394365</v>
       </c>
       <c r="K114">
-        <v>54.11468951594326</v>
+        <v>0.04114689515943259</v>
       </c>
       <c r="L114">
         <v>0.005847525399074966</v>
@@ -9368,13 +9368,13 @@
         <v>-0.1187500000000341</v>
       </c>
       <c r="U114">
-        <v>1.000119249410141</v>
+        <v>0.0001192494101411867</v>
       </c>
       <c r="V114">
-        <v>0.9999659562878738</v>
+        <v>-3.404371212623047E-05</v>
       </c>
       <c r="W114">
-        <v>0.9987257900101937</v>
+        <v>-0.001274209989806319</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9409,7 +9409,7 @@
         <v>1.208081611821675</v>
       </c>
       <c r="K115">
-        <v>54.71181886366072</v>
+        <v>0.04711818863660722</v>
       </c>
       <c r="L115">
         <v>0.006448305237805762</v>
@@ -9439,13 +9439,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U115">
-        <v>1.000127751990802</v>
+        <v>0.0001277519908018387</v>
       </c>
       <c r="V115">
-        <v>1.00006808974228</v>
+        <v>6.808974228023068E-05</v>
       </c>
       <c r="W115">
-        <v>1.000255167134473</v>
+        <v>0.0002551671344730444</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9480,7 +9480,7 @@
         <v>1.208081611821675</v>
       </c>
       <c r="K116">
-        <v>54.71181886366072</v>
+        <v>0.04711818863660722</v>
       </c>
       <c r="L116">
         <v>0.006980084724979606</v>
@@ -9510,13 +9510,13 @@
         <v>0.03750000000002274</v>
       </c>
       <c r="U116">
-        <v>1.000034062845951</v>
+        <v>3.406284595075526E-05</v>
       </c>
       <c r="V116">
-        <v>1.000085106382979</v>
+        <v>8.510638297853923E-05</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9551,7 +9551,7 @@
         <v>1.135758258969976</v>
       </c>
       <c r="K117">
-        <v>53.17822156135426</v>
+        <v>0.03178221561354255</v>
       </c>
       <c r="L117">
         <v>0.007224634250221136</v>
@@ -9581,13 +9581,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U117">
-        <v>1.000068123371426</v>
+        <v>6.812337142569902E-05</v>
       </c>
       <c r="V117">
-        <v>1.0000340396562</v>
+        <v>3.403965619952487E-05</v>
       </c>
       <c r="W117">
-        <v>0.9994897959183674</v>
+        <v>-0.0005102040816326037</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9622,7 +9622,7 @@
         <v>1.068428926352726</v>
       </c>
       <c r="K118">
-        <v>51.65412805537841</v>
+        <v>0.01654128055378412</v>
       </c>
       <c r="L118">
         <v>0.007067228433661081</v>
@@ -9652,13 +9652,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U118">
-        <v>1.000042574206842</v>
+        <v>4.257420684239399E-05</v>
       </c>
       <c r="V118">
-        <v>1.000051057746311</v>
+        <v>5.10577463110895E-05</v>
       </c>
       <c r="W118">
-        <v>0.9994895354772844</v>
+        <v>-0.0005104645227156368</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9693,7 +9693,7 @@
         <v>1.005673428902233</v>
       </c>
       <c r="K119">
-        <v>50.14143451322827</v>
+        <v>0.001414345132282668</v>
       </c>
       <c r="L119">
         <v>0.006464616394727635</v>
@@ -9723,13 +9723,13 @@
         <v>0.2499999999999432</v>
       </c>
       <c r="U119">
-        <v>1.000017028957743</v>
+        <v>1.702895774258195E-05</v>
       </c>
       <c r="V119">
-        <v>0.9998127978216474</v>
+        <v>-0.0001872021783525524</v>
       </c>
       <c r="W119">
-        <v>0.9994892747701736</v>
+        <v>-0.0005107252298264253</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9764,7 +9764,7 @@
         <v>1.067501049569938</v>
       </c>
       <c r="K120">
-        <v>51.63243084166703</v>
+        <v>0.01632430841667032</v>
       </c>
       <c r="L120">
         <v>0.005793258034733693</v>
@@ -9794,13 +9794,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U120">
-        <v>1.000051086003287</v>
+        <v>5.108600328651569E-05</v>
       </c>
       <c r="V120">
-        <v>0.9999319137347018</v>
+        <v>-6.808626529819506E-05</v>
       </c>
       <c r="W120">
-        <v>1.000510986203373</v>
+        <v>0.0005109862033725321</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9835,7 +9835,7 @@
         <v>1.132582755535925</v>
       </c>
       <c r="K121">
-        <v>53.10850200752484</v>
+        <v>0.03108502007524838</v>
       </c>
       <c r="L121">
         <v>0.005287975139393282</v>
@@ -9865,13 +9865,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U121">
-        <v>1.00007662509046</v>
+        <v>7.662509046024724E-05</v>
       </c>
       <c r="V121">
-        <v>1.000017022725338</v>
+        <v>1.702272533843363E-05</v>
       </c>
       <c r="W121">
-        <v>1.000510725229826</v>
+        <v>0.0005107252298264253</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9906,7 +9906,7 @@
         <v>1.095072652187972</v>
       </c>
       <c r="K122">
-        <v>52.26895836019538</v>
+        <v>0.02268958360195372</v>
       </c>
       <c r="L122">
         <v>0.004803227392493032</v>
@@ -9936,13 +9936,13 @@
         <v>0.09374999999994316</v>
       </c>
       <c r="U122">
-        <v>1.000059592726282</v>
+        <v>5.959272628208723E-05</v>
       </c>
       <c r="V122">
-        <v>1.00005106730671</v>
+        <v>5.106730671000648E-05</v>
       </c>
       <c r="W122">
-        <v>0.9997447677386421</v>
+        <v>-0.0002552322613579294</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9977,7 +9977,7 @@
         <v>1.058182102834263</v>
       </c>
       <c r="K123">
-        <v>51.41343428149874</v>
+        <v>0.01413434281498749</v>
       </c>
       <c r="L123">
         <v>0.004251324823376901</v>
@@ -10007,13 +10007,13 @@
         <v>0.03125</v>
       </c>
       <c r="U123">
-        <v>1.000051076435886</v>
+        <v>5.107643588631028E-05</v>
       </c>
       <c r="V123">
-        <v>1.000068086265298</v>
+        <v>6.808626529819506E-05</v>
       </c>
       <c r="W123">
-        <v>0.999744702578504</v>
+        <v>-0.0002552974214959924</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10048,7 +10048,7 @@
         <v>0.9881041655840681</v>
       </c>
       <c r="K124">
-        <v>49.70082466950525</v>
+        <v>-0.002991753304947498</v>
       </c>
       <c r="L124">
         <v>0.003492454141196483</v>
@@ -10078,13 +10078,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U124">
-        <v>1.000034049218145</v>
+        <v>3.404921814498252E-05</v>
       </c>
       <c r="V124">
-        <v>1.000051061222406</v>
+        <v>5.106122240561284E-05</v>
       </c>
       <c r="W124">
-        <v>0.9994892747701736</v>
+        <v>-0.0005107252298264253</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10119,7 +10119,7 @@
         <v>1.441221471203249</v>
       </c>
       <c r="K125">
-        <v>59.03689969156661</v>
+        <v>0.09036899691566613</v>
       </c>
       <c r="L125">
         <v>0.003852752152956559</v>
@@ -10149,13 +10149,13 @@
         <v>-0.04374999999993179</v>
       </c>
       <c r="U125">
-        <v>1.000127680220631</v>
+        <v>0.0001276802206313654</v>
       </c>
       <c r="V125">
-        <v>1.000289332153312</v>
+        <v>0.0002893321533119497</v>
       </c>
       <c r="W125">
-        <v>1.003321410321921</v>
+        <v>0.003321410321921237</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10190,7 +10190,7 @@
         <v>1.39021495659877</v>
       </c>
       <c r="K126">
-        <v>58.16275865736441</v>
+        <v>0.08162758657364411</v>
       </c>
       <c r="L126">
         <v>0.004760971454772206</v>
@@ -10220,13 +10220,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U126">
-        <v>1.000127663920474</v>
+        <v>0.0001276639204736973</v>
       </c>
       <c r="V126">
-        <v>1.000306263079986</v>
+        <v>0.0003062630799859356</v>
       </c>
       <c r="W126">
-        <v>0.9997453526865292</v>
+        <v>-0.0002546473134708016</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10261,7 +10261,7 @@
         <v>1.293815690281289</v>
       </c>
       <c r="K127">
-        <v>56.40451827769254</v>
+        <v>0.06404518277692539</v>
       </c>
       <c r="L127">
         <v>0.005739840226046328</v>
@@ -10291,13 +10291,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U127">
-        <v>1.00009360825795</v>
+        <v>9.36082579501285E-05</v>
       </c>
       <c r="V127">
-        <v>0.9999659811875966</v>
+        <v>-3.401881240339133E-05</v>
       </c>
       <c r="W127">
-        <v>0.9994905756495159</v>
+        <v>-0.0005094243504840668</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10332,7 +10332,7 @@
         <v>1.030544681578649</v>
       </c>
       <c r="K128">
-        <v>50.75213024997073</v>
+        <v>0.007521302499707283</v>
       </c>
       <c r="L128">
         <v>0.006027292147878447</v>
@@ -10362,13 +10362,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U128">
-        <v>1.00006807236092</v>
+        <v>6.807236091965763E-05</v>
       </c>
       <c r="V128">
-        <v>0.9998809301059725</v>
+        <v>-0.0001190698940275459</v>
       </c>
       <c r="W128">
-        <v>0.9982161060142711</v>
+        <v>-0.001783893985728868</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10403,7 +10403,7 @@
         <v>1.214139419219586</v>
       </c>
       <c r="K129">
-        <v>54.83572573074608</v>
+        <v>0.04835725730746077</v>
       </c>
       <c r="L129">
         <v>0.006413484816725322</v>
@@ -10433,13 +10433,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U129">
-        <v>1.000017016931847</v>
+        <v>1.701693184719133E-05</v>
       </c>
       <c r="V129">
-        <v>1.000068048041917</v>
+        <v>6.804804191729019E-05</v>
       </c>
       <c r="W129">
-        <v>1.001531784528976</v>
+        <v>0.001531784528976399</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10474,7 +10474,7 @@
         <v>1.176252783910548</v>
       </c>
       <c r="K130">
-        <v>54.049455679359</v>
+        <v>0.04049455679359004</v>
       </c>
       <c r="L130">
         <v>0.006718502358101568</v>
@@ -10504,13 +10504,13 @@
         <v>0.1875</v>
       </c>
       <c r="U130">
-        <v>1.000051049926828</v>
+        <v>5.104992682847254E-05</v>
       </c>
       <c r="V130">
-        <v>1.000034021705849</v>
+        <v>3.402170584854147E-05</v>
       </c>
       <c r="W130">
-        <v>0.99974509304104</v>
+        <v>-0.0002549069589600217</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10545,7 +10545,7 @@
         <v>1.103743748895687</v>
       </c>
       <c r="K131">
-        <v>52.46569357485067</v>
+        <v>0.02465693574850669</v>
       </c>
       <c r="L131">
         <v>0.006744484892893325</v>
@@ -10575,13 +10575,13 @@
         <v>0.2374999999999545</v>
       </c>
       <c r="U131">
-        <v>1.000042539434056</v>
+        <v>4.253943405552185E-05</v>
       </c>
       <c r="V131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W131">
-        <v>0.9994900560938297</v>
+        <v>-0.0005099439061703182</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10616,7 +10616,7 @@
         <v>0.9769571460578373</v>
       </c>
       <c r="K132">
-        <v>49.41721412656538</v>
+        <v>-0.005827858734346159</v>
       </c>
       <c r="L132">
         <v>0.006203407848862548</v>
@@ -10646,13 +10646,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V132">
-        <v>0.9999659794515886</v>
+        <v>-3.402054841139535E-05</v>
       </c>
       <c r="W132">
-        <v>0.9989795918367348</v>
+        <v>-0.001020408163265207</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10687,7 +10687,7 @@
         <v>1.097872514383236</v>
       </c>
       <c r="K133">
-        <v>52.33266115343549</v>
+        <v>0.02332661153435489</v>
       </c>
       <c r="L133">
         <v>0.005702571272363913</v>
@@ -10717,13 +10717,13 @@
         <v>0.1875</v>
       </c>
       <c r="U133">
-        <v>1.00005955267434</v>
+        <v>5.955267434032407E-05</v>
       </c>
       <c r="V133">
-        <v>1.000068043411697</v>
+        <v>6.804341169663886E-05</v>
       </c>
       <c r="W133">
-        <v>1.001021450459653</v>
+        <v>0.001021450459652629</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10758,7 +10758,7 @@
         <v>1.064015711320508</v>
       </c>
       <c r="K134">
-        <v>51.55075639612142</v>
+        <v>0.01550756396121422</v>
       </c>
       <c r="L134">
         <v>0.005144319822686514</v>
@@ -10788,13 +10788,13 @@
         <v>0.08124999999995453</v>
       </c>
       <c r="U134">
-        <v>0.9999489578902595</v>
+        <v>-5.104210974049561E-05</v>
       </c>
       <c r="V134">
-        <v>1.000085048477632</v>
+        <v>8.504847763224355E-05</v>
       </c>
       <c r="W134">
-        <v>0.9997448979591836</v>
+        <v>-0.0002551020408163573</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10829,7 +10829,7 @@
         <v>1.161400625140062</v>
       </c>
       <c r="K135">
-        <v>53.73370450768707</v>
+        <v>0.03733704507687063</v>
       </c>
       <c r="L135">
         <v>0.004846955476272606</v>
@@ -10859,13 +10859,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U135">
-        <v>1.000017014905057</v>
+        <v>1.701490505667813E-05</v>
       </c>
       <c r="V135">
-        <v>1.000102049494005</v>
+        <v>0.000102049494004719</v>
       </c>
       <c r="W135">
-        <v>1.000765501403419</v>
+        <v>0.0007655014034193552</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10900,7 +10900,7 @@
         <v>1.161400625140062</v>
       </c>
       <c r="K136">
-        <v>53.73370450768707</v>
+        <v>0.03733704507687063</v>
       </c>
       <c r="L136">
         <v>0.004708908474675307</v>
@@ -10930,13 +10930,13 @@
         <v>0.03125</v>
       </c>
       <c r="U136">
-        <v>1.000042536538887</v>
+        <v>4.253653888719455E-05</v>
       </c>
       <c r="V136">
-        <v>1.000068026053979</v>
+        <v>6.80260539787092E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10971,7 +10971,7 @@
         <v>1.772866381347762</v>
       </c>
       <c r="K137">
-        <v>63.93623556018785</v>
+        <v>0.1393623556018785</v>
       </c>
       <c r="L137">
         <v>0.006238793690677241</v>
@@ -11001,13 +11001,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U137">
-        <v>1.000212673648034</v>
+        <v>0.0002126736480336788</v>
       </c>
       <c r="V137">
-        <v>1.000374117847122</v>
+        <v>0.0003741178471217133</v>
       </c>
       <c r="W137">
-        <v>1.004334523202448</v>
+        <v>0.004334523202447649</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11042,7 +11042,7 @@
         <v>1.592035119726803</v>
       </c>
       <c r="K138">
-        <v>61.42027581380154</v>
+        <v>0.1142027581380154</v>
       </c>
       <c r="L138">
         <v>0.008379835514975878</v>
@@ -11072,13 +11072,13 @@
         <v>0.15625</v>
       </c>
       <c r="U138">
-        <v>1.000204123290467</v>
+        <v>0.0002041232904674839</v>
       </c>
       <c r="V138">
-        <v>1.000339979941183</v>
+        <v>0.0003399799411833992</v>
       </c>
       <c r="W138">
-        <v>0.9992383853769994</v>
+        <v>-0.0007616146230006171</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11113,7 +11113,7 @@
         <v>1.537026101942201</v>
       </c>
       <c r="K139">
-        <v>60.5837717146679</v>
+        <v>0.105837717146679</v>
       </c>
       <c r="L139">
         <v>0.0106308939098308</v>
@@ -11143,13 +11143,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U139">
-        <v>1.000204081632653</v>
+        <v>0.0002040816326529526</v>
       </c>
       <c r="V139">
-        <v>1.000356857613812</v>
+        <v>0.0003568576138119894</v>
       </c>
       <c r="W139">
-        <v>0.9997459349593495</v>
+        <v>-0.0002540650406505085</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11184,7 +11184,7 @@
         <v>1.537026101942201</v>
       </c>
       <c r="K140">
-        <v>60.5837717146679</v>
+        <v>0.105837717146679</v>
       </c>
       <c r="L140">
         <v>0.01276604642865458</v>
@@ -11214,13 +11214,13 @@
         <v>0.3312500000000114</v>
       </c>
       <c r="U140">
-        <v>1.000212541658165</v>
+        <v>0.0002125416581648665</v>
       </c>
       <c r="V140">
-        <v>1.00013589726167</v>
+        <v>0.0001358972616702925</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11255,7 +11255,7 @@
         <v>1.728453475323238</v>
       </c>
       <c r="K141">
-        <v>63.34920096515369</v>
+        <v>0.133492009651537</v>
       </c>
       <c r="L141">
         <v>0.01511249559177738</v>
@@ -11285,13 +11285,13 @@
         <v>0.5</v>
       </c>
       <c r="U141">
-        <v>1.000271995512074</v>
+        <v>0.0002719955120742412</v>
       </c>
       <c r="V141">
-        <v>1.000237787893199</v>
+        <v>0.0002377878931991706</v>
       </c>
       <c r="W141">
-        <v>1.001270648030496</v>
+        <v>0.001270648030495591</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11326,7 +11326,7 @@
         <v>1.728453475323239</v>
       </c>
       <c r="K142">
-        <v>63.34920096515369</v>
+        <v>0.133492009651537</v>
       </c>
       <c r="L142">
         <v>0.01738176747222378</v>
@@ -11356,13 +11356,13 @@
         <v>0.6750000000000114</v>
       </c>
       <c r="U142">
-        <v>1.000118965678402</v>
+        <v>0.0001189656784017501</v>
       </c>
       <c r="V142">
-        <v>1.000271692986925</v>
+        <v>0.0002716929869248652</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11397,7 +11397,7 @@
         <v>1.728453475323238</v>
       </c>
       <c r="K143">
-        <v>63.34920096515369</v>
+        <v>0.133492009651537</v>
       </c>
       <c r="L143">
         <v>0.01939576306154907</v>
@@ -11427,13 +11427,13 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="U143">
-        <v>1.000135944602574</v>
+        <v>0.0001359446025743782</v>
       </c>
       <c r="V143">
-        <v>1.000390452585475</v>
+        <v>0.0003904525854749874</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11468,7 +11468,7 @@
         <v>1.363213470791379</v>
       </c>
       <c r="K144">
-        <v>57.6847368060607</v>
+        <v>0.07684736806060699</v>
       </c>
       <c r="L144">
         <v>0.02049849922734764</v>
@@ -11498,13 +11498,13 @@
         <v>0.8437500000000568</v>
       </c>
       <c r="U144">
-        <v>1.000127430741392</v>
+        <v>0.0001274307413920983</v>
       </c>
       <c r="V144">
-        <v>1.000186665309101</v>
+        <v>0.0001866653091009418</v>
       </c>
       <c r="W144">
-        <v>0.998477157360406</v>
+        <v>-0.001522842639594013</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11539,7 +11539,7 @@
         <v>1.511501393358781</v>
       </c>
       <c r="K145">
-        <v>60.18317956564459</v>
+        <v>0.1018317956564458</v>
       </c>
       <c r="L145">
         <v>0.02127548606234125</v>
@@ -11569,13 +11569,13 @@
         <v>0.7374999999999545</v>
       </c>
       <c r="U145">
-        <v>1.000152897405841</v>
+        <v>0.0001528974058409016</v>
       </c>
       <c r="V145">
-        <v>1.000271462504241</v>
+        <v>0.000271462504241482</v>
       </c>
       <c r="W145">
-        <v>1.001016776817489</v>
+        <v>0.001016776817488685</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11610,7 +11610,7 @@
         <v>1.454733141910393</v>
       </c>
       <c r="K146">
-        <v>59.26237427088506</v>
+        <v>0.09262374270885065</v>
       </c>
       <c r="L146">
         <v>0.02163505017370473</v>
@@ -11640,13 +11640,13 @@
         <v>0.6562500000000568</v>
       </c>
       <c r="U146">
-        <v>1.000144381030031</v>
+        <v>0.0001443810300312265</v>
       </c>
       <c r="V146">
-        <v>1.000288350634371</v>
+        <v>0.0002883506343713815</v>
       </c>
       <c r="W146">
-        <v>0.999746063991874</v>
+        <v>-0.0002539360081259545</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11681,7 +11681,7 @@
         <v>1.494267378808059</v>
       </c>
       <c r="K147">
-        <v>59.90806725468734</v>
+        <v>0.09908067254687336</v>
       </c>
       <c r="L147">
         <v>0.02173267477387222</v>
@@ -11711,13 +11711,13 @@
         <v>0.5812500000000114</v>
       </c>
       <c r="U147">
-        <v>1.000169835514304</v>
+        <v>0.000169835514304495</v>
       </c>
       <c r="V147">
-        <v>1.000373052074678</v>
+        <v>0.0003730520746783039</v>
       </c>
       <c r="W147">
-        <v>1.000254000508001</v>
+        <v>0.0002540005080011731</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11752,7 +11752,7 @@
         <v>1.379455348225952</v>
       </c>
       <c r="K148">
-        <v>57.97357572834603</v>
+        <v>0.07973575728346038</v>
       </c>
       <c r="L148">
         <v>0.02140055166992409</v>
@@ -11782,13 +11782,13 @@
         <v>0.46875</v>
       </c>
       <c r="U148">
-        <v>1.0001698066751</v>
+        <v>0.000169806675100137</v>
       </c>
       <c r="V148">
-        <v>1.000271209424528</v>
+        <v>0.0002712094245276297</v>
       </c>
       <c r="W148">
-        <v>0.9994921279837481</v>
+        <v>-0.000507872016251909</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11823,7 +11823,7 @@
         <v>1.276234822320162</v>
       </c>
       <c r="K149">
-        <v>56.06780152055217</v>
+        <v>0.06067801520552174</v>
       </c>
       <c r="L149">
         <v>0.02056584017812578</v>
@@ -11853,13 +11853,13 @@
         <v>0.3062499999999773</v>
       </c>
       <c r="U149">
-        <v>1.000169777845689</v>
+        <v>0.0001697778456890564</v>
       </c>
       <c r="V149">
-        <v>1.000254189896799</v>
+        <v>0.0002541898967987066</v>
       </c>
       <c r="W149">
-        <v>0.9994918699186991</v>
+        <v>-0.000508130081300906</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11894,7 +11894,7 @@
         <v>1.183051445334639</v>
       </c>
       <c r="K150">
-        <v>54.19255912923708</v>
+        <v>0.04192559129237072</v>
       </c>
       <c r="L150">
         <v>0.01921966336374042</v>
@@ -11924,13 +11924,13 @@
         <v>0.1250000000000568</v>
       </c>
       <c r="U150">
-        <v>1.000135799220852</v>
+        <v>0.0001357992208519399</v>
       </c>
       <c r="V150">
-        <v>1.000169416867143</v>
+        <v>0.0001694168671433349</v>
       </c>
       <c r="W150">
-        <v>0.9994916115912558</v>
+        <v>-0.0005083884087442314</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11965,7 +11965,7 @@
         <v>1.183051445334639</v>
       </c>
       <c r="K151">
-        <v>54.19255912923709</v>
+        <v>0.04192559129237095</v>
       </c>
       <c r="L151">
         <v>0.01757969003437879</v>
@@ -11995,13 +11995,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U151">
-        <v>1.000118808184187</v>
+        <v>0.0001188081841867472</v>
       </c>
       <c r="V151">
-        <v>1.00016938816993</v>
+        <v>0.0001693881699302846</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12036,7 +12036,7 @@
         <v>1.094503629984345</v>
       </c>
       <c r="K152">
-        <v>52.25599107663164</v>
+        <v>0.02255991076631636</v>
       </c>
       <c r="L152">
         <v>0.01561703087896253</v>
@@ -12066,13 +12066,13 @@
         <v>-0.1375000000000455</v>
       </c>
       <c r="U152">
-        <v>1.00011030877973</v>
+        <v>0.0001103087797302837</v>
       </c>
       <c r="V152">
-        <v>0.9998475764658064</v>
+        <v>-0.0001524235341936464</v>
       </c>
       <c r="W152">
-        <v>0.9994913530010173</v>
+        <v>-0.0005086469989826758</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12107,7 +12107,7 @@
         <v>1.094503629984345</v>
       </c>
       <c r="K153">
-        <v>52.25599107663164</v>
+        <v>0.02255991076631636</v>
       </c>
       <c r="L153">
         <v>0.0135273212031102</v>
@@ -12137,13 +12137,13 @@
         <v>-0.1812500000000341</v>
       </c>
       <c r="U153">
-        <v>1.000118780967895</v>
+        <v>0.0001187809678953045</v>
       </c>
       <c r="V153">
-        <v>0.9998983688195537</v>
+        <v>-0.00010163118044626</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12178,7 +12178,7 @@
         <v>1.343302420297475</v>
       </c>
       <c r="K154">
-        <v>57.32518383721666</v>
+        <v>0.07325183837216653</v>
       </c>
       <c r="L154">
         <v>0.01200069917269529</v>
@@ -12208,13 +12208,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U154">
-        <v>1.000186633638168</v>
+        <v>0.0001866336381681766</v>
       </c>
       <c r="V154">
-        <v>1.000016940251732</v>
+        <v>1.694025173204494E-05</v>
       </c>
       <c r="W154">
-        <v>1.001526717557252</v>
+        <v>0.001526717557251978</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12249,7 +12249,7 @@
         <v>1.56154697320372</v>
       </c>
       <c r="K155">
-        <v>60.96109068227226</v>
+        <v>0.1096109068227226</v>
       </c>
       <c r="L155">
         <v>0.01133193764615817</v>
@@ -12279,13 +12279,13 @@
         <v>-0.1937499999999659</v>
       </c>
       <c r="U155">
-        <v>1.000118744698897</v>
+        <v>0.0001187446988974994</v>
       </c>
       <c r="V155">
-        <v>1.000101639788589</v>
+        <v>0.0001016397885893472</v>
       </c>
       <c r="W155">
-        <v>1.001270325203252</v>
+        <v>0.001270325203251987</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12320,7 +12320,7 @@
         <v>1.56154697320372</v>
       </c>
       <c r="K156">
-        <v>60.96109068227226</v>
+        <v>0.1096109068227226</v>
       </c>
       <c r="L156">
         <v>0.01118397674875758</v>
@@ -12350,13 +12350,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U156">
-        <v>1.00012721135743</v>
+        <v>0.0001272113574297684</v>
       </c>
       <c r="V156">
-        <v>1.000016938243165</v>
+        <v>1.693824316517656E-05</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12391,7 +12391,7 @@
         <v>1.210326395250741</v>
       </c>
       <c r="K157">
-        <v>54.75781304749071</v>
+        <v>0.04757813047490711</v>
       </c>
       <c r="L157">
         <v>0.0107642246715105</v>
@@ -12421,13 +12421,13 @@
         <v>-0.1249999999999432</v>
       </c>
       <c r="U157">
-        <v>1.000093276462957</v>
+        <v>9.327646295664849E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999153102186691</v>
+        <v>-8.468978133091554E-05</v>
       </c>
       <c r="W157">
-        <v>0.9984775437706165</v>
+        <v>-0.001522456229383518</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12462,7 +12462,7 @@
         <v>1.082215768213553</v>
       </c>
       <c r="K158">
-        <v>51.97423747981916</v>
+        <v>0.01974237479819163</v>
       </c>
       <c r="L158">
         <v>0.009889539796215766</v>
@@ -12492,13 +12492,13 @@
         <v>-0.07500000000004547</v>
       </c>
       <c r="U158">
-        <v>1.000127183313549</v>
+        <v>0.0001271833135492173</v>
       </c>
       <c r="V158">
-        <v>0.9998644848731241</v>
+        <v>-0.0001355151268759291</v>
       </c>
       <c r="W158">
-        <v>0.9992376111817026</v>
+        <v>-0.000762388818297377</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12533,7 +12533,7 @@
         <v>1.156495065735961</v>
       </c>
       <c r="K159">
-        <v>53.62845870186476</v>
+        <v>0.03628458701864756</v>
       </c>
       <c r="L159">
         <v>0.008944337136627645</v>
@@ -12563,13 +12563,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U159">
-        <v>1.000093255902675</v>
+        <v>9.325590267472705E-05</v>
       </c>
       <c r="V159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W159">
-        <v>1.000508646998983</v>
+        <v>0.0005086469989827869</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12604,7 +12604,7 @@
         <v>1.072627666210472</v>
       </c>
       <c r="K160">
-        <v>51.75206737308642</v>
+        <v>0.01752067373086419</v>
       </c>
       <c r="L160">
         <v>0.007798901092871453</v>
@@ -12634,13 +12634,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U160">
-        <v>1.00008477018802</v>
+        <v>8.477018802022229E-05</v>
       </c>
       <c r="V160">
-        <v>0.9998983498797138</v>
+        <v>-0.0001016501202861786</v>
       </c>
       <c r="W160">
-        <v>0.9994916115912558</v>
+        <v>-0.0005083884087442314</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12675,7 +12675,7 @@
         <v>0.9624268577287143</v>
       </c>
       <c r="K161">
-        <v>49.04268681089158</v>
+        <v>-0.009573131891084163</v>
       </c>
       <c r="L161">
         <v>0.006299029126730707</v>
@@ -12705,13 +12705,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U161">
-        <v>1.00007628670238</v>
+        <v>7.628670238024604E-05</v>
       </c>
       <c r="V161">
-        <v>0.9998644527278889</v>
+        <v>-0.0001355472721110695</v>
       </c>
       <c r="W161">
-        <v>0.9992370295015259</v>
+        <v>-0.0007629704984740693</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12746,7 +12746,7 @@
         <v>0.8977045007575651</v>
       </c>
       <c r="K162">
-        <v>47.30475689967542</v>
+        <v>-0.02695243100324585</v>
       </c>
       <c r="L162">
         <v>0.004471988720533747</v>
@@ -12776,13 +12776,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U162">
-        <v>1.000093232190532</v>
+        <v>9.323219053247733E-05</v>
       </c>
       <c r="V162">
-        <v>0.9998135972344608</v>
+        <v>-0.000186402765539162</v>
       </c>
       <c r="W162">
-        <v>0.9994909646220412</v>
+        <v>-0.0005090353779587664</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12817,7 +12817,7 @@
         <v>0.933098773197414</v>
       </c>
       <c r="K163">
-        <v>48.26958591743532</v>
+        <v>-0.0173041408256468</v>
       </c>
       <c r="L163">
         <v>0.002639544047693708</v>
@@ -12847,13 +12847,13 @@
         <v>-0.08124999999995453</v>
       </c>
       <c r="U163">
-        <v>1.000067798908438</v>
+        <v>6.779890843766623E-05</v>
       </c>
       <c r="V163">
-        <v>0.999864409077812</v>
+        <v>-0.0001355909221879559</v>
       </c>
       <c r="W163">
-        <v>1.000254647313471</v>
+        <v>0.0002546473134708016</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12888,7 +12888,7 @@
         <v>0.9330987731974139</v>
       </c>
       <c r="K164">
-        <v>48.26958591743532</v>
+        <v>-0.0173041408256468</v>
       </c>
       <c r="L164">
         <v>0.0009109777185102996</v>
@@ -12918,13 +12918,13 @@
         <v>-0.1937499999999659</v>
       </c>
       <c r="U164">
-        <v>1.000076268601064</v>
+        <v>7.626860106446642E-05</v>
       </c>
       <c r="V164">
-        <v>0.9998982930178157</v>
+        <v>-0.0001017069821842576</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12959,7 +12959,7 @@
         <v>0.8978854734019872</v>
       </c>
       <c r="K165">
-        <v>47.309781648337</v>
+        <v>-0.02690218351662998</v>
       </c>
       <c r="L165">
         <v>-0.0007404471727537479</v>
@@ -12989,13 +12989,13 @@
         <v>-0.25</v>
       </c>
       <c r="U165">
-        <v>1.000042368213671</v>
+        <v>4.236821367142873E-05</v>
       </c>
       <c r="V165">
-        <v>0.9999152355603778</v>
+        <v>-8.476443962224245E-05</v>
       </c>
       <c r="W165">
-        <v>0.9997454175152749</v>
+        <v>-0.0002545824847250966</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13030,7 +13030,7 @@
         <v>1.255403553861216</v>
       </c>
       <c r="K166">
-        <v>55.66203669901932</v>
+        <v>0.05662036699019313</v>
       </c>
       <c r="L166">
         <v>-0.001403979334109265</v>
@@ -13060,13 +13060,13 @@
         <v>-0.2250000000000227</v>
       </c>
       <c r="U166">
-        <v>1.000118625972309</v>
+        <v>0.0001186259723091609</v>
       </c>
       <c r="V166">
-        <v>1.000067817300193</v>
+        <v>6.781730019311816E-05</v>
       </c>
       <c r="W166">
-        <v>1.002291825821238</v>
+        <v>0.002291825821237659</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13101,7 +13101,7 @@
         <v>1.464478454714558</v>
       </c>
       <c r="K167">
-        <v>59.42346348830944</v>
+        <v>0.09423463488309436</v>
       </c>
       <c r="L167">
         <v>-0.0009586928009040296</v>
@@ -13131,13 +13131,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U167">
-        <v>1.000016944557408</v>
+        <v>1.694455740808287E-05</v>
       </c>
       <c r="V167">
-        <v>1.000186484928627</v>
+        <v>0.000186484928627495</v>
       </c>
       <c r="W167">
-        <v>1.001270325203252</v>
+        <v>0.001270325203251987</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13172,7 +13172,7 @@
         <v>1.552509991915961</v>
       </c>
       <c r="K168">
-        <v>60.82287618198972</v>
+        <v>0.1082287618198972</v>
       </c>
       <c r="L168">
         <v>0.0003186733731154738</v>
@@ -13202,13 +13202,13 @@
         <v>-0.1375000000000455</v>
       </c>
       <c r="U168">
-        <v>1.000059304946033</v>
+        <v>5.930494603267888E-05</v>
       </c>
       <c r="V168">
-        <v>1.000220350187298</v>
+        <v>0.0002203501872977132</v>
       </c>
       <c r="W168">
-        <v>1.000507485409794</v>
+        <v>0.0005074854097943948</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13243,7 +13243,7 @@
         <v>1.260500094621169</v>
       </c>
       <c r="K169">
-        <v>55.76200140935684</v>
+        <v>0.05762001409356843</v>
       </c>
       <c r="L169">
         <v>0.001554625245254342</v>
@@ -13273,13 +13273,13 @@
         <v>-0.07499999999993179</v>
       </c>
       <c r="U169">
-        <v>1.000025414898213</v>
+        <v>2.541489821306087E-05</v>
       </c>
       <c r="V169">
-        <v>1.000033892560583</v>
+        <v>3.389256058272672E-05</v>
       </c>
       <c r="W169">
-        <v>0.9987319300025361</v>
+        <v>-0.001268069997463872</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13314,7 +13314,7 @@
         <v>1.126660701461996</v>
       </c>
       <c r="K170">
-        <v>52.9779245315184</v>
+        <v>0.02977924531518406</v>
       </c>
       <c r="L170">
         <v>0.002403261706352344</v>
@@ -13344,13 +13344,13 @@
         <v>0.03125000000005684</v>
       </c>
       <c r="U170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V170">
-        <v>0.9998983257642513</v>
+        <v>-0.0001016742357486944</v>
       </c>
       <c r="W170">
-        <v>0.9992381919756221</v>
+        <v>-0.0007618080243778635</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13385,7 +13385,7 @@
         <v>1.163916700713856</v>
       </c>
       <c r="K171">
-        <v>53.7875002457299</v>
+        <v>0.03787500245729902</v>
       </c>
       <c r="L171">
         <v>0.003046986007733139</v>
@@ -13415,13 +13415,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U171">
-        <v>0.9999661143302497</v>
+        <v>-3.388566975026652E-05</v>
       </c>
       <c r="V171">
-        <v>0.9999152628546252</v>
+        <v>-8.473714537482469E-05</v>
       </c>
       <c r="W171">
-        <v>1.000254129606099</v>
+        <v>0.0002541296060991627</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13456,7 +13456,7 @@
         <v>1.041395924548034</v>
       </c>
       <c r="K172">
-        <v>51.01391219729214</v>
+        <v>0.01013912197292133</v>
       </c>
       <c r="L172">
         <v>0.003236686166795648</v>
@@ -13486,13 +13486,13 @@
         <v>0.2749999999999773</v>
       </c>
       <c r="U172">
-        <v>0.9999406980684514</v>
+        <v>-5.930193154857211E-05</v>
       </c>
       <c r="V172">
-        <v>0.999966102269453</v>
+        <v>-3.389773054696121E-05</v>
       </c>
       <c r="W172">
-        <v>0.9992378048780487</v>
+        <v>-0.0007621951219513035</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13527,7 +13527,7 @@
         <v>1.226072998073687</v>
       </c>
       <c r="K173">
-        <v>55.07784332026213</v>
+        <v>0.05077843320262121</v>
       </c>
       <c r="L173">
         <v>0.003590368683746271</v>
@@ -13557,13 +13557,13 @@
         <v>0.3937499999999545</v>
       </c>
       <c r="U173">
-        <v>0.9999830555861496</v>
+        <v>-1.694441385036161E-05</v>
       </c>
       <c r="V173">
-        <v>1.000101696638926</v>
+        <v>0.0001016966389260077</v>
       </c>
       <c r="W173">
-        <v>1.001271294177473</v>
+        <v>0.001271294177472626</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13598,7 +13598,7 @@
         <v>1.09800385756713</v>
       </c>
       <c r="K174">
-        <v>52.33564531384552</v>
+        <v>0.02335645313845514</v>
       </c>
       <c r="L174">
         <v>0.003730021166361122</v>
@@ -13628,13 +13628,13 @@
         <v>0.3625000000000114</v>
       </c>
       <c r="U174">
-        <v>1.000008472350484</v>
+        <v>8.472350484289848E-06</v>
       </c>
       <c r="V174">
-        <v>1.000016947716295</v>
+        <v>1.694771629523473E-05</v>
       </c>
       <c r="W174">
-        <v>0.9992381919756221</v>
+        <v>-0.0007618080243778635</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13669,7 +13669,7 @@
         <v>0.9892351199845597</v>
       </c>
       <c r="K175">
-        <v>49.72942162775801</v>
+        <v>-0.002705783722419863</v>
       </c>
       <c r="L175">
         <v>0.003439813575476043</v>
@@ -13699,13 +13699,13 @@
         <v>0.2625000000000455</v>
       </c>
       <c r="U175">
-        <v>0.9999491663277754</v>
+        <v>-5.083367222458168E-05</v>
       </c>
       <c r="V175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W175">
-        <v>0.9992376111817026</v>
+        <v>-0.000762388818297377</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13740,7 +13740,7 @@
         <v>0.9892351199845596</v>
       </c>
       <c r="K176">
-        <v>49.72942162775801</v>
+        <v>-0.002705783722419919</v>
       </c>
       <c r="L176">
         <v>0.002895193023900301</v>
@@ -13770,13 +13770,13 @@
         <v>0.125</v>
       </c>
       <c r="U176">
-        <v>0.9999576364529851</v>
+        <v>-4.236354701492306E-05</v>
       </c>
       <c r="V176">
-        <v>1.000050842287225</v>
+        <v>5.084228722518347E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13811,7 +13811,7 @@
         <v>0.9217837463488415</v>
       </c>
       <c r="K177">
-        <v>47.96500897148911</v>
+        <v>-0.02034991028510885</v>
       </c>
       <c r="L177">
         <v>0.00203549927451552</v>
@@ -13841,13 +13841,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U177">
-        <v>0.999932215453182</v>
+        <v>-6.778454681799495E-05</v>
       </c>
       <c r="V177">
-        <v>1.000050839702418</v>
+        <v>5.083970241814839E-05</v>
       </c>
       <c r="W177">
-        <v>0.9994913530010173</v>
+        <v>-0.0005086469989826758</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13882,7 +13882,7 @@
         <v>0.8321893068444433</v>
       </c>
       <c r="K178">
-        <v>45.42048704987327</v>
+        <v>-0.0457951295012673</v>
       </c>
       <c r="L178">
         <v>0.0007546286858611304</v>
@@ -13912,13 +13912,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U178">
-        <v>0.9999237372153916</v>
+        <v>-7.626278460837188E-05</v>
       </c>
       <c r="V178">
-        <v>0.9999830542940419</v>
+        <v>-1.694570595811573E-05</v>
       </c>
       <c r="W178">
-        <v>0.999236641221374</v>
+        <v>-0.0007633587786259888</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13953,7 +13953,7 @@
         <v>0.900397594449115</v>
       </c>
       <c r="K179">
-        <v>47.37943244503639</v>
+        <v>-0.02620567554963604</v>
       </c>
       <c r="L179">
         <v>-0.0005173921274727724</v>
@@ -13983,13 +13983,13 @@
         <v>-0.1750000000000682</v>
       </c>
       <c r="U179">
-        <v>0.9999576285549642</v>
+        <v>-4.237144503582702E-05</v>
       </c>
       <c r="V179">
-        <v>1.00001694599312</v>
+        <v>1.694599312007661E-05</v>
       </c>
       <c r="W179">
-        <v>1.000509294626942</v>
+        <v>0.0005092946269416032</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14024,7 +14024,7 @@
         <v>0.9362966931884262</v>
       </c>
       <c r="K180">
-        <v>48.35502206258804</v>
+        <v>-0.01644977937411957</v>
       </c>
       <c r="L180">
         <v>-0.001608576456972351</v>
@@ -14054,13 +14054,13 @@
         <v>-0.2250000000000796</v>
       </c>
       <c r="U180">
-        <v>0.9999830507038197</v>
+        <v>-1.694929618034635E-05</v>
       </c>
       <c r="V180">
-        <v>1.000050837117874</v>
+        <v>5.083711787423617E-05</v>
       </c>
       <c r="W180">
-        <v>1.000254517688979</v>
+        <v>0.0002545176889794387</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14095,7 +14095,7 @@
         <v>1.011873743165902</v>
       </c>
       <c r="K181">
-        <v>50.29509165786957</v>
+        <v>0.002950916578695728</v>
       </c>
       <c r="L181">
         <v>-0.002329717496132397</v>
@@ -14125,13 +14125,13 @@
         <v>-0.3312500000000114</v>
       </c>
       <c r="U181">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V181">
-        <v>0.9999322206218758</v>
+        <v>-6.777937812418866E-05</v>
       </c>
       <c r="W181">
-        <v>1.000508905852417</v>
+        <v>0.0005089058524172518</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14166,7 +14166,7 @@
         <v>1.011873743165902</v>
       </c>
       <c r="K182">
-        <v>50.29509165786957</v>
+        <v>0.002950916578695728</v>
       </c>
       <c r="L182">
         <v>-0.002772255587490681</v>
@@ -14196,13 +14196,13 @@
         <v>-0.34375</v>
       </c>
       <c r="U182">
-        <v>1.000016949583464</v>
+        <v>1.694958346387665E-05</v>
       </c>
       <c r="V182">
-        <v>0.9998474860619205</v>
+        <v>-0.0001525139380794682</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14237,7 +14237,7 @@
         <v>0.8667133295891609</v>
       </c>
       <c r="K183">
-        <v>46.42991057335585</v>
+        <v>-0.03570089426644146</v>
       </c>
       <c r="L183">
         <v>-0.003378003007910375</v>
@@ -14267,13 +14267,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U183">
-        <v>0.9999830507038195</v>
+        <v>-1.694929618045737E-05</v>
       </c>
       <c r="V183">
-        <v>0.9997457713297855</v>
+        <v>-0.000254228670214518</v>
       </c>
       <c r="W183">
-        <v>0.9989827060020346</v>
+        <v>-0.001017293997965352</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14308,7 +14308,7 @@
         <v>0.8351836010307414</v>
       </c>
       <c r="K184">
-        <v>45.50953923965186</v>
+        <v>-0.04490460760348136</v>
       </c>
       <c r="L184">
         <v>-0.004124343474520442</v>
@@ -14338,13 +14338,13 @@
         <v>-0.2749999999999773</v>
       </c>
       <c r="U184">
-        <v>0.999923726874412</v>
+        <v>-7.627312558800003E-05</v>
       </c>
       <c r="V184">
-        <v>0.9998135182328309</v>
+        <v>-0.0001864817671690666</v>
       </c>
       <c r="W184">
-        <v>0.9997454175152749</v>
+        <v>-0.0002545824847250966</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14379,7 +14379,7 @@
         <v>0.8734767561296291</v>
       </c>
       <c r="K185">
-        <v>46.62330361301753</v>
+        <v>-0.03376696386982464</v>
       </c>
       <c r="L185">
         <v>-0.004800763668334962</v>
@@ -14409,13 +14409,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U185">
-        <v>0.9998898193036581</v>
+        <v>-0.0001101806963419438</v>
       </c>
       <c r="V185">
-        <v>0.9998813076505698</v>
+        <v>-0.0001186923494301828</v>
       </c>
       <c r="W185">
-        <v>1.000254647313471</v>
+        <v>0.0002546473134708016</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14450,7 +14450,7 @@
         <v>0.8734767561296292</v>
       </c>
       <c r="K186">
-        <v>46.62330361301754</v>
+        <v>-0.03376696386982458</v>
       </c>
       <c r="L186">
         <v>-0.005374285641869006</v>
@@ -14480,13 +14480,13 @@
         <v>-0.1812500000000341</v>
       </c>
       <c r="U186">
-        <v>0.9998898071625345</v>
+        <v>-0.0001101928374654948</v>
       </c>
       <c r="V186">
-        <v>0.9998643354983127</v>
+        <v>-0.0001356645016873381</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14521,7 +14521,7 @@
         <v>0.8734767561296289</v>
       </c>
       <c r="K187">
-        <v>46.62330361301753</v>
+        <v>-0.03376696386982475</v>
       </c>
       <c r="L187">
         <v>-0.005829394198314885</v>
@@ -14551,13 +14551,13 @@
         <v>-0.1437499999999545</v>
       </c>
       <c r="U187">
-        <v>0.9999406588562417</v>
+        <v>-5.93411437582736E-05</v>
       </c>
       <c r="V187">
-        <v>0.9999151981818488</v>
+        <v>-8.480181815118115E-05</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14592,7 +14592,7 @@
         <v>0.8734767561296291</v>
       </c>
       <c r="K188">
-        <v>46.62330361301753</v>
+        <v>-0.03376696386982464</v>
       </c>
       <c r="L188">
         <v>-0.006162571848631182</v>
@@ -14622,13 +14622,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U188">
-        <v>0.9999660887626638</v>
+        <v>-3.391123733620383E-05</v>
       </c>
       <c r="V188">
-        <v>0.9998303819797816</v>
+        <v>-0.0001696180202184205</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14663,7 +14663,7 @@
         <v>0.8342551282793298</v>
       </c>
       <c r="K189">
-        <v>45.4819569762863</v>
+        <v>-0.04518043023713703</v>
       </c>
       <c r="L189">
         <v>-0.006470835786826684</v>
@@ -14693,13 +14693,13 @@
         <v>-0.1312499999999659</v>
       </c>
       <c r="U189">
-        <v>0.9999406533221421</v>
+        <v>-5.93466778578966E-05</v>
       </c>
       <c r="V189">
-        <v>0.9998642825637023</v>
+        <v>-0.0001357174362976998</v>
       </c>
       <c r="W189">
-        <v>0.9997454175152749</v>
+        <v>-0.0002545824847250966</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14734,7 +14734,7 @@
         <v>0.7966027462866271</v>
       </c>
       <c r="K190">
-        <v>44.33939266391049</v>
+        <v>-0.05660607336089507</v>
       </c>
       <c r="L190">
         <v>-0.006813447389602913</v>
@@ -14764,13 +14764,13 @@
         <v>-0.1499999999999773</v>
       </c>
       <c r="U190">
-        <v>0.9999491283999187</v>
+        <v>-5.087160008132585E-05</v>
       </c>
       <c r="V190">
-        <v>0.9998981981064848</v>
+        <v>-0.0001018018935151632</v>
       </c>
       <c r="W190">
-        <v>0.9997453526865292</v>
+        <v>-0.0002546473134708016</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14805,7 +14805,7 @@
         <v>0.6693952798972114</v>
       </c>
       <c r="K191">
-        <v>40.0980695200257</v>
+        <v>-0.09901930479974302</v>
       </c>
       <c r="L191">
         <v>-0.007500726312579682</v>
@@ -14835,13 +14835,13 @@
         <v>-0.1625000000000227</v>
       </c>
       <c r="U191">
-        <v>0.9999406467805119</v>
+        <v>-5.93532194881341E-05</v>
       </c>
       <c r="V191">
-        <v>0.9998303129030068</v>
+        <v>-0.0001696870969931652</v>
       </c>
       <c r="W191">
-        <v>0.998981151299032</v>
+        <v>-0.001018848700968022</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14876,7 +14876,7 @@
         <v>0.6423997074412264</v>
       </c>
       <c r="K192">
-        <v>39.1134816044294</v>
+        <v>-0.108865183955706</v>
       </c>
       <c r="L192">
         <v>-0.008418471216112312</v>
@@ -14906,13 +14906,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U192">
-        <v>0.9999491227921411</v>
+        <v>-5.087720785890149E-05</v>
       </c>
       <c r="V192">
-        <v>0.9998472556939683</v>
+        <v>-0.0001527443060317379</v>
       </c>
       <c r="W192">
-        <v>0.9997450280469149</v>
+        <v>-0.0002549719530851036</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14947,7 +14947,7 @@
         <v>0.5921271199450114</v>
       </c>
       <c r="K193">
-        <v>37.19094490177783</v>
+        <v>-0.1280905509822217</v>
       </c>
       <c r="L193">
         <v>-0.009572125840554072</v>
@@ -14977,13 +14977,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U193">
-        <v>0.9999236803052789</v>
+        <v>-7.631969472110534E-05</v>
       </c>
       <c r="V193">
-        <v>0.9998642065418498</v>
+        <v>-0.0001357934581501796</v>
       </c>
       <c r="W193">
-        <v>0.9994899260392756</v>
+        <v>-0.0005100739607244442</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15018,7 +15018,7 @@
         <v>0.4747922329550535</v>
       </c>
       <c r="K194">
-        <v>32.19383872152</v>
+        <v>-0.1780616127848</v>
       </c>
       <c r="L194">
         <v>-0.01131636789886605</v>
@@ -15048,13 +15048,13 @@
         <v>-0.3125</v>
       </c>
       <c r="U194">
-        <v>0.9998727908002306</v>
+        <v>-0.0001272091997693847</v>
       </c>
       <c r="V194">
-        <v>0.9997283761989644</v>
+        <v>-0.0002716238010356253</v>
       </c>
       <c r="W194">
-        <v>0.9984689971931616</v>
+        <v>-0.001531002806838377</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15089,7 +15089,7 @@
         <v>0.4299509977786509</v>
       </c>
       <c r="K195">
-        <v>30.06753367398993</v>
+        <v>-0.1993246632601007</v>
       </c>
       <c r="L195">
         <v>-0.01354443298257214</v>
@@ -15119,13 +15119,13 @@
         <v>-0.4187499999999886</v>
       </c>
       <c r="U195">
-        <v>0.9998558112314568</v>
+        <v>-0.0001441887685431631</v>
       </c>
       <c r="V195">
-        <v>0.9996603779992869</v>
+        <v>-0.0003396220007131356</v>
       </c>
       <c r="W195">
-        <v>0.9992333248147202</v>
+        <v>-0.0007666751852798415</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15160,7 +15160,7 @@
         <v>0.5625038546831174</v>
       </c>
       <c r="K196">
-        <v>36.00015788743098</v>
+        <v>-0.1399984211256902</v>
       </c>
       <c r="L196">
         <v>-0.01550429269688631</v>
@@ -15190,13 +15190,13 @@
         <v>-0.4937499999999204</v>
       </c>
       <c r="U196">
-        <v>0.9998133758610158</v>
+        <v>-0.0001866241389841816</v>
       </c>
       <c r="V196">
-        <v>0.9996942363552973</v>
+        <v>-0.0003057636447026946</v>
       </c>
       <c r="W196">
-        <v>1.001023017902813</v>
+        <v>0.001023017902813228</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15231,7 +15231,7 @@
         <v>0.6671508469761271</v>
       </c>
       <c r="K197">
-        <v>40.01742542891084</v>
+        <v>-0.09982574571089159</v>
       </c>
       <c r="L197">
         <v>-0.0168427247513653</v>
@@ -15261,13 +15261,13 @@
         <v>-0.5250000000000341</v>
       </c>
       <c r="U197">
-        <v>0.9997963720283045</v>
+        <v>-0.0002036279716954859</v>
       </c>
       <c r="V197">
-        <v>0.9997451190294133</v>
+        <v>-0.0002548809705866795</v>
       </c>
       <c r="W197">
-        <v>1.000766479305059</v>
+        <v>0.0007664793050587981</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15302,7 +15302,7 @@
         <v>0.6671508469761271</v>
       </c>
       <c r="K198">
-        <v>40.01742542891084</v>
+        <v>-0.09982574571089159</v>
       </c>
       <c r="L198">
         <v>-0.01765825474437471</v>
@@ -15332,13 +15332,13 @@
         <v>-0.5437499999999886</v>
       </c>
       <c r="U198">
-        <v>0.9997793581018007</v>
+        <v>-0.0002206418981992586</v>
       </c>
       <c r="V198">
-        <v>0.9998130396355973</v>
+        <v>-0.0001869603644026885</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15373,7 +15373,7 @@
         <v>0.6192795678177615</v>
       </c>
       <c r="K199">
-        <v>38.24414141483548</v>
+        <v>-0.1175585858516452</v>
       </c>
       <c r="L199">
         <v>-0.01822626722328748</v>
@@ -15403,13 +15403,13 @@
         <v>-0.5499999999999545</v>
       </c>
       <c r="U199">
-        <v>0.9998047737072625</v>
+        <v>-0.0001952262927374937</v>
       </c>
       <c r="V199">
-        <v>0.9997960050998725</v>
+        <v>-0.0002039949001274577</v>
       </c>
       <c r="W199">
-        <v>0.9994894051570079</v>
+        <v>-0.0005105948429920959</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15444,7 +15444,7 @@
         <v>0.5757894030457619</v>
       </c>
       <c r="K200">
-        <v>36.53974331423021</v>
+        <v>-0.1346025668576978</v>
       </c>
       <c r="L200">
         <v>-0.01872740698689897</v>
@@ -15474,13 +15474,13 @@
         <v>-0.5625000000000568</v>
       </c>
       <c r="U200">
-        <v>0.9998132253436229</v>
+        <v>-0.0001867746563770645</v>
       </c>
       <c r="V200">
-        <v>0.999744954346828</v>
+        <v>-0.0002550456531720258</v>
       </c>
       <c r="W200">
-        <v>0.9994891443167305</v>
+        <v>-0.0005108556832694733</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15515,7 +15515,7 @@
         <v>0.5183160407363669</v>
       </c>
       <c r="K201">
-        <v>34.13755942965533</v>
+        <v>-0.1586244057034467</v>
       </c>
       <c r="L201">
         <v>-0.01936639849162317</v>
@@ -15545,13 +15545,13 @@
         <v>-0.5625</v>
       </c>
       <c r="U201">
-        <v>0.9997792250800309</v>
+        <v>-0.0002207749199690801</v>
       </c>
       <c r="V201">
-        <v>0.9996938671383381</v>
+        <v>-0.000306132861661923</v>
       </c>
       <c r="W201">
-        <v>0.9992333248147202</v>
+        <v>-0.0007666751852798415</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15586,7 +15586,7 @@
         <v>0.4410761491047168</v>
       </c>
       <c r="K202">
-        <v>30.60741442280755</v>
+        <v>-0.1939258557719245</v>
       </c>
       <c r="L202">
         <v>-0.02044186185249688</v>
@@ -15616,13 +15616,13 @@
         <v>-0.5187500000000114</v>
       </c>
       <c r="U202">
-        <v>0.9997621898913718</v>
+        <v>-0.0002378101086282225</v>
       </c>
       <c r="V202">
-        <v>0.9996087104457299</v>
+        <v>-0.0003912895542701467</v>
       </c>
       <c r="W202">
-        <v>0.9987212276214834</v>
+        <v>-0.001278772378516591</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15657,7 +15657,7 @@
         <v>0.3812687862731239</v>
       </c>
       <c r="K203">
-        <v>27.60279462347411</v>
+        <v>-0.2239720537652589</v>
       </c>
       <c r="L203">
         <v>-0.02210334737345128</v>
@@ -15687,13 +15687,13 @@
         <v>-0.4687500000000568</v>
       </c>
       <c r="U203">
-        <v>0.999677180940083</v>
+        <v>-0.0003228190599170455</v>
       </c>
       <c r="V203">
-        <v>0.9995234610344299</v>
+        <v>-0.0004765389655700947</v>
       </c>
       <c r="W203">
-        <v>0.998719590268886</v>
+        <v>-0.001280409731113985</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15728,7 +15728,7 @@
         <v>0.4098149313765925</v>
       </c>
       <c r="K204">
-        <v>29.06870414377261</v>
+        <v>-0.2093129585622739</v>
       </c>
       <c r="L204">
         <v>-0.02384168909226535</v>
@@ -15758,13 +15758,13 @@
         <v>-0.4625000000000341</v>
       </c>
       <c r="U204">
-        <v>0.9997110686212024</v>
+        <v>-0.0002889313787975967</v>
       </c>
       <c r="V204">
-        <v>0.9995572885627203</v>
+        <v>-0.000442711437279697</v>
       </c>
       <c r="W204">
-        <v>1.00025641025641</v>
+        <v>0.0002564102564102111</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15799,7 +15799,7 @@
         <v>0.3562855657998016</v>
       </c>
       <c r="K205">
-        <v>26.2692145949146</v>
+        <v>-0.237307854050854</v>
       </c>
       <c r="L205">
         <v>-0.02589392905725934</v>
@@ -15829,13 +15829,13 @@
         <v>-0.53125</v>
       </c>
       <c r="U205">
-        <v>0.9996939842401884</v>
+        <v>-0.0003060157598115953</v>
       </c>
       <c r="V205">
-        <v>0.9994889528644192</v>
+        <v>-0.0005110471355808111</v>
       </c>
       <c r="W205">
-        <v>0.9987182773647783</v>
+        <v>-0.001281722635221749</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15870,7 +15870,7 @@
         <v>0.3132199964149104</v>
       </c>
       <c r="K206">
-        <v>23.85129660452938</v>
+        <v>-0.2614870339547062</v>
       </c>
       <c r="L206">
         <v>-0.02837665080749432</v>
@@ -15900,13 +15900,13 @@
         <v>-0.6374999999999886</v>
       </c>
       <c r="U206">
-        <v>0.9996513753666936</v>
+        <v>-0.0003486246333064269</v>
       </c>
       <c r="V206">
-        <v>0.9994716479470965</v>
+        <v>-0.0005283520529034691</v>
       </c>
       <c r="W206">
-        <v>0.9987166324435318</v>
+        <v>-0.001283367556468185</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15941,7 +15941,7 @@
         <v>0.4150084103196267</v>
       </c>
       <c r="K207">
-        <v>29.32904195430777</v>
+        <v>-0.2067095804569223</v>
       </c>
       <c r="L207">
         <v>-0.03048870012222586</v>
@@ -15971,13 +15971,13 @@
         <v>-0.7187499999999432</v>
       </c>
       <c r="U207">
-        <v>0.9997022898166105</v>
+        <v>-0.0002977101833895324</v>
       </c>
       <c r="V207">
-        <v>0.9995566317656287</v>
+        <v>-0.0004433682343712997</v>
       </c>
       <c r="W207">
-        <v>1.001028013364174</v>
+        <v>0.001028013364173574</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16012,7 +16012,7 @@
         <v>0.4953676844549366</v>
       </c>
       <c r="K208">
-        <v>33.12681486998288</v>
+        <v>-0.1687318513001712</v>
       </c>
       <c r="L208">
         <v>-0.03185290430841699</v>
@@ -16042,13 +16042,13 @@
         <v>-0.7624999999999318</v>
       </c>
       <c r="U208">
-        <v>0.9997532523887722</v>
+        <v>-0.0002467476112277822</v>
       </c>
       <c r="V208">
-        <v>0.9996417360447659</v>
+        <v>-0.0003582639552340838</v>
       </c>
       <c r="W208">
-        <v>1.000770218228498</v>
+        <v>0.0007702182284980985</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16083,7 +16083,7 @@
         <v>0.4567332114588113</v>
       </c>
       <c r="K209">
-        <v>31.35325040069804</v>
+        <v>-0.1864674959930195</v>
       </c>
       <c r="L209">
         <v>-0.03284042714224311</v>
@@ -16113,13 +16113,13 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="U209">
-        <v>0.9997106382978723</v>
+        <v>-0.0002893617021276773</v>
       </c>
       <c r="V209">
-        <v>0.9996928065534602</v>
+        <v>-0.000307193446539844</v>
       </c>
       <c r="W209">
-        <v>0.9992303745510518</v>
+        <v>-0.0007696254489482079</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16154,7 +16154,7 @@
         <v>0.5388295362452346</v>
       </c>
       <c r="K210">
-        <v>35.01554418821374</v>
+        <v>-0.1498445581178626</v>
       </c>
       <c r="L210">
         <v>-0.0331390614506251</v>
@@ -16184,13 +16184,13 @@
         <v>-0.7937499999999886</v>
       </c>
       <c r="U210">
-        <v>0.9997275807467693</v>
+        <v>-0.0002724192532307379</v>
       </c>
       <c r="V210">
-        <v>0.9997951414377657</v>
+        <v>-0.0002048585622342891</v>
       </c>
       <c r="W210">
-        <v>1.000770218228498</v>
+        <v>0.0007702182284980985</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16225,7 +16225,7 @@
         <v>0.6828581762214101</v>
       </c>
       <c r="K211">
-        <v>40.57728606427544</v>
+        <v>-0.09422713935724558</v>
       </c>
       <c r="L211">
         <v>-0.03241592657329882</v>
@@ -16255,13 +16255,13 @@
         <v>-0.7124999999999773</v>
       </c>
       <c r="U211">
-        <v>0.9997530527785821</v>
+        <v>-0.0002469472214179369</v>
       </c>
       <c r="V211">
-        <v>0.9998121745069581</v>
+        <v>-0.0001878254930418599</v>
       </c>
       <c r="W211">
-        <v>1.00128270908158</v>
+        <v>0.001282709081580347</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16296,7 +16296,7 @@
         <v>0.6828581762214101</v>
       </c>
       <c r="K212">
-        <v>40.57728606427544</v>
+        <v>-0.09422713935724558</v>
       </c>
       <c r="L212">
         <v>-0.03100140726286041</v>
@@ -16326,13 +16326,13 @@
         <v>-0.6187500000000341</v>
       </c>
       <c r="U212">
-        <v>0.9997529917805885</v>
+        <v>-0.000247008219411482</v>
       </c>
       <c r="V212">
-        <v>0.9997609044642551</v>
+        <v>-0.0002390955357448599</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16367,7 +16367,7 @@
         <v>0.7466935845210964</v>
       </c>
       <c r="K213">
-        <v>42.74897389777858</v>
+        <v>-0.07251026102221425</v>
       </c>
       <c r="L213">
         <v>-0.02895881362436481</v>
@@ -16397,13 +16397,13 @@
         <v>-0.4312500000000341</v>
       </c>
       <c r="U213">
-        <v>0.9998040485278081</v>
+        <v>-0.0001959514721918687</v>
       </c>
       <c r="V213">
-        <v>0.9997950119576359</v>
+        <v>-0.0002049880423641293</v>
       </c>
       <c r="W213">
-        <v>1.000512426338714</v>
+        <v>0.000512426338713734</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16438,7 +16438,7 @@
         <v>0.7466935845210964</v>
       </c>
       <c r="K214">
-        <v>42.74897389777858</v>
+        <v>-0.07251026102221425</v>
       </c>
       <c r="L214">
         <v>-0.02655992995513364</v>
@@ -16468,13 +16468,13 @@
         <v>-0.1812500000000341</v>
       </c>
       <c r="U214">
-        <v>0.99981253142229</v>
+        <v>-0.0001874685777100149</v>
       </c>
       <c r="V214">
-        <v>0.9998291416074357</v>
+        <v>-0.0001708583925642548</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16509,7 +16509,7 @@
         <v>0.7820594616954478</v>
       </c>
       <c r="K215">
-        <v>43.88514965440032</v>
+        <v>-0.06114850345599687</v>
       </c>
       <c r="L215">
         <v>-0.02390787292725562</v>
@@ -16539,13 +16539,13 @@
         <v>0.01250000000004547</v>
       </c>
       <c r="U215">
-        <v>0.9998124962712327</v>
+        <v>-0.000187503728767302</v>
       </c>
       <c r="V215">
-        <v>0.9998803786868997</v>
+        <v>-0.0001196213131002821</v>
       </c>
       <c r="W215">
-        <v>1.000256081946223</v>
+        <v>0.0002560819462229524</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16580,7 +16580,7 @@
         <v>0.9309684182189909</v>
       </c>
       <c r="K216">
-        <v>48.21251396113771</v>
+        <v>-0.0178748603886229</v>
       </c>
       <c r="L216">
         <v>-0.02081155034854463</v>
@@ -16610,13 +16610,13 @@
         <v>0.1812500000000341</v>
       </c>
       <c r="U216">
-        <v>0.9998465590875381</v>
+        <v>-0.000153440912461944</v>
       </c>
       <c r="V216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W216">
-        <v>1.001024065540195</v>
+        <v>0.001024065540194519</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16651,7 +16651,7 @@
         <v>0.9309684182189909</v>
       </c>
       <c r="K217">
-        <v>48.21251396113771</v>
+        <v>-0.0178748603886229</v>
       </c>
       <c r="L217">
         <v>-0.01756710563547906</v>
@@ -16681,13 +16681,13 @@
         <v>0.3687500000000341</v>
       </c>
       <c r="U217">
-        <v>0.9998465355398113</v>
+        <v>-0.0001534644601887125</v>
       </c>
       <c r="V217">
-        <v>1.000085454017193</v>
+        <v>8.545401719328716E-05</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16722,7 +16722,7 @@
         <v>0.8284501515198713</v>
       </c>
       <c r="K218">
-        <v>45.30887269916737</v>
+        <v>-0.04691127300832632</v>
       </c>
       <c r="L218">
         <v>-0.01465487093623448</v>
@@ -16752,13 +16752,13 @@
         <v>0.4687500000000568</v>
       </c>
       <c r="U218">
-        <v>0.9998209306489984</v>
+        <v>-0.0001790693510016483</v>
       </c>
       <c r="V218">
-        <v>1.0001196254016</v>
+        <v>0.000119625401599599</v>
       </c>
       <c r="W218">
-        <v>0.99923273657289</v>
+        <v>-0.0007672634271099765</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16793,7 +16793,7 @@
         <v>1.292113420153123</v>
       </c>
       <c r="K219">
-        <v>56.37214148271967</v>
+        <v>0.06372141482719673</v>
       </c>
       <c r="L219">
         <v>-0.0109580573411275</v>
@@ -16823,13 +16823,13 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="U219">
-        <v>0.9999317708866374</v>
+        <v>-6.822911336257231E-05</v>
       </c>
       <c r="V219">
-        <v>1.000307571382192</v>
+        <v>0.0003075713821918402</v>
       </c>
       <c r="W219">
-        <v>1.003071410289224</v>
+        <v>0.003071410289224419</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16864,7 +16864,7 @@
         <v>1.151599150126105</v>
       </c>
       <c r="K220">
-        <v>53.52294129966588</v>
+        <v>0.03522941299665883</v>
       </c>
       <c r="L220">
         <v>-0.007260717143362746</v>
@@ -16894,13 +16894,13 @@
         <v>0.6187499999999773</v>
       </c>
       <c r="U220">
-        <v>0.9999147077888847</v>
+        <v>-8.529221111530649E-05</v>
       </c>
       <c r="V220">
-        <v>1.000341640901249</v>
+        <v>0.0003416409012486632</v>
       </c>
       <c r="W220">
-        <v>0.9992344985965809</v>
+        <v>-0.0007655014034191332</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16935,7 +16935,7 @@
         <v>0.9991071707483943</v>
       </c>
       <c r="K221">
-        <v>49.97766929995876</v>
+        <v>-0.0002233070004124538</v>
       </c>
       <c r="L221">
         <v>-0.004144940729737955</v>
@@ -16965,13 +16965,13 @@
         <v>0.6062499999999886</v>
       </c>
       <c r="U221">
-        <v>0.999914700513503</v>
+        <v>-8.529948649704799E-05</v>
       </c>
       <c r="V221">
-        <v>1.000358600433736</v>
+        <v>0.0003586004337359228</v>
       </c>
       <c r="W221">
-        <v>0.9989785495403473</v>
+        <v>-0.00102145045965274</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17006,7 +17006,7 @@
         <v>0.9654639076130739</v>
       </c>
       <c r="K222">
-        <v>49.12142644153491</v>
+        <v>-0.008785735584650844</v>
       </c>
       <c r="L222">
         <v>-0.001658277665143596</v>
@@ -17036,13 +17036,13 @@
         <v>0.5562500000000341</v>
       </c>
       <c r="U222">
-        <v>0.9999146932368799</v>
+        <v>-8.530676312012986E-05</v>
       </c>
       <c r="V222">
-        <v>1.000273121436619</v>
+        <v>0.0002731214366187285</v>
       </c>
       <c r="W222">
-        <v>0.9997443762781187</v>
+        <v>-0.0002556237218812596</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17077,7 +17077,7 @@
         <v>0.9015518038252139</v>
       </c>
       <c r="K223">
-        <v>47.41137222828363</v>
+        <v>-0.02588627771716367</v>
       </c>
       <c r="L223">
         <v>0.000108320479693776</v>
@@ -17107,13 +17107,13 @@
         <v>0.5062499999999091</v>
       </c>
       <c r="U223">
-        <v>0.9999146859590151</v>
+        <v>-8.531404098488515E-05</v>
       </c>
       <c r="V223">
-        <v>1.000187719717397</v>
+        <v>0.0001877197173965062</v>
       </c>
       <c r="W223">
-        <v>0.9994886218358475</v>
+        <v>-0.0005113781641524762</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17148,7 +17148,7 @@
         <v>0.8428219016015891</v>
       </c>
       <c r="K224">
-        <v>45.73539639772547</v>
+        <v>-0.04264603602274536</v>
       </c>
       <c r="L224">
         <v>0.001139244905861499</v>
@@ -17178,13 +17178,13 @@
         <v>0.4124999999999659</v>
       </c>
       <c r="U224">
-        <v>0.999948807207945</v>
+        <v>-5.119279205501037E-05</v>
       </c>
       <c r="V224">
-        <v>1.000204746711256</v>
+        <v>0.0002047467112558099</v>
       </c>
       <c r="W224">
-        <v>0.9994883601944231</v>
+        <v>-0.0005116398055768911</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17219,7 +17219,7 @@
         <v>0.8148829427911692</v>
       </c>
       <c r="K225">
-        <v>44.90002763142032</v>
+        <v>-0.05099972368579681</v>
       </c>
       <c r="L225">
         <v>0.00156141180782806</v>
@@ -17249,13 +17249,13 @@
         <v>0.2937499999999318</v>
       </c>
       <c r="U225">
-        <v>0.9999658697247393</v>
+        <v>-3.41302752606687E-05</v>
       </c>
       <c r="V225">
-        <v>1.000136469865748</v>
+        <v>0.0001364698657475572</v>
       </c>
       <c r="W225">
-        <v>0.9997440491425648</v>
+        <v>-0.0002559508574352387</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17290,7 +17290,7 @@
         <v>0.7874071548284615</v>
       </c>
       <c r="K226">
-        <v>44.05303809495098</v>
+        <v>-0.0594696190504902</v>
       </c>
       <c r="L226">
         <v>0.001489003075373769</v>
@@ -17320,13 +17320,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U226">
-        <v>0.9999232042596038</v>
+        <v>-7.679574039620718E-05</v>
       </c>
       <c r="V226">
-        <v>1.000034112811066</v>
+        <v>3.411281106635577E-05</v>
       </c>
       <c r="W226">
-        <v>0.9997439836149513</v>
+        <v>-0.0002560163850486852</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17361,7 +17361,7 @@
         <v>0.7604183344294617</v>
       </c>
       <c r="K227">
-        <v>43.19532008713756</v>
+        <v>-0.06804679912862438</v>
       </c>
       <c r="L227">
         <v>0.001022988856218493</v>
@@ -17391,13 +17391,13 @@
         <v>0.03125</v>
       </c>
       <c r="U227">
-        <v>0.9998890643000383</v>
+        <v>-0.0001109356999616784</v>
       </c>
       <c r="V227">
-        <v>1.000017055823711</v>
+        <v>1.705582371092085E-05</v>
       </c>
       <c r="W227">
-        <v>0.9997439180537772</v>
+        <v>-0.0002560819462228414</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17432,7 +17432,7 @@
         <v>0.9408160134212697</v>
       </c>
       <c r="K228">
-        <v>48.47528085688038</v>
+        <v>-0.01524719143119618</v>
       </c>
       <c r="L228">
         <v>0.0008104391460641059</v>
@@ -17462,13 +17462,13 @@
         <v>-0.09374999999994316</v>
       </c>
       <c r="U228">
-        <v>0.9999317243027347</v>
+        <v>-6.827569726530758E-05</v>
       </c>
       <c r="V228">
-        <v>1.000068222131259</v>
+        <v>6.82221312593434E-05</v>
       </c>
       <c r="W228">
-        <v>1.001280737704918</v>
+        <v>0.001280737704917989</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17503,7 +17503,7 @@
         <v>0.8167416562627685</v>
       </c>
       <c r="K229">
-        <v>44.95640056731529</v>
+        <v>-0.05043599432684709</v>
       </c>
       <c r="L229">
         <v>0.0003892869273023726</v>
@@ -17533,13 +17533,13 @@
         <v>-0.1812499999999204</v>
       </c>
       <c r="U229">
-        <v>0.9999146495510566</v>
+        <v>-8.535044894342203E-05</v>
       </c>
       <c r="V229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W229">
-        <v>0.9989767203888463</v>
+        <v>-0.001023279611153671</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17574,7 +17574,7 @@
         <v>0.9555621956875709</v>
       </c>
       <c r="K230">
-        <v>48.86380999769725</v>
+        <v>-0.01136190002302756</v>
       </c>
       <c r="L230">
         <v>0.0002399241974583394</v>
@@ -17604,13 +17604,13 @@
         <v>-0.2312500000000455</v>
       </c>
       <c r="U230">
-        <v>0.9999658569062941</v>
+        <v>-3.414309370586288E-05</v>
       </c>
       <c r="V230">
-        <v>1.000051163107988</v>
+        <v>5.116310798847223E-05</v>
       </c>
       <c r="W230">
-        <v>1.001024327784891</v>
+        <v>0.001024327784891144</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17645,7 +17645,7 @@
         <v>1.101689079292647</v>
       </c>
       <c r="K231">
-        <v>52.41922271696991</v>
+        <v>0.02419222716969915</v>
       </c>
       <c r="L231">
         <v>0.000636602121518326</v>
@@ -17675,13 +17675,13 @@
         <v>-0.2249999999999659</v>
       </c>
       <c r="U231">
-        <v>1.000025608194622</v>
+        <v>2.560819462216202E-05</v>
       </c>
       <c r="V231">
-        <v>1.000051160490459</v>
+        <v>5.116049045850168E-05</v>
       </c>
       <c r="W231">
-        <v>1.001023279611154</v>
+        <v>0.001023279611153782</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17716,7 +17716,7 @@
         <v>0.8680314244332205</v>
       </c>
       <c r="K232">
-        <v>46.46770996888288</v>
+        <v>-0.03532290031117119</v>
       </c>
       <c r="L232">
         <v>0.000684186052781164</v>
@@ -17746,13 +17746,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U232">
-        <v>1.000008535846286</v>
+        <v>8.535846286461535E-06</v>
       </c>
       <c r="V232">
-        <v>0.9999317895024045</v>
+        <v>-6.821049759553333E-05</v>
       </c>
       <c r="W232">
-        <v>0.998211091234347</v>
+        <v>-0.001788908765652963</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17787,7 +17787,7 @@
         <v>0.8412027025715652</v>
       </c>
       <c r="K233">
-        <v>45.6876747680566</v>
+        <v>-0.04312325231943404</v>
       </c>
       <c r="L233">
         <v>0.0004215756843228595</v>
@@ -17817,13 +17817,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U233">
-        <v>1.000042678867132</v>
+        <v>4.267886713216207E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999658924247076</v>
+        <v>-3.410757529243025E-05</v>
       </c>
       <c r="W233">
-        <v>0.9997439836149513</v>
+        <v>-0.0002560163850486852</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17858,7 +17858,7 @@
         <v>0.7898108780163869</v>
       </c>
       <c r="K234">
-        <v>44.12817508918702</v>
+        <v>-0.05871824910812973</v>
       </c>
       <c r="L234">
         <v>-0.0002001221925419326</v>
@@ -17888,13 +17888,13 @@
         <v>-0.1937500000000227</v>
       </c>
       <c r="U234">
-        <v>1.00001707081829</v>
+        <v>1.707081828961066E-05</v>
       </c>
       <c r="V234">
-        <v>0.9997271300907292</v>
+        <v>-0.0002728699092707787</v>
       </c>
       <c r="W234">
-        <v>0.9994878361075544</v>
+        <v>-0.0005121638924455718</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17929,7 +17929,7 @@
         <v>0.7203260259003516</v>
       </c>
       <c r="K235">
-        <v>41.87148337323799</v>
+        <v>-0.08128516626762006</v>
       </c>
       <c r="L235">
         <v>-0.001278574675970204</v>
@@ -17959,13 +17959,13 @@
         <v>-0.125</v>
       </c>
       <c r="U235">
-        <v>1.000034141053764</v>
+        <v>3.414105376364773E-05</v>
       </c>
       <c r="V235">
-        <v>0.9997270556124189</v>
+        <v>-0.0002729443875810755</v>
       </c>
       <c r="W235">
-        <v>0.9992313604919293</v>
+        <v>-0.000768639508070712</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18000,7 +18000,7 @@
         <v>0.9672778017635261</v>
       </c>
       <c r="K236">
-        <v>49.16833814199649</v>
+        <v>-0.008316618580035073</v>
       </c>
       <c r="L236">
         <v>-0.001814912198671916</v>
@@ -18030,13 +18030,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U236">
-        <v>1.000145094524815</v>
+        <v>0.0001450945248153701</v>
       </c>
       <c r="V236">
-        <v>0.9999317452733603</v>
+        <v>-6.825472663973819E-05</v>
       </c>
       <c r="W236">
-        <v>1.002051282051282</v>
+        <v>0.002051282051282133</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18071,7 +18071,7 @@
         <v>1.097252420638872</v>
       </c>
       <c r="K237">
-        <v>52.31856737133355</v>
+        <v>0.02318567371333546</v>
       </c>
       <c r="L237">
         <v>-0.001609290804023562</v>
@@ -18101,13 +18101,13 @@
         <v>0</v>
       </c>
       <c r="U237">
-        <v>1.000145073475448</v>
+        <v>0.0001450734754482319</v>
       </c>
       <c r="V237">
-        <v>1.000017064846416</v>
+        <v>1.70648464163925E-05</v>
       </c>
       <c r="W237">
-        <v>1.001023541453429</v>
+        <v>0.001023541453428756</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18142,7 +18142,7 @@
         <v>0.9370063168086117</v>
       </c>
       <c r="K238">
-        <v>48.37394223641004</v>
+        <v>-0.01626057763589955</v>
       </c>
       <c r="L238">
         <v>-0.001427325768668028</v>
@@ -18172,13 +18172,13 @@
         <v>0</v>
       </c>
       <c r="U238">
-        <v>1.0000767924641</v>
+        <v>7.67924640996398E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999658708895751</v>
+        <v>-3.412911042488531E-05</v>
       </c>
       <c r="W238">
-        <v>0.998721881390593</v>
+        <v>-0.001278118609406964</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18213,7 +18213,7 @@
         <v>0.8827258984723636</v>
       </c>
       <c r="K239">
-        <v>46.88552376044776</v>
+        <v>-0.03114476239552239</v>
       </c>
       <c r="L239">
         <v>-0.0014524703165931</v>
@@ -18243,13 +18243,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U239">
-        <v>1.0000853184083</v>
+        <v>8.531840829961723E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999658697247393</v>
+        <v>-3.41302752606687E-05</v>
       </c>
       <c r="W239">
-        <v>0.9994880982851293</v>
+        <v>-0.0005119017148706995</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18284,7 +18284,7 @@
         <v>0.8087511913193325</v>
       </c>
       <c r="K240">
-        <v>44.71323613776951</v>
+        <v>-0.05286763862230487</v>
       </c>
       <c r="L240">
         <v>-0.001875778848170176</v>
@@ -18314,13 +18314,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U240">
-        <v>1.000034124451876</v>
+        <v>3.412445187600532E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999317371196478</v>
+        <v>-6.826288035222117E-05</v>
       </c>
       <c r="W240">
-        <v>0.9992317541613316</v>
+        <v>-0.0007682458386684132</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18355,7 +18355,7 @@
         <v>0.8969644327427712</v>
       </c>
       <c r="K241">
-        <v>47.28419875779504</v>
+        <v>-0.02715801242204963</v>
       </c>
       <c r="L241">
         <v>-0.002226948185708943</v>
@@ -18385,13 +18385,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U241">
-        <v>1.000017061643719</v>
+        <v>1.706164371895191E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W241">
-        <v>1.000768836494106</v>
+        <v>0.0007688364941056403</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18426,7 +18426,7 @@
         <v>1.361244650760852</v>
       </c>
       <c r="K242">
-        <v>57.64945408440522</v>
+        <v>0.07649454084405216</v>
       </c>
       <c r="L242">
         <v>-0.001106010273432802</v>
@@ -18456,13 +18456,13 @@
         <v>0.03125</v>
       </c>
       <c r="U242">
-        <v>1.000145021497304</v>
+        <v>0.0001450214973042208</v>
       </c>
       <c r="V242">
-        <v>1.000273070161965</v>
+        <v>0.0002730701619648723</v>
       </c>
       <c r="W242">
-        <v>1.003841229193342</v>
+        <v>0.003841229193341844</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18497,7 +18497,7 @@
         <v>1.170554992175156</v>
       </c>
       <c r="K243">
-        <v>53.92883370359207</v>
+        <v>0.03928833703592072</v>
       </c>
       <c r="L243">
         <v>0.0003734548303605032</v>
@@ -18527,13 +18527,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U243">
-        <v>1.0000852943936</v>
+        <v>8.529439359961088E-05</v>
       </c>
       <c r="V243">
-        <v>1.000102373355628</v>
+        <v>0.000102373355628016</v>
       </c>
       <c r="W243">
-        <v>0.9987244897959183</v>
+        <v>-0.001275510204081676</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18568,7 +18568,7 @@
         <v>1.347504189038903</v>
       </c>
       <c r="K244">
-        <v>57.40156696336238</v>
+        <v>0.07401566963362383</v>
       </c>
       <c r="L244">
         <v>0.002533637376784035</v>
@@ -18598,13 +18598,13 @@
         <v>0.2375000000000114</v>
       </c>
       <c r="U244">
-        <v>1.000136459390538</v>
+        <v>0.0001364593905381906</v>
       </c>
       <c r="V244">
-        <v>1.000272967670392</v>
+        <v>0.0002729676703916439</v>
       </c>
       <c r="W244">
-        <v>1.001532567049809</v>
+        <v>0.001532567049808531</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18639,7 +18639,7 @@
         <v>1.166449532876923</v>
       </c>
       <c r="K245">
-        <v>53.84152804741053</v>
+        <v>0.03841528047410536</v>
       </c>
       <c r="L245">
         <v>0.004493242084119408</v>
@@ -18669,13 +18669,13 @@
         <v>0.2187499999999432</v>
       </c>
       <c r="U245">
-        <v>1.000085275482446</v>
+        <v>8.527548244585681E-05</v>
       </c>
       <c r="V245">
-        <v>1.000119390765977</v>
+        <v>0.00011939076597689</v>
       </c>
       <c r="W245">
-        <v>0.9987248150981892</v>
+        <v>-0.001275184901810777</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18710,7 +18710,7 @@
         <v>1.223023412243481</v>
       </c>
       <c r="K246">
-        <v>55.01621825067522</v>
+        <v>0.0501621825067522</v>
       </c>
       <c r="L246">
         <v>0.006376329326696008</v>
@@ -18740,13 +18740,13 @@
         <v>0.3000000000000682</v>
       </c>
       <c r="U246">
-        <v>1.000068214568927</v>
+        <v>6.82145689265834E-05</v>
       </c>
       <c r="V246">
-        <v>1.000085268938231</v>
+        <v>8.526893823135318E-05</v>
       </c>
       <c r="W246">
-        <v>1.000510725229826</v>
+        <v>0.0005107252298264253</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18781,7 +18781,7 @@
         <v>1.037643823337336</v>
       </c>
       <c r="K247">
-        <v>50.92370960288048</v>
+        <v>0.009237096028804737</v>
       </c>
       <c r="L247">
         <v>0.007510557111843618</v>
@@ -18811,13 +18811,13 @@
         <v>0.3937500000000114</v>
       </c>
       <c r="U247">
-        <v>1.000017052479004</v>
+        <v>1.705247900418705E-05</v>
       </c>
       <c r="V247">
-        <v>1.000102314001671</v>
+        <v>0.0001023140016709334</v>
       </c>
       <c r="W247">
-        <v>0.998468606431853</v>
+        <v>-0.001531393568147021</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18852,7 +18852,7 @@
         <v>1.037643823337336</v>
       </c>
       <c r="K248">
-        <v>50.92370960288048</v>
+        <v>0.009237096028804737</v>
       </c>
       <c r="L248">
         <v>0.00809145083990521</v>
@@ -18882,13 +18882,13 @@
         <v>0.4812499999999318</v>
       </c>
       <c r="U248">
-        <v>1.000042630470555</v>
+        <v>4.263047055519387E-05</v>
       </c>
       <c r="V248">
-        <v>1.000119354123685</v>
+        <v>0.0001193541236852447</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18923,7 +18923,7 @@
         <v>1.009389338308613</v>
       </c>
       <c r="K249">
-        <v>50.23363661112376</v>
+        <v>0.002336366111237553</v>
       </c>
       <c r="L249">
         <v>0.008177477446940293</v>
@@ -18953,13 +18953,13 @@
         <v>0.5187500000000114</v>
       </c>
       <c r="U249">
-        <v>0.9999317941547591</v>
+        <v>-6.820584524092066E-05</v>
       </c>
       <c r="V249">
-        <v>1.000136388434261</v>
+        <v>0.0001363884342606703</v>
       </c>
       <c r="W249">
-        <v>0.9997443762781187</v>
+        <v>-0.0002556237218812596</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18994,7 +18994,7 @@
         <v>1.124039712624845</v>
       </c>
       <c r="K250">
-        <v>52.91990097660555</v>
+        <v>0.02919900976605549</v>
       </c>
       <c r="L250">
         <v>0.008301134309312739</v>
@@ -19024,13 +19024,13 @@
         <v>0.3812500000000227</v>
       </c>
       <c r="U250">
-        <v>0.9999914736878006</v>
+        <v>-8.526312199386155E-06</v>
       </c>
       <c r="V250">
-        <v>1.000255693440611</v>
+        <v>0.0002556934406110489</v>
       </c>
       <c r="W250">
-        <v>1.001022756328305</v>
+        <v>0.00102275632830473</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19065,7 +19065,7 @@
         <v>1.57660697966263</v>
       </c>
       <c r="K251">
-        <v>61.18926914763944</v>
+        <v>0.1118926914763944</v>
       </c>
       <c r="L251">
         <v>0.009806723105530447</v>
@@ -19095,13 +19095,13 @@
         <v>0.3812500000000227</v>
       </c>
       <c r="U251">
-        <v>1.000153474928165</v>
+        <v>0.0001534749281650871</v>
       </c>
       <c r="V251">
-        <v>1.000374921181342</v>
+        <v>0.0003749211813424136</v>
       </c>
       <c r="W251">
-        <v>1.003831417624521</v>
+        <v>0.003831417624521105</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19136,7 +19136,7 @@
         <v>1.289854577713003</v>
       </c>
       <c r="K252">
-        <v>56.32910448842772</v>
+        <v>0.06329104488427728</v>
       </c>
       <c r="L252">
         <v>0.01136534729507579</v>
@@ -19166,13 +19166,13 @@
         <v>0.3125</v>
       </c>
       <c r="U252">
-        <v>1.000102300918151</v>
+        <v>0.0001023009181506662</v>
       </c>
       <c r="V252">
-        <v>1.000187390334066</v>
+        <v>0.0001873903340658956</v>
       </c>
       <c r="W252">
-        <v>0.9982188295165395</v>
+        <v>-0.001781170483460492</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19207,7 +19207,7 @@
         <v>1.108025628010108</v>
       </c>
       <c r="K253">
-        <v>52.56224655371197</v>
+        <v>0.02562246553711967</v>
       </c>
       <c r="L253">
         <v>0.01225629262474055</v>
@@ -19237,13 +19237,13 @@
         <v>0.2937500000000455</v>
       </c>
       <c r="U253">
-        <v>1.000068193635829</v>
+        <v>6.819363582910576E-05</v>
       </c>
       <c r="V253">
-        <v>1.00017032293228</v>
+        <v>0.0001703229322795874</v>
       </c>
       <c r="W253">
-        <v>0.9984705582462401</v>
+        <v>-0.001529441753759908</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19278,7 +19278,7 @@
         <v>1.206950937230352</v>
       </c>
       <c r="K254">
-        <v>54.68861662801775</v>
+        <v>0.0468861662801775</v>
       </c>
       <c r="L254">
         <v>0.01301379369760102</v>
@@ -19308,13 +19308,13 @@
         <v>0.2437499999999773</v>
       </c>
       <c r="U254">
-        <v>1.000119330725105</v>
+        <v>0.0001193307251046161</v>
       </c>
       <c r="V254">
-        <v>1.00027247028371</v>
+        <v>0.0002724702837098025</v>
       </c>
       <c r="W254">
-        <v>1.001021189685984</v>
+        <v>0.001021189685984192</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19349,7 +19349,7 @@
         <v>1.11951779703368</v>
       </c>
       <c r="K255">
-        <v>52.81945726525505</v>
+        <v>0.02819457265255054</v>
       </c>
       <c r="L255">
         <v>0.01331529321889943</v>
@@ -19379,13 +19379,13 @@
         <v>0.2374999999999545</v>
       </c>
       <c r="U255">
-        <v>1.000102271274556</v>
+        <v>0.0001022712745557541</v>
       </c>
       <c r="V255">
-        <v>1.000272396063877</v>
+        <v>0.0002723960638768563</v>
       </c>
       <c r="W255">
-        <v>0.9992348890589136</v>
+        <v>-0.0007651109410864443</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19420,7 +19420,7 @@
         <v>0.9932815761619358</v>
       </c>
       <c r="K256">
-        <v>49.83147328710577</v>
+        <v>-0.001685267128942347</v>
       </c>
       <c r="L256">
         <v>0.01280734241713782</v>
@@ -19450,13 +19450,13 @@
         <v>0.1812499999999773</v>
       </c>
       <c r="U256">
-        <v>1.000068173877474</v>
+        <v>6.817387747437564E-05</v>
       </c>
       <c r="V256">
-        <v>1.000136160942234</v>
+        <v>0.0001361609422336763</v>
       </c>
       <c r="W256">
-        <v>0.9987238386932108</v>
+        <v>-0.001276161306789203</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19491,7 +19491,7 @@
         <v>1.04075924301052</v>
       </c>
       <c r="K257">
-        <v>50.99862938634524</v>
+        <v>0.0099862938634524</v>
       </c>
       <c r="L257">
         <v>0.01198113131418745</v>
@@ -19521,13 +19521,13 @@
         <v>0.1687499999999318</v>
       </c>
       <c r="U257">
-        <v>1.000093732691407</v>
+        <v>9.373269140655616E-05</v>
       </c>
       <c r="V257">
-        <v>0.9999149109969027</v>
+        <v>-8.508900309733836E-05</v>
       </c>
       <c r="W257">
-        <v>1.000511116790187</v>
+        <v>0.000511116790186561</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19562,7 +19562,7 @@
         <v>0.9681798919188966</v>
       </c>
       <c r="K258">
-        <v>49.19163618600736</v>
+        <v>-0.008083638139926352</v>
       </c>
       <c r="L258">
         <v>0.01069200887072515</v>
@@ -19592,13 +19592,13 @@
         <v>0.1812499999999204</v>
       </c>
       <c r="U258">
-        <v>1.000025561065385</v>
+        <v>2.556106538498248E-05</v>
       </c>
       <c r="V258">
-        <v>0.999948942253689</v>
+        <v>-5.105774631097848E-05</v>
       </c>
       <c r="W258">
-        <v>0.9992337164750957</v>
+        <v>-0.0007662835249042654</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19633,7 +19633,7 @@
         <v>1.335216348484749</v>
       </c>
       <c r="K259">
-        <v>57.17741524681987</v>
+        <v>0.07177415246819874</v>
       </c>
       <c r="L259">
         <v>0.01056180726785182</v>
@@ -19663,13 +19663,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U259">
-        <v>1.000187443021582</v>
+        <v>0.0001874430215815792</v>
       </c>
       <c r="V259">
-        <v>1.000102120706675</v>
+        <v>0.0001021207066751462</v>
       </c>
       <c r="W259">
-        <v>1.003834355828221</v>
+        <v>0.003834355828220781</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19704,7 +19704,7 @@
         <v>1.210501109750228</v>
       </c>
       <c r="K260">
-        <v>54.76138891814475</v>
+        <v>0.04761388918144749</v>
       </c>
       <c r="L260">
         <v>0.01073096558102187</v>
@@ -19734,13 +19734,13 @@
         <v>0.05625000000003411</v>
       </c>
       <c r="U260">
-        <v>1.000119259568451</v>
+        <v>0.0001192595684509357</v>
       </c>
       <c r="V260">
-        <v>1.000119128658951</v>
+        <v>0.0001191286589514728</v>
       </c>
       <c r="W260">
-        <v>0.9989814107461167</v>
+        <v>-0.001018589253883317</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19775,7 +19775,7 @@
         <v>1.235081245923827</v>
       </c>
       <c r="K261">
-        <v>55.25889710614658</v>
+        <v>0.05258897106146587</v>
       </c>
       <c r="L261">
         <v>0.01112451008006212</v>
@@ -19805,13 +19805,13 @@
         <v>0.09374999999994316</v>
       </c>
       <c r="U261">
-        <v>1.00009369277288</v>
+        <v>9.369277288007183E-05</v>
       </c>
       <c r="V261">
-        <v>1.00010209811629</v>
+        <v>0.000102098116289806</v>
       </c>
       <c r="W261">
-        <v>1.00025490695896</v>
+        <v>0.0002549069589599107</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19846,7 +19846,7 @@
         <v>1.235081245923827</v>
       </c>
       <c r="K262">
-        <v>55.25889710614658</v>
+        <v>0.05258897106146587</v>
       </c>
       <c r="L262">
         <v>0.01158822944584848</v>
@@ -19876,13 +19876,13 @@
         <v>0.09374999999994316</v>
       </c>
       <c r="U262">
-        <v>1.000153301083328</v>
+        <v>0.0001533010833276727</v>
       </c>
       <c r="V262">
-        <v>1.000204175386657</v>
+        <v>0.0002041753866570684</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19917,7 +19917,7 @@
         <v>1.316788069769614</v>
       </c>
       <c r="K263">
-        <v>56.83679430810251</v>
+        <v>0.06836794308102512</v>
       </c>
       <c r="L263">
         <v>0.0123016316855648</v>
@@ -19947,13 +19947,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U263">
-        <v>1.000187339271421</v>
+        <v>0.0001873392714206723</v>
       </c>
       <c r="V263">
-        <v>1.000255167134473</v>
+        <v>0.0002551671344730444</v>
       </c>
       <c r="W263">
-        <v>1.000764525993884</v>
+        <v>0.000764525993883769</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19988,7 +19988,7 @@
         <v>1.280089116796641</v>
       </c>
       <c r="K264">
-        <v>56.14206512222088</v>
+        <v>0.06142065122220874</v>
       </c>
       <c r="L264">
         <v>0.01298277645006572</v>
@@ -20018,13 +20018,13 @@
         <v>0.1875000000000568</v>
       </c>
       <c r="U264">
-        <v>1.000195818008446</v>
+        <v>0.0001958180084455918</v>
       </c>
       <c r="V264">
-        <v>1.000255102040816</v>
+        <v>0.0002551020408163573</v>
       </c>
       <c r="W264">
-        <v>0.9997453526865292</v>
+        <v>-0.0002546473134708016</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20059,7 +20059,7 @@
         <v>1.145649865468082</v>
       </c>
       <c r="K265">
-        <v>53.39407346492452</v>
+        <v>0.0339407346492453</v>
       </c>
       <c r="L265">
         <v>0.01318151200516148</v>
@@ -20089,13 +20089,13 @@
         <v>0.2062499999999545</v>
       </c>
       <c r="U265">
-        <v>1.00018726751164</v>
+        <v>0.0001872675116403322</v>
       </c>
       <c r="V265">
-        <v>1.000119017257502</v>
+        <v>0.0001190172575022963</v>
       </c>
       <c r="W265">
-        <v>0.998981151299032</v>
+        <v>-0.001018848700968022</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20130,7 +20130,7 @@
         <v>1.145649865468082</v>
       </c>
       <c r="K266">
-        <v>53.39407346492452</v>
+        <v>0.0339407346492453</v>
       </c>
       <c r="L266">
         <v>0.01302734787249403</v>
@@ -20160,13 +20160,13 @@
         <v>0.2874999999999659</v>
       </c>
       <c r="U266">
-        <v>1.000119147922145</v>
+        <v>0.0001191479221451797</v>
       </c>
       <c r="V266">
-        <v>0.999863996463908</v>
+        <v>-0.0001360035360919998</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20201,7 +20201,7 @@
         <v>1.203834548632788</v>
       </c>
       <c r="K267">
-        <v>54.624542907707</v>
+        <v>0.04624542907707008</v>
       </c>
       <c r="L267">
         <v>0.01280775644389316</v>
@@ -20231,13 +20231,13 @@
         <v>0.2874999999999659</v>
       </c>
       <c r="U267">
-        <v>1.000102114623665</v>
+        <v>0.0001021146236652726</v>
       </c>
       <c r="V267">
-        <v>1.000017002754446</v>
+        <v>1.70027544461604E-05</v>
       </c>
       <c r="W267">
-        <v>1.00050994390617</v>
+        <v>0.0005099439061702071</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20272,7 +20272,7 @@
         <v>1.203834548632788</v>
       </c>
       <c r="K268">
-        <v>54.624542907707</v>
+        <v>0.04624542907706997</v>
       </c>
       <c r="L268">
         <v>0.01251583254134845</v>
@@ -20302,13 +20302,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U268">
-        <v>1.000144647612889</v>
+        <v>0.000144647612888793</v>
       </c>
       <c r="V268">
-        <v>1.000119017257502</v>
+        <v>0.0001190172575022963</v>
       </c>
       <c r="W268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20343,7 +20343,7 @@
         <v>1.300540393227878</v>
       </c>
       <c r="K269">
-        <v>56.5319521037879</v>
+        <v>0.06531952103787897</v>
       </c>
       <c r="L269">
         <v>0.01243193618753681</v>
@@ -20373,13 +20373,13 @@
         <v>0.2687499999999545</v>
       </c>
       <c r="U269">
-        <v>1.000187163955625</v>
+        <v>0.0001871639556250138</v>
       </c>
       <c r="V269">
-        <v>1.000102002652069</v>
+        <v>0.0001020026520690553</v>
       </c>
       <c r="W269">
-        <v>1.000764525993884</v>
+        <v>0.000764525993883769</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20414,7 +20414,7 @@
         <v>1.639859146193091</v>
       </c>
       <c r="K270">
-        <v>62.11919103933678</v>
+        <v>0.1211919103933677</v>
       </c>
       <c r="L270">
         <v>0.01336340755018268</v>
@@ -20444,13 +20444,13 @@
         <v>0.3312500000000114</v>
       </c>
       <c r="U270">
-        <v>1.000297705118827</v>
+        <v>0.0002977051188266522</v>
       </c>
       <c r="V270">
-        <v>1.000322975453865</v>
+        <v>0.0003229754538653928</v>
       </c>
       <c r="W270">
-        <v>1.002546473134708</v>
+        <v>0.00254647313470846</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20485,7 +20485,7 @@
         <v>1.711294673133132</v>
       </c>
       <c r="K271">
-        <v>63.11725132980788</v>
+        <v>0.1311725132980788</v>
       </c>
       <c r="L271">
         <v>0.01498730500576485</v>
@@ -20515,13 +20515,13 @@
         <v>0.3500000000000227</v>
       </c>
       <c r="U271">
-        <v>1.000289113187813</v>
+        <v>0.0002891131878131059</v>
       </c>
       <c r="V271">
-        <v>1.000441823712339</v>
+        <v>0.0004418237123386959</v>
       </c>
       <c r="W271">
-        <v>1.000508001016002</v>
+        <v>0.0005080010160019022</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20556,7 +20556,7 @@
         <v>1.649285424007616</v>
       </c>
       <c r="K272">
-        <v>62.25397267738393</v>
+        <v>0.1225397267738393</v>
       </c>
       <c r="L272">
         <v>0.01677908827298382</v>
@@ -20586,13 +20586,13 @@
         <v>0.34375</v>
       </c>
       <c r="U272">
-        <v>1.000153015684107</v>
+        <v>0.000153015684107416</v>
       </c>
       <c r="V272">
-        <v>1.000390671445315</v>
+        <v>0.0003906714453145721</v>
       </c>
       <c r="W272">
-        <v>0.9997461284589998</v>
+        <v>-0.0002538715410002057</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20627,7 +20627,7 @@
         <v>1.725570233212153</v>
       </c>
       <c r="K273">
-        <v>63.31042994913123</v>
+        <v>0.1331042994913123</v>
       </c>
       <c r="L273">
         <v>0.0186825280233316</v>
@@ -20657,13 +20657,13 @@
         <v>0.4125000000000227</v>
       </c>
       <c r="U273">
-        <v>1.000212489269292</v>
+        <v>0.000212489269292071</v>
       </c>
       <c r="V273">
-        <v>1.000475414289595</v>
+        <v>0.0004754142895952995</v>
       </c>
       <c r="W273">
-        <v>1.000507872016252</v>
+        <v>0.000507872016251909</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20698,7 +20698,7 @@
         <v>1.486792030345369</v>
       </c>
       <c r="K274">
-        <v>59.78755007264846</v>
+        <v>0.09787550072648465</v>
       </c>
       <c r="L274">
         <v>0.02009210302431252</v>
@@ -20728,13 +20728,13 @@
         <v>0.4375</v>
       </c>
       <c r="U274">
-        <v>1.000127466476317</v>
+        <v>0.0001274664763168953</v>
       </c>
       <c r="V274">
-        <v>1.00015273912158</v>
+        <v>0.0001527391215803142</v>
       </c>
       <c r="W274">
-        <v>0.9989847715736041</v>
+        <v>-0.001015228426395898</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20769,7 +20769,7 @@
         <v>1.486792030345369</v>
       </c>
       <c r="K275">
-        <v>59.78755007264847</v>
+        <v>0.09787550072648477</v>
       </c>
       <c r="L275">
         <v>0.02103916185010248</v>
@@ -20799,13 +20799,13 @@
         <v>0.53125</v>
       </c>
       <c r="U275">
-        <v>1.000169933640913</v>
+        <v>0.0001699336409131114</v>
       </c>
       <c r="V275">
-        <v>1.000220589482972</v>
+        <v>0.0002205894829721</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20840,7 +20840,7 @@
         <v>1.563454857771834</v>
       </c>
       <c r="K276">
-        <v>60.99014589750941</v>
+        <v>0.1099014589750942</v>
       </c>
       <c r="L276">
         <v>0.0217544867576646</v>
@@ -20870,13 +20870,13 @@
         <v>0.6125000000000114</v>
       </c>
       <c r="U276">
-        <v>1.000169904768377</v>
+        <v>0.0001699047683771937</v>
       </c>
       <c r="V276">
-        <v>1.000237505513521</v>
+        <v>0.0002375055135208637</v>
       </c>
       <c r="W276">
-        <v>1.000508130081301</v>
+        <v>0.000508130081300795</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20911,7 +20911,7 @@
         <v>1.39463863512892</v>
       </c>
       <c r="K277">
-        <v>58.24004568663601</v>
+        <v>0.08240045686636011</v>
       </c>
       <c r="L277">
         <v>0.02192582396452444</v>
@@ -20941,13 +20941,13 @@
         <v>0.6437500000000114</v>
       </c>
       <c r="U277">
-        <v>1.000195357291499</v>
+        <v>0.0001953572914987767</v>
       </c>
       <c r="V277">
-        <v>1.000186567164179</v>
+        <v>0.0001865671641791966</v>
       </c>
       <c r="W277">
-        <v>0.9992381919756221</v>
+        <v>-0.0007618080243778635</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20982,7 +20982,7 @@
         <v>1.211101295522477</v>
       </c>
       <c r="K278">
-        <v>54.77366857750844</v>
+        <v>0.04773668577508439</v>
       </c>
       <c r="L278">
         <v>0.02130558824992582</v>
@@ -21012,13 +21012,13 @@
         <v>0.5249999999999204</v>
       </c>
       <c r="U278">
-        <v>1.000161350589354</v>
+        <v>0.0001613505893540701</v>
       </c>
       <c r="V278">
-        <v>1.000067829950315</v>
+        <v>6.7829950314513E-05</v>
       </c>
       <c r="W278">
-        <v>0.9989834815756036</v>
+        <v>-0.001016518424396429</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21053,7 +21053,7 @@
         <v>1.170562237495435</v>
       </c>
       <c r="K279">
-        <v>53.92898748879558</v>
+        <v>0.03928987488795588</v>
       </c>
       <c r="L279">
         <v>0.02007522863400724</v>
@@ -21083,13 +21083,13 @@
         <v>0.3937500000000114</v>
       </c>
       <c r="U279">
-        <v>1.000161324559542</v>
+        <v>0.0001613245595415425</v>
       </c>
       <c r="V279">
-        <v>1.000067825349725</v>
+        <v>6.782534972460397E-05</v>
       </c>
       <c r="W279">
-        <v>0.9997456118036122</v>
+        <v>-0.0002543881963877892</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21124,7 +21124,7 @@
         <v>1.311500713303516</v>
       </c>
       <c r="K280">
-        <v>56.73806223616366</v>
+        <v>0.06738062236163667</v>
       </c>
       <c r="L280">
         <v>0.01885189680806559</v>
@@ -21154,13 +21154,13 @@
         <v>0.2937499999999886</v>
       </c>
       <c r="U280">
-        <v>1.000161298538126</v>
+        <v>0.0001612985381258536</v>
       </c>
       <c r="V280">
-        <v>1.000203462249275</v>
+        <v>0.0002034622492750326</v>
       </c>
       <c r="W280">
-        <v>1.001017811704835</v>
+        <v>0.001017811704834504</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Tomra Systems 15.12.2020.xlsx
+++ b/data_clean/Tomra Systems 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1277,13 +1280,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W280"/>
+  <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,10 +1356,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>387.3</v>
@@ -1413,7 +1419,7 @@
         <v>387.3</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>387.3</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1424,10 +1430,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>388.2</v>
@@ -1484,7 +1493,7 @@
         <v>387.75</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>387.75</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1495,10 +1504,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>389.8</v>
@@ -1555,21 +1567,24 @@
         <v>388.4333333333333</v>
       </c>
       <c r="T4">
+        <v>388.4333333333333</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.001762303889963457</v>
       </c>
       <c r="V4">
         <v>0.001762303889963457</v>
       </c>
       <c r="W4">
+        <v>0.001762303889963457</v>
+      </c>
+      <c r="X4">
         <v>0.00412158681092234</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>390.8</v>
@@ -1626,21 +1641,24 @@
         <v>389.025</v>
       </c>
       <c r="T5">
+        <v>389.6000000000001</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.001523212906547666</v>
       </c>
       <c r="V5">
         <v>0.001523212906547666</v>
       </c>
       <c r="W5">
+        <v>0.001523212906547666</v>
+      </c>
+      <c r="X5">
         <v>0.002565418163160693</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>391.1</v>
@@ -1697,21 +1715,24 @@
         <v>389.44</v>
       </c>
       <c r="T6">
+        <v>390.5666666666667</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.001066769487822139</v>
       </c>
       <c r="V6">
         <v>0.001066769487822139</v>
       </c>
       <c r="W6">
+        <v>0.001066769487822139</v>
+      </c>
+      <c r="X6">
         <v>0.0007676560900715668</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>389.5</v>
@@ -1768,21 +1789,24 @@
         <v>389.45</v>
       </c>
       <c r="T7">
+        <v>390.4666666666667</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>2.567789646668039E-05</v>
       </c>
       <c r="V7">
         <v>2.567789646668039E-05</v>
       </c>
       <c r="W7">
+        <v>2.567789646668039E-05</v>
+      </c>
+      <c r="X7">
         <v>-0.004091025313219143</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>389.2</v>
@@ -1839,21 +1863,24 @@
         <v>389.4142857142857</v>
       </c>
       <c r="T8">
+        <v>389.9333333333333</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-9.170441831884979E-05</v>
       </c>
       <c r="V8">
         <v>-9.170441831884979E-05</v>
       </c>
       <c r="W8">
+        <v>-9.170441831884979E-05</v>
+      </c>
+      <c r="X8">
         <v>-0.0007702182284980985</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>388</v>
@@ -1910,21 +1937,24 @@
         <v>389.2375</v>
       </c>
       <c r="T9">
+        <v>388.9</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-0.0004539785025129417</v>
       </c>
       <c r="V9">
         <v>-0.0004539785025129417</v>
       </c>
       <c r="W9">
+        <v>-0.0004539785025129417</v>
+      </c>
+      <c r="X9">
         <v>-0.003083247687564183</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>389.9</v>
@@ -1981,21 +2011,24 @@
         <v>389.3111111111111</v>
       </c>
       <c r="T10">
+        <v>389.0333333333333</v>
+      </c>
+      <c r="U10">
         <v>0.2513888888888687</v>
-      </c>
-      <c r="U10">
-        <v>0.0001891161851339529</v>
       </c>
       <c r="V10">
         <v>0.0001891161851339529</v>
       </c>
       <c r="W10">
+        <v>0.0001891161851339529</v>
+      </c>
+      <c r="X10">
         <v>0.004896907216494828</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>389.4</v>
@@ -2052,21 +2085,24 @@
         <v>389.32</v>
       </c>
       <c r="T11">
+        <v>389.1</v>
+      </c>
+      <c r="U11">
         <v>0.3924999999999841</v>
-      </c>
-      <c r="U11">
-        <v>2.283235344480161E-05</v>
       </c>
       <c r="V11">
         <v>2.283235344480161E-05</v>
       </c>
       <c r="W11">
+        <v>2.283235344480161E-05</v>
+      </c>
+      <c r="X11">
         <v>-0.001282380097460845</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>389.3</v>
@@ -2123,21 +2159,24 @@
         <v>389.3181818181818</v>
       </c>
       <c r="T12">
+        <v>389.5333333333333</v>
+      </c>
+      <c r="U12">
         <v>0.3318181818181642</v>
-      </c>
-      <c r="U12">
-        <v>-4.670147483287757E-06</v>
       </c>
       <c r="V12">
         <v>-4.670147483287757E-06</v>
       </c>
       <c r="W12">
+        <v>-4.670147483287757E-06</v>
+      </c>
+      <c r="X12">
         <v>-0.0002568053415510363</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>389.9</v>
@@ -2194,21 +2233,24 @@
         <v>389.3666666666666</v>
       </c>
       <c r="T13">
+        <v>389.5333333333333</v>
+      </c>
+      <c r="U13">
         <v>0.1708333333334053</v>
-      </c>
-      <c r="U13">
-        <v>0.0001245378478302861</v>
       </c>
       <c r="V13">
         <v>0.0001245378478302861</v>
       </c>
       <c r="W13">
+        <v>0.0001245378478302861</v>
+      </c>
+      <c r="X13">
         <v>0.001541227844849669</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>388.7</v>
@@ -2265,21 +2307,24 @@
         <v>389.3153846153846</v>
       </c>
       <c r="T14">
+        <v>389.3</v>
+      </c>
+      <c r="U14">
         <v>-0.07788461538467573</v>
-      </c>
-      <c r="U14">
-        <v>-0.0001317063212447067</v>
       </c>
       <c r="V14">
         <v>-0.0001317063212447067</v>
       </c>
       <c r="W14">
+        <v>-0.0001317063212447067</v>
+      </c>
+      <c r="X14">
         <v>-0.003077712233906071</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>388.7</v>
@@ -2336,21 +2381,24 @@
         <v>389.2714285714286</v>
       </c>
       <c r="T15">
+        <v>389.1</v>
+      </c>
+      <c r="U15">
         <v>-0.1339285714286689</v>
-      </c>
-      <c r="U15">
-        <v>-0.0001129060029299023</v>
       </c>
       <c r="V15">
         <v>-0.0001129060029299023</v>
       </c>
       <c r="W15">
+        <v>-0.0001129060029299023</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>388.3</v>
@@ -2407,21 +2455,24 @@
         <v>389.2066666666667</v>
       </c>
       <c r="T16">
+        <v>388.5666666666667</v>
+      </c>
+      <c r="U16">
         <v>-0.1816666666667288</v>
-      </c>
-      <c r="U16">
-        <v>-0.0001663669614786478</v>
       </c>
       <c r="V16">
         <v>-0.0001663669614786478</v>
       </c>
       <c r="W16">
+        <v>-0.0001663669614786478</v>
+      </c>
+      <c r="X16">
         <v>-0.001029071263184966</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>388.7</v>
@@ -2478,21 +2529,24 @@
         <v>389.3</v>
       </c>
       <c r="T17">
+        <v>388.5666666666666</v>
+      </c>
+      <c r="U17">
         <v>-0.06250000000005684</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-8.13620869803966E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0002398040458366779</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.00103013134174601</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>389.2</v>
@@ -2549,21 +2603,24 @@
         <v>389.3666666666667</v>
       </c>
       <c r="T18">
+        <v>388.7333333333333</v>
+      </c>
+      <c r="U18">
         <v>-0.2687500000000114</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3.778732537540463E-06</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0001712475383166545</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.001286339078981236</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>388.5</v>
@@ -2620,21 +2677,24 @@
         <v>389.28</v>
       </c>
       <c r="T19">
+        <v>388.8</v>
+      </c>
+      <c r="U19">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-9.656724439066622E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-0.000222583682903954</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.001798561151079126</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>388.6</v>
@@ -2691,21 +2751,24 @@
         <v>389.1333333333333</v>
       </c>
       <c r="T20">
+        <v>388.7666666666667</v>
+      </c>
+      <c r="U20">
         <v>-0.4125000000000227</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-7.288547587824823E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-0.0003767639402657563</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0002574002574002865</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>388.8</v>
@@ -2762,21 +2825,24 @@
         <v>388.98</v>
       </c>
       <c r="T21">
+        <v>388.6333333333334</v>
+      </c>
+      <c r="U21">
         <v>-0.4249999999999545</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-3.990207085002861E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-0.0003940380332363436</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.0005146680391148184</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>389.2</v>
@@ -2833,21 +2899,24 @@
         <v>388.96</v>
       </c>
       <c r="T22">
+        <v>388.8666666666666</v>
+      </c>
+      <c r="U22">
         <v>-0.2437500000000341</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1.285033218123566E-05</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-5.141652527107521E-05</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.001028806584361996</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>388.2</v>
@@ -2904,21 +2973,24 @@
         <v>388.8933333333334</v>
       </c>
       <c r="T23">
+        <v>388.7333333333333</v>
+      </c>
+      <c r="U23">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.0001051377304270851</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-0.0001713972302207489</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-0.002569373072970227</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>387.7</v>
@@ -2975,21 +3047,24 @@
         <v>388.8733333333333</v>
       </c>
       <c r="T24">
+        <v>388.3666666666666</v>
+      </c>
+      <c r="U24">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-0.0001518815791009542</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-5.142798368029666E-05</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.001287995878413217</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>388.8</v>
@@ -3046,21 +3121,24 @@
         <v>388.8</v>
       </c>
       <c r="T25">
+        <v>388.2333333333333</v>
+      </c>
+      <c r="U25">
         <v>-0.2437500000000341</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-2.142245072844773E-05</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-0.0001885789717303021</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.002837245292752089</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>388.2</v>
@@ -3117,21 +3195,24 @@
         <v>388.72</v>
       </c>
       <c r="T26">
+        <v>388.2333333333333</v>
+      </c>
+      <c r="U26">
         <v>-0.2624999999999886</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-8.140705670633963E-05</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-0.0002057613168723327</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-0.001543209876543217</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>389.4</v>
@@ -3188,21 +3269,24 @@
         <v>388.7266666666666</v>
       </c>
       <c r="T27">
+        <v>388.8</v>
+      </c>
+      <c r="U27">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>4.350852767154301E-05</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1.715030527527084E-05</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.003091190108191588</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>389.1</v>
@@ -3259,21 +3343,24 @@
         <v>388.6733333333333</v>
       </c>
       <c r="T28">
+        <v>388.9</v>
+      </c>
+      <c r="U28">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1.171895885843099E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-0.0001372000891799452</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.0007704160246532199</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>389.4</v>
@@ -3330,21 +3417,24 @@
         <v>388.72</v>
       </c>
       <c r="T29">
+        <v>389.3</v>
+      </c>
+      <c r="U29">
         <v>0.03125</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>3.842622504857118E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001200665511740251</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0007710100231301809</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>389.2</v>
@@ -3401,21 +3491,24 @@
         <v>388.7533333333333</v>
       </c>
       <c r="T30">
+        <v>389.2333333333333</v>
+      </c>
+      <c r="U30">
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.804567836072302E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>8.575152637702033E-05</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0005136106831021836</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>388.8</v>
@@ -3472,21 +3565,24 @@
         <v>388.7866666666666</v>
       </c>
       <c r="T31">
+        <v>389.1333333333333</v>
+      </c>
+      <c r="U31">
         <v>0.06875000000007958</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-1.743328812497946E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>8.574417368345522E-05</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.001027749229188024</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>389.5</v>
@@ -3543,21 +3639,24 @@
         <v>388.84</v>
       </c>
       <c r="T32">
+        <v>389.1666666666667</v>
+      </c>
+      <c r="U32">
         <v>0.2187500000000568</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0001885191818267185</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0001371789156006109</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.001800411522633771</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>389.4</v>
@@ -3614,21 +3713,24 @@
         <v>388.8533333333334</v>
       </c>
       <c r="T33">
+        <v>389.2333333333333</v>
+      </c>
+      <c r="U33">
         <v>0.25</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0001028092631145672</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>3.429002503185785E-05</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.0002567394094994402</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>389.9</v>
@@ -3685,21 +3787,24 @@
         <v>388.9466666666667</v>
       </c>
       <c r="T34">
+        <v>389.6</v>
+      </c>
+      <c r="U34">
         <v>0.4187499999999886</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>8.566557871736435E-06</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0002400219448634999</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.001284026707755626</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>389.8</v>
@@ -3756,21 +3861,24 @@
         <v>389.0266666666666</v>
       </c>
       <c r="T35">
+        <v>389.7</v>
+      </c>
+      <c r="U35">
         <v>0.3874999999999886</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-8.566484486116632E-05</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.0002056837269890366</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0002564760194920801</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>389.7</v>
@@ -3827,21 +3935,24 @@
         <v>389.0866666666667</v>
       </c>
       <c r="T36">
+        <v>389.8</v>
+      </c>
+      <c r="U36">
         <v>0.3937500000000114</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-0.0001199410575373205</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0001542310724202967</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.0002565418163160693</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>389.9</v>
@@ -3898,21 +4009,24 @@
         <v>389.1333333333333</v>
       </c>
       <c r="T37">
+        <v>389.8</v>
+      </c>
+      <c r="U37">
         <v>0.3874999999999886</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>3.427298432012726E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.000119939002449998</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.0005132152938156498</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>389.2</v>
@@ -3969,21 +4083,24 @@
         <v>389.2</v>
       </c>
       <c r="T38">
+        <v>389.6</v>
+      </c>
+      <c r="U38">
         <v>0.3874999999999886</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.0001713208840159464</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.001795332136445227</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>389.8</v>
@@ -4040,21 +4157,24 @@
         <v>389.34</v>
       </c>
       <c r="T39">
+        <v>389.6333333333333</v>
+      </c>
+      <c r="U39">
         <v>0.4125000000000227</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.0001542231437530184</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0.0003597122302156919</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.001541623843782203</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>389.3</v>
@@ -4111,21 +4231,24 @@
         <v>389.3733333333333</v>
       </c>
       <c r="T40">
+        <v>389.4333333333334</v>
+      </c>
+      <c r="U40">
         <v>0.2875000000000227</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-5.139978754753471E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>8.561497234627069E-05</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.001282709081580347</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>388.9</v>
@@ -4182,21 +4305,24 @@
         <v>389.42</v>
       </c>
       <c r="T41">
+        <v>389.3333333333333</v>
+      </c>
+      <c r="U41">
         <v>0.21875</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-4.28353580181895E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0.0001198507002706517</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.001027485229899927</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>389</v>
@@ -4253,21 +4379,24 @@
         <v>389.3933333333334</v>
       </c>
       <c r="T42">
+        <v>389.0666666666667</v>
+      </c>
+      <c r="U42">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-2.570231577847526E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-6.847790731512315E-05</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.0002571355104139528</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>389.2</v>
@@ -4324,21 +4453,24 @@
         <v>389.4</v>
       </c>
       <c r="T43">
+        <v>389.0333333333333</v>
+      </c>
+      <c r="U43">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>-5.99736116108085E-05</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>1.712064921477463E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0005141388174807471</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>390.3</v>
@@ -4395,21 +4527,24 @@
         <v>389.46</v>
       </c>
       <c r="T44">
+        <v>389.5</v>
+      </c>
+      <c r="U44">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.0001370907626530027</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0001540832049307106</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.002826310380267261</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>390</v>
@@ -4466,21 +4601,24 @@
         <v>389.5133333333334</v>
       </c>
       <c r="T45">
+        <v>389.8333333333333</v>
+      </c>
+      <c r="U45">
         <v>-0.03125000000005684</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0001113709767235349</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.0001369417484038404</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.000768639508070712</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>390</v>
@@ -4537,21 +4675,24 @@
         <v>389.5933333333334</v>
       </c>
       <c r="T46">
+        <v>390.1</v>
+      </c>
+      <c r="U46">
         <v>0.01874999999995453</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.0001456227514131658</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.000205384496893446</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>390.1</v>
@@ -4608,21 +4749,24 @@
         <v>389.6333333333333</v>
       </c>
       <c r="T47">
+        <v>390.0333333333333</v>
+      </c>
+      <c r="U47">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.000119907157601018</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.000102671161381851</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0002564102564102111</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>389.9</v>
@@ -4679,21 +4823,24 @@
         <v>389.6666666666667</v>
       </c>
       <c r="T48">
+        <v>390</v>
+      </c>
+      <c r="U48">
         <v>0.02499999999992042</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>5.99463907990927E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>8.555051758074583E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0005126890540888551</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>390</v>
@@ -4750,21 +4897,24 @@
         <v>389.6733333333333</v>
       </c>
       <c r="T49">
+        <v>390</v>
+      </c>
+      <c r="U49">
         <v>0.125</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0001284488516672955</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>1.710863986303934E-05</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.0002564760194923021</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>389.6</v>
@@ -4821,21 +4971,24 @@
         <v>389.66</v>
       </c>
       <c r="T50">
+        <v>389.8333333333333</v>
+      </c>
+      <c r="U50">
         <v>0.2187500000000568</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>8.56215697857543E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-3.421669432523977E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.001025641025640955</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>390</v>
@@ -4892,21 +5045,24 @@
         <v>389.68</v>
       </c>
       <c r="T51">
+        <v>389.8666666666666</v>
+      </c>
+      <c r="U51">
         <v>0.3062499999999773</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>0.0001027370872324074</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>5.132679772112958E-05</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.001026694045174414</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>389.9</v>
@@ -4963,21 +5119,24 @@
         <v>389.6800000000001</v>
       </c>
       <c r="T52">
+        <v>389.8333333333333</v>
+      </c>
+      <c r="U52">
         <v>0.2437499999999773</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>5.992381115427214E-05</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>-0.0002564102564103221</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>389.8</v>
@@ -5034,21 +5193,24 @@
         <v>389.72</v>
       </c>
       <c r="T53">
+        <v>389.9</v>
+      </c>
+      <c r="U53">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.0001369605040149047</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0001026483268320444</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>-0.0002564760194920801</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>389.8</v>
@@ -5105,21 +5267,24 @@
         <v>389.72</v>
       </c>
       <c r="T54">
+        <v>389.8333333333333</v>
+      </c>
+      <c r="U54">
         <v>0.1625000000000796</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.0001797360447797214</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>390.1</v>
@@ -5176,21 +5341,24 @@
         <v>389.7733333333334</v>
       </c>
       <c r="T55">
+        <v>389.9</v>
+      </c>
+      <c r="U55">
         <v>0.1437499999999545</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.0001112451758102928</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0001368503883130145</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0007696254489482079</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>390.2</v>
@@ -5247,21 +5415,24 @@
         <v>389.86</v>
       </c>
       <c r="T56">
+        <v>390.0333333333334</v>
+      </c>
+      <c r="U56">
         <v>0.125</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.0001711273872271324</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.0002223514521257908</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.000256344527044261</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>390.2</v>
@@ -5318,21 +5489,24 @@
         <v>389.9399999999999</v>
       </c>
       <c r="T57">
+        <v>390.1666666666667</v>
+      </c>
+      <c r="U57">
         <v>0.06875000000007958</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>6.843924306187965E-05</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.0002052018673368572</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>389.9</v>
@@ -5389,21 +5563,24 @@
         <v>389.9866666666667</v>
       </c>
       <c r="T58">
+        <v>390.1</v>
+      </c>
+      <c r="U58">
         <v>0.04999999999995453</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>6.843455945237942E-05</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.0001196765314324111</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0007688364941056403</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>389.8</v>
@@ -5460,21 +5637,24 @@
         <v>389.9533333333333</v>
       </c>
       <c r="T59">
+        <v>389.9666666666666</v>
+      </c>
+      <c r="U59">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>3.421493824218302E-05</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-8.547300762440369E-05</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0002564760194920801</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>389.4</v>
@@ -5531,21 +5711,24 @@
         <v>389.9133333333333</v>
       </c>
       <c r="T60">
+        <v>389.7</v>
+      </c>
+      <c r="U60">
         <v>-0.01874999999995453</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>1.710688380995862E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0001025763766603349</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.001026167265264277</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>389</v>
@@ -5602,21 +5785,24 @@
         <v>389.8466666666666</v>
       </c>
       <c r="T61">
+        <v>389.4</v>
+      </c>
+      <c r="U61">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>1.710659116960223E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0001709781660881315</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.001027221366204367</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>389</v>
@@ -5673,21 +5859,24 @@
         <v>389.7733333333334</v>
       </c>
       <c r="T62">
+        <v>389.1333333333334</v>
+      </c>
+      <c r="U62">
         <v>-0.09374999999994316</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-4.276574634787256E-05</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.0001881081450825217</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>388.6</v>
@@ -5744,21 +5933,24 @@
         <v>389.6866666666666</v>
       </c>
       <c r="T63">
+        <v>388.8666666666666</v>
+      </c>
+      <c r="U63">
         <v>-0.1875</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-6.842812053609038E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0002223514521262349</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.001028277634961383</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>390.6</v>
@@ -5815,21 +6007,24 @@
         <v>389.7266666666666</v>
       </c>
       <c r="T64">
+        <v>389.4</v>
+      </c>
+      <c r="U64">
         <v>-0.1812499999999773</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>5.987870285606434E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0001026465707492097</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.00514668039114774</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>390.3</v>
@@ -5886,21 +6081,24 @@
         <v>389.7733333333334</v>
       </c>
       <c r="T65">
+        <v>389.8333333333333</v>
+      </c>
+      <c r="U65">
         <v>-0.1874999999999432</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>4.276794115121163E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.000119742041430948</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.0007680491551459445</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>390.4</v>
@@ -5957,21 +6155,24 @@
         <v>389.8</v>
       </c>
       <c r="T66">
+        <v>390.4333333333334</v>
+      </c>
+      <c r="U66">
         <v>-0.1749999999999545</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>5.987255698580718E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>6.841583142325192E-05</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.000256213169356867</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>390.1</v>
@@ -6028,21 +6229,24 @@
         <v>389.8133333333333</v>
       </c>
       <c r="T67">
+        <v>390.2666666666667</v>
+      </c>
+      <c r="U67">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>1.710542070787469E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>3.420557550870562E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>-0.0007684426229507269</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>390.4</v>
@@ -6099,21 +6303,24 @@
         <v>389.8533333333334</v>
       </c>
       <c r="T68">
+        <v>390.3</v>
+      </c>
+      <c r="U68">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0001026307687044259</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>0.0001026132165824478</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0007690335811330051</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>390.9</v>
@@ -6170,21 +6377,24 @@
         <v>389.9266666666667</v>
       </c>
       <c r="T69">
+        <v>390.4666666666667</v>
+      </c>
+      <c r="U69">
         <v>0.1187499999999204</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>9.406855031812711E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>0.0001881049283491976</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.001280737704917989</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>391</v>
@@ -6241,21 +6451,24 @@
         <v>389.9866666666667</v>
       </c>
       <c r="T70">
+        <v>390.7666666666667</v>
+      </c>
+      <c r="U70">
         <v>0.2937499999999318</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.0001453649943992108</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.000153875087623323</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.0002558199027884456</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>392</v>
@@ -6312,21 +6525,24 @@
         <v>390.1066666666667</v>
       </c>
       <c r="T71">
+        <v>391.3</v>
+      </c>
+      <c r="U71">
         <v>0.5999999999999659</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>0.0002650388153619954</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>0.0003077028274471871</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.002557544757033181</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>391.1</v>
@@ -6383,21 +6599,24 @@
         <v>390.1666666666667</v>
       </c>
       <c r="T72">
+        <v>391.3666666666666</v>
+      </c>
+      <c r="U72">
         <v>0.6062499999999886</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0.0001794948502071847</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.0001538040877708813</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.002295918367346883</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>390.9</v>
@@ -6454,21 +6673,24 @@
         <v>390.2333333333333</v>
       </c>
       <c r="T73">
+        <v>391.3333333333333</v>
+      </c>
+      <c r="U73">
         <v>0.6374999999999318</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0001452792780474166</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0001708671507902881</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>-0.0005113781641524762</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>390.4</v>
@@ -6525,21 +6747,24 @@
         <v>390.2733333333334</v>
       </c>
       <c r="T74">
+        <v>390.8</v>
+      </c>
+      <c r="U74">
         <v>0.6062499999999886</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>8.544598532278513E-06</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0001025027761170083</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.001279099513942228</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>391.4</v>
@@ -6596,21 +6821,24 @@
         <v>390.4066666666666</v>
       </c>
       <c r="T75">
+        <v>390.8999999999999</v>
+      </c>
+      <c r="U75">
         <v>0.6687499999999886</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>0.0001196233573148575</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0003416409012484412</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.002561475409835978</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>391.5</v>
@@ -6667,21 +6895,24 @@
         <v>390.5733333333333</v>
       </c>
       <c r="T76">
+        <v>391.1</v>
+      </c>
+      <c r="U76">
         <v>0.6750000000000114</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>0.0001281525527989658</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0004269052782568394</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.000255493101686266</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>390.8</v>
@@ -6738,21 +6969,24 @@
         <v>390.6933333333333</v>
       </c>
       <c r="T77">
+        <v>391.2333333333333</v>
+      </c>
+      <c r="U77">
         <v>0.5500000000000114</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>5.979686151902364E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.0003072406376949388</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.001787994891443101</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>390.6</v>
@@ -6809,21 +7043,24 @@
         <v>390.8266666666667</v>
       </c>
       <c r="T78">
+        <v>390.9666666666667</v>
+      </c>
+      <c r="U78">
         <v>0.4000000000000341</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>5.979328606819934E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.0003412736331991351</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>-0.0005117707267143778</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>391.6</v>
@@ -6880,21 +7117,24 @@
         <v>390.8933333333333</v>
       </c>
       <c r="T79">
+        <v>391</v>
+      </c>
+      <c r="U79">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>0.0001366621966740755</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>0.0001705786026200418</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.002560163850486408</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>391.6</v>
@@ -6951,21 +7191,24 @@
         <v>390.98</v>
       </c>
       <c r="T80">
+        <v>391.2666666666667</v>
+      </c>
+      <c r="U80">
         <v>0.1624999999999659</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>0.0001708044033374989</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>0.0002217143636797925</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>391.6</v>
@@ -7022,21 +7265,24 @@
         <v>391.0600000000001</v>
       </c>
       <c r="T81">
+        <v>391.6</v>
+      </c>
+      <c r="U81">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>0.0001366201873402861</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>0.0002046140467546476</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>391.2</v>
@@ -7093,21 +7339,24 @@
         <v>391.1333333333333</v>
       </c>
       <c r="T82">
+        <v>391.4666666666667</v>
+      </c>
+      <c r="U82">
         <v>0.21875</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>0.0001109887389119102</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>0.0001875245060432018</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>-0.00102145045965274</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>390.8</v>
@@ -7164,21 +7413,24 @@
         <v>391.16</v>
       </c>
       <c r="T83">
+        <v>391.2</v>
+      </c>
+      <c r="U83">
         <v>0.09999999999996589</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>8.536647829116006E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>6.81779444351438E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.001022494887525482</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>390.5</v>
@@ -7235,21 +7487,24 @@
         <v>391.1333333333333</v>
       </c>
       <c r="T84">
+        <v>390.8333333333333</v>
+      </c>
+      <c r="U84">
         <v>-0.03125000000005684</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>5.975143403458283E-05</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-6.817329651986892E-05</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0007676560900716778</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>390.5</v>
@@ -7306,21 +7561,24 @@
         <v>391.1</v>
       </c>
       <c r="T85">
+        <v>390.6</v>
+      </c>
+      <c r="U85">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>3.414163657922131E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-8.522243054365219E-05</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>391.6</v>
@@ -7377,21 +7635,24 @@
         <v>391.0733333333333</v>
       </c>
       <c r="T86">
+        <v>390.8666666666667</v>
+      </c>
+      <c r="U86">
         <v>0.04375000000004547</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>0.0001194916483873154</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-6.818375522044118E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0028169014084507</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>391</v>
@@ -7448,21 +7709,24 @@
         <v>391.0666666666667</v>
       </c>
       <c r="T87">
+        <v>391.0333333333334</v>
+      </c>
+      <c r="U87">
         <v>0.03125000000005684</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>6.827278390808544E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-1.704710114047714E-05</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.001532175689479165</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>391.1</v>
@@ -7519,21 +7783,24 @@
         <v>391.08</v>
       </c>
       <c r="T88">
+        <v>391.2333333333333</v>
+      </c>
+      <c r="U88">
         <v>-0.03125</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>0.0001024021845799084</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>3.409478349802875E-05</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.0002557544757033625</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>391.2</v>
@@ -7590,21 +7857,24 @@
         <v>391.1333333333333</v>
       </c>
       <c r="T89">
+        <v>391.1</v>
+      </c>
+      <c r="U89">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>0.0001194569826872272</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>0.000136374484333901</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0002556890820761826</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>391</v>
@@ -7661,21 +7931,24 @@
         <v>391.1066666666667</v>
       </c>
       <c r="T90">
+        <v>391.1</v>
+      </c>
+      <c r="U90">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>0.000136505959338562</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-6.817794443492176E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>-0.0005112474437627412</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>390.9</v>
@@ -7732,21 +8005,24 @@
         <v>391.0666666666667</v>
       </c>
       <c r="T91">
+        <v>391.0333333333333</v>
+      </c>
+      <c r="U91">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>0.0001620787020053527</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-0.0001022738894760344</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>-0.0002557544757033625</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>391</v>
@@ -7803,21 +8079,24 @@
         <v>391.08</v>
       </c>
       <c r="T92">
+        <v>390.9666666666667</v>
+      </c>
+      <c r="U92">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>0.0001705815123755894</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>3.409478349825079E-05</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0002558199027884456</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>391</v>
@@ -7874,21 +8153,24 @@
         <v>391.1066666666667</v>
       </c>
       <c r="T93">
+        <v>390.9666666666667</v>
+      </c>
+      <c r="U93">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.000204662903143138</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>6.818724216683947E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>391</v>
@@ -7945,21 +8227,24 @@
         <v>391.0666666666667</v>
       </c>
       <c r="T94">
+        <v>391</v>
+      </c>
+      <c r="U94">
         <v>-0.07500000000004547</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>3.410350413490804E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-0.0001022738894760344</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>391.2</v>
@@ -8016,21 +8301,24 @@
         <v>391.04</v>
       </c>
       <c r="T95">
+        <v>391.0666666666667</v>
+      </c>
+      <c r="U95">
         <v>-0.02500000000009095</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>7.673026753285406E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-6.818956699616852E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.000511508951406725</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>391.1</v>
@@ -8087,21 +8375,24 @@
         <v>391.0066666666666</v>
       </c>
       <c r="T96">
+        <v>391.1</v>
+      </c>
+      <c r="U96">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>5.967451812827207E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-8.524277141319647E-05</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>-0.0002556237218812596</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>391.3</v>
@@ -8158,21 +8449,24 @@
         <v>391.0133333333333</v>
       </c>
       <c r="T97">
+        <v>391.2</v>
+      </c>
+      <c r="U97">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>0.0001022930696445989</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>1.705000767260323E-05</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>0.0005113781641523651</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>390.9</v>
@@ -8229,21 +8523,24 @@
         <v>391.0199999999999</v>
       </c>
       <c r="T98">
+        <v>391.1</v>
+      </c>
+      <c r="U98">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>4.261775285119285E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>1.7049716974471E-05</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.001022233580373233</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>392.1</v>
@@ -8300,21 +8597,24 @@
         <v>391.1266666666667</v>
       </c>
       <c r="T99">
+        <v>391.4333333333334</v>
+      </c>
+      <c r="U99">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>0.0001022782479735973</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0002727908205890639</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0.003069838833461347</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>391.6</v>
@@ -8371,21 +8671,24 @@
         <v>391.2</v>
       </c>
       <c r="T100">
+        <v>391.5333333333333</v>
+      </c>
+      <c r="U100">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>5.113389410160707E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0001874925429101726</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.001275184901810777</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>391.5</v>
@@ -8442,21 +8745,24 @@
         <v>391.1933333333334</v>
       </c>
       <c r="T101">
+        <v>391.7333333333333</v>
+      </c>
+      <c r="U101">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-4.260939963351973E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-1.70415814585434E-05</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0002553626149132127</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>391.6</v>
@@ -8513,21 +8819,24 @@
         <v>391.2333333333333</v>
       </c>
       <c r="T102">
+        <v>391.5666666666667</v>
+      </c>
+      <c r="U102">
         <v>0.1937500000000227</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>4.26112152718261E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>0.0001022512312751633</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.0002554278416349032</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>391.3</v>
@@ -8584,21 +8893,24 @@
         <v>391.2466666666667</v>
       </c>
       <c r="T103">
+        <v>391.4666666666667</v>
+      </c>
+      <c r="U103">
         <v>0.1875</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>3.40875197069046E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>3.408025900997202E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>-0.000766087844739527</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>392.5</v>
@@ -8655,21 +8967,24 @@
         <v>391.3333333333333</v>
       </c>
       <c r="T104">
+        <v>391.8</v>
+      </c>
+      <c r="U104">
         <v>0.2749999999999773</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>0.000178953378384028</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0.0002215141343056004</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>0.003066700741119366</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>392</v>
@@ -8726,21 +9041,24 @@
         <v>391.4</v>
       </c>
       <c r="T105">
+        <v>391.9333333333333</v>
+      </c>
+      <c r="U105">
         <v>0.3125</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>5.112038851495804E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>0.0001703577512777166</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>-0.001273885350318471</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>391.7</v>
@@ -8797,21 +9115,24 @@
         <v>391.4533333333333</v>
       </c>
       <c r="T106">
+        <v>392.0666666666667</v>
+      </c>
+      <c r="U106">
         <v>0.3687500000000341</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>1.703925845153442E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>0.0001362629875660826</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.000765306122448961</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>391.4</v>
@@ -8868,21 +9189,24 @@
         <v>391.48</v>
       </c>
       <c r="T107">
+        <v>391.7</v>
+      </c>
+      <c r="U107">
         <v>0.2500000000000568</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>5.111690436021554E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>6.812221124685713E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.0007658922644881994</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>391.2</v>
@@ -8939,21 +9263,24 @@
         <v>391.4933333333334</v>
       </c>
       <c r="T108">
+        <v>391.4333333333333</v>
+      </c>
+      <c r="U108">
         <v>0.1874999999999432</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>5.111429155602032E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>3.405878546391961E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0005109862033725321</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>391.1</v>
@@ -9010,21 +9337,24 @@
         <v>391.5</v>
       </c>
       <c r="T109">
+        <v>391.2333333333333</v>
+      </c>
+      <c r="U109">
         <v>0.1312499999999659</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-4.259306584886158E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>1.702881275100765E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0002556237218812596</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>391</v>
@@ -9081,21 +9411,24 @@
         <v>391.4866666666667</v>
       </c>
       <c r="T110">
+        <v>391.1</v>
+      </c>
+      <c r="U110">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>-5.111385611455965E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-3.405704555126121E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.0002556890820762936</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>390.8</v>
@@ -9152,21 +9485,24 @@
         <v>391.4666666666666</v>
       </c>
       <c r="T111">
+        <v>390.9666666666667</v>
+      </c>
+      <c r="U111">
         <v>0.01875000000006821</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>-6.815529183235025E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-5.108730820979623E-05</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>-0.000511508951406614</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>392.6</v>
@@ -9223,21 +9559,24 @@
         <v>391.5533333333333</v>
       </c>
       <c r="T112">
+        <v>391.4666666666667</v>
+      </c>
+      <c r="U112">
         <v>-0.0625</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>0.0001192798902625025</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>0.0002213896457765596</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.004605936540429845</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>392.4</v>
@@ -9294,21 +9633,24 @@
         <v>391.6533333333333</v>
       </c>
       <c r="T113">
+        <v>391.9333333333334</v>
+      </c>
+      <c r="U113">
         <v>-0.08124999999995453</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>0.0001363036163053444</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>0.0002553930499036294</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>-0.0005094243504840668</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>391.9</v>
@@ -9365,21 +9707,24 @@
         <v>391.64</v>
       </c>
       <c r="T114">
+        <v>392.3</v>
+      </c>
+      <c r="U114">
         <v>-0.1187500000000341</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0.0001192494101411867</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-3.404371212623047E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.001274209989806319</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>392</v>
@@ -9436,21 +9781,24 @@
         <v>391.6666666666667</v>
       </c>
       <c r="T115">
+        <v>392.1</v>
+      </c>
+      <c r="U115">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>0.0001277519908018387</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>6.808974228023068E-05</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.0002551671344730444</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>392</v>
@@ -9507,21 +9855,24 @@
         <v>391.7</v>
       </c>
       <c r="T116">
+        <v>391.9666666666667</v>
+      </c>
+      <c r="U116">
         <v>0.03750000000002274</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>3.406284595075526E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>8.510638297853923E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>391.8</v>
@@ -9578,21 +9929,24 @@
         <v>391.7133333333334</v>
       </c>
       <c r="T117">
+        <v>391.9333333333333</v>
+      </c>
+      <c r="U117">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>6.812337142569902E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>3.403965619952487E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.0005102040816326037</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>391.6</v>
@@ -9649,21 +10003,24 @@
         <v>391.7333333333333</v>
       </c>
       <c r="T118">
+        <v>391.8</v>
+      </c>
+      <c r="U118">
         <v>0.1812499999999773</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>4.257420684239399E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>5.10577463110895E-05</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0005104645227156368</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>391.4</v>
@@ -9720,21 +10077,24 @@
         <v>391.66</v>
       </c>
       <c r="T119">
+        <v>391.6</v>
+      </c>
+      <c r="U119">
         <v>0.2499999999999432</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>1.702895774258195E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-0.0001872021783525524</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>-0.0005107252298264253</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>391.6</v>
@@ -9791,21 +10151,24 @@
         <v>391.6333333333333</v>
       </c>
       <c r="T120">
+        <v>391.5333333333334</v>
+      </c>
+      <c r="U120">
         <v>0.1812499999999773</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>5.108600328651569E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-6.808626529819506E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>0.0005109862033725321</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>391.8</v>
@@ -9862,21 +10225,24 @@
         <v>391.64</v>
       </c>
       <c r="T121">
+        <v>391.6</v>
+      </c>
+      <c r="U121">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>7.662509046024724E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>1.702272533843363E-05</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>0.0005107252298264253</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>391.7</v>
@@ -9933,21 +10299,24 @@
         <v>391.66</v>
       </c>
       <c r="T122">
+        <v>391.7</v>
+      </c>
+      <c r="U122">
         <v>0.09374999999994316</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>5.959272628208723E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>5.106730671000648E-05</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>-0.0002552322613579294</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>391.6</v>
@@ -10004,21 +10373,24 @@
         <v>391.6866666666667</v>
       </c>
       <c r="T123">
+        <v>391.7</v>
+      </c>
+      <c r="U123">
         <v>0.03125</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>5.107643588631028E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>6.808626529819506E-05</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.0002552974214959924</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>391.4</v>
@@ -10075,21 +10447,24 @@
         <v>391.7066666666666</v>
       </c>
       <c r="T124">
+        <v>391.5666666666667</v>
+      </c>
+      <c r="U124">
         <v>-0.05625000000003411</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>3.404921814498252E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>5.106122240561284E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>-0.0005107252298264253</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>392.7</v>
@@ -10146,21 +10521,24 @@
         <v>391.8199999999999</v>
       </c>
       <c r="T125">
+        <v>391.8999999999999</v>
+      </c>
+      <c r="U125">
         <v>-0.04374999999993179</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>0.0001276802206313654</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>0.0002893321533119497</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.003321410321921237</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>392.6</v>
@@ -10217,21 +10595,24 @@
         <v>391.94</v>
       </c>
       <c r="T126">
+        <v>392.2333333333333</v>
+      </c>
+      <c r="U126">
         <v>-0.01874999999995453</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>0.0001276639204736973</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>0.0003062630799859356</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>-0.0002546473134708016</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>392.4</v>
@@ -10288,21 +10669,24 @@
         <v>391.9266666666666</v>
       </c>
       <c r="T127">
+        <v>392.5666666666666</v>
+      </c>
+      <c r="U127">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>9.36082579501285E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-3.401881240339133E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>-0.0005094243504840668</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>391.7</v>
@@ -10359,21 +10743,24 @@
         <v>391.8800000000001</v>
       </c>
       <c r="T128">
+        <v>392.2333333333333</v>
+      </c>
+      <c r="U128">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>6.807236091965763E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-0.0001190698940275459</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>-0.001783893985728868</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>392.3</v>
@@ -10430,21 +10817,24 @@
         <v>391.9066666666666</v>
       </c>
       <c r="T129">
+        <v>392.1333333333334</v>
+      </c>
+      <c r="U129">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>1.701693184719133E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>6.804804191729019E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.001531784528976399</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>392.2</v>
@@ -10501,21 +10891,24 @@
         <v>391.92</v>
       </c>
       <c r="T130">
+        <v>392.0666666666667</v>
+      </c>
+      <c r="U130">
         <v>0.1875</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>5.104992682847254E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>3.402170584854147E-05</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0002549069589600217</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>392</v>
@@ -10572,21 +10965,24 @@
         <v>391.92</v>
       </c>
       <c r="T131">
+        <v>392.1666666666667</v>
+      </c>
+      <c r="U131">
         <v>0.2374999999999545</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>4.253943405552185E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>0</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0005099439061703182</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>391.6</v>
@@ -10643,21 +11039,24 @@
         <v>391.9066666666666</v>
       </c>
       <c r="T132">
+        <v>391.9333333333333</v>
+      </c>
+      <c r="U132">
         <v>0.2875000000000227</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>0</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-3.402054841139535E-05</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>-0.001020408163265207</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>392</v>
@@ -10714,21 +11113,24 @@
         <v>391.9333333333333</v>
       </c>
       <c r="T133">
+        <v>391.8666666666666</v>
+      </c>
+      <c r="U133">
         <v>0.1875</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>5.955267434032407E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>6.804341169663886E-05</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>0.001021450459652629</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>391.9</v>
@@ -10785,21 +11187,24 @@
         <v>391.9666666666666</v>
       </c>
       <c r="T134">
+        <v>391.8333333333333</v>
+      </c>
+      <c r="U134">
         <v>0.08124999999995453</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-5.104210974049561E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>8.504847763224355E-05</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>-0.0002551020408163573</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>392.2</v>
@@ -10856,21 +11261,24 @@
         <v>392.0066666666667</v>
       </c>
       <c r="T135">
+        <v>392.0333333333333</v>
+      </c>
+      <c r="U135">
         <v>0.006249999999965894</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>1.701490505667813E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>0.000102049494004719</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0.0007655014034193552</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>392.2</v>
@@ -10927,21 +11335,24 @@
         <v>392.0333333333334</v>
       </c>
       <c r="T136">
+        <v>392.1</v>
+      </c>
+      <c r="U136">
         <v>0.03125</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>4.253653888719455E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>6.80260539787092E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>393.9</v>
@@ -10998,21 +11409,24 @@
         <v>392.18</v>
       </c>
       <c r="T137">
+        <v>392.7666666666667</v>
+      </c>
+      <c r="U137">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>0.0002126736480336788</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>0.0003741178471217133</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0.004334523202447649</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>393.6</v>
@@ -11069,21 +11483,24 @@
         <v>392.3133333333333</v>
       </c>
       <c r="T138">
+        <v>393.2333333333333</v>
+      </c>
+      <c r="U138">
         <v>0.15625</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>0.0002041232904674839</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>0.0003399799411833992</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>-0.0007616146230006171</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>393.5</v>
@@ -11140,21 +11557,24 @@
         <v>392.4533333333333</v>
       </c>
       <c r="T139">
+        <v>393.6666666666667</v>
+      </c>
+      <c r="U139">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>0.0002040816326529526</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>0.0003568576138119894</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>-0.0002540650406505085</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>393.5</v>
@@ -11211,21 +11631,24 @@
         <v>392.5066666666667</v>
       </c>
       <c r="T140">
+        <v>393.5333333333334</v>
+      </c>
+      <c r="U140">
         <v>0.3312500000000114</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>0.0002125416581648665</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>0.0001358972616702925</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>394</v>
@@ -11282,21 +11705,24 @@
         <v>392.6</v>
       </c>
       <c r="T141">
+        <v>393.6666666666667</v>
+      </c>
+      <c r="U141">
         <v>0.5</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>0.0002719955120742412</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>0.0002377878931991706</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.001270648030495591</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>394</v>
@@ -11353,21 +11779,24 @@
         <v>392.7066666666667</v>
       </c>
       <c r="T142">
+        <v>393.8333333333333</v>
+      </c>
+      <c r="U142">
         <v>0.6750000000000114</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>0.0001189656784017501</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>0.0002716929869248652</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>394</v>
@@ -11424,21 +11853,24 @@
         <v>392.86</v>
       </c>
       <c r="T143">
+        <v>394</v>
+      </c>
+      <c r="U143">
         <v>0.7999999999999545</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>0.0001359446025743782</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>0.0003904525854749874</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>393.4</v>
@@ -11495,21 +11927,24 @@
         <v>392.9333333333333</v>
       </c>
       <c r="T144">
+        <v>393.8</v>
+      </c>
+      <c r="U144">
         <v>0.8437500000000568</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>0.0001274307413920983</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>0.0001866653091009418</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.001522842639594013</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>393.8</v>
@@ -11566,21 +12001,24 @@
         <v>393.04</v>
       </c>
       <c r="T145">
+        <v>393.7333333333333</v>
+      </c>
+      <c r="U145">
         <v>0.7374999999999545</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>0.0001528974058409016</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>0.000271462504241482</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.001016776817488685</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>393.7</v>
@@ -11637,21 +12075,24 @@
         <v>393.1533333333333</v>
       </c>
       <c r="T146">
+        <v>393.6333333333333</v>
+      </c>
+      <c r="U146">
         <v>0.6562500000000568</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>0.0001443810300312265</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>0.0002883506343713815</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>-0.0002539360081259545</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>393.8</v>
@@ -11708,21 +12149,24 @@
         <v>393.3</v>
       </c>
       <c r="T147">
+        <v>393.7666666666667</v>
+      </c>
+      <c r="U147">
         <v>0.5812500000000114</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>0.000169835514304495</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>0.0003730520746783039</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0002540005080011731</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>393.6</v>
@@ -11779,21 +12223,24 @@
         <v>393.4066666666667</v>
       </c>
       <c r="T148">
+        <v>393.7</v>
+      </c>
+      <c r="U148">
         <v>0.46875</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>0.000169806675100137</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>0.0002712094245276297</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.000507872016251909</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>393.4</v>
@@ -11850,21 +12297,24 @@
         <v>393.5066666666666</v>
       </c>
       <c r="T149">
+        <v>393.6</v>
+      </c>
+      <c r="U149">
         <v>0.3062499999999773</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>0.0001697778456890564</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>0.0002541898967987066</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.000508130081300906</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>393.2</v>
@@ -11921,21 +12371,24 @@
         <v>393.5733333333333</v>
       </c>
       <c r="T150">
+        <v>393.4</v>
+      </c>
+      <c r="U150">
         <v>0.1250000000000568</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>0.0001357992208519399</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>0.0001694168671433349</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.0005083884087442314</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>393.2</v>
@@ -11992,21 +12445,24 @@
         <v>393.64</v>
       </c>
       <c r="T151">
+        <v>393.2666666666667</v>
+      </c>
+      <c r="U151">
         <v>-0.03749999999996589</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>0.0001188081841867472</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>0.0001693881699302846</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>393</v>
@@ -12063,21 +12519,24 @@
         <v>393.58</v>
       </c>
       <c r="T152">
+        <v>393.1333333333334</v>
+      </c>
+      <c r="U152">
         <v>-0.1375000000000455</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>0.0001103087797302837</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>-0.0001524235341936464</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0005086469989826758</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>393</v>
@@ -12134,21 +12593,24 @@
         <v>393.54</v>
       </c>
       <c r="T153">
+        <v>393.0666666666666</v>
+      </c>
+      <c r="U153">
         <v>-0.1812500000000341</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>0.0001187809678953045</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>-0.00010163118044626</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>393.6</v>
@@ -12205,21 +12667,24 @@
         <v>393.5466666666667</v>
       </c>
       <c r="T154">
+        <v>393.2</v>
+      </c>
+      <c r="U154">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>0.0001866336381681766</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>1.694025173204494E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.001526717557251978</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>394.1</v>
@@ -12276,21 +12741,24 @@
         <v>393.5866666666667</v>
       </c>
       <c r="T155">
+        <v>393.5666666666667</v>
+      </c>
+      <c r="U155">
         <v>-0.1937499999999659</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>0.0001187446988974994</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>0.0001016397885893472</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0.001270325203251987</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>394.1</v>
@@ -12347,21 +12815,24 @@
         <v>393.5933333333333</v>
       </c>
       <c r="T156">
+        <v>393.9333333333334</v>
+      </c>
+      <c r="U156">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>0.0001272113574297684</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>1.693824316517656E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>393.5</v>
@@ -12418,21 +12889,24 @@
         <v>393.56</v>
       </c>
       <c r="T157">
+        <v>393.9</v>
+      </c>
+      <c r="U157">
         <v>-0.1249999999999432</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>9.327646295664849E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-8.468978133091554E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.001522456229383518</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>393.2</v>
@@ -12489,21 +12963,24 @@
         <v>393.5066666666667</v>
       </c>
       <c r="T158">
+        <v>393.6</v>
+      </c>
+      <c r="U158">
         <v>-0.07500000000004547</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>0.0001271833135492173</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-0.0001355151268759291</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.000762388818297377</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>393.4</v>
@@ -12560,21 +13037,24 @@
         <v>393.5066666666667</v>
       </c>
       <c r="T159">
+        <v>393.3666666666666</v>
+      </c>
+      <c r="U159">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>9.325590267472705E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>0</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>0.0005086469989827869</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>393.2</v>
@@ -12631,21 +13111,24 @@
         <v>393.4666666666666</v>
       </c>
       <c r="T160">
+        <v>393.2666666666667</v>
+      </c>
+      <c r="U160">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>8.477018802022229E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0001016501202861786</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>-0.0005083884087442314</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>392.9</v>
@@ -12702,21 +13185,24 @@
         <v>393.4133333333334</v>
       </c>
       <c r="T161">
+        <v>393.1666666666667</v>
+      </c>
+      <c r="U161">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>7.628670238024604E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.0001355472721110695</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0007629704984740693</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>392.7</v>
@@ -12773,21 +13259,24 @@
         <v>393.34</v>
       </c>
       <c r="T162">
+        <v>392.9333333333333</v>
+      </c>
+      <c r="U162">
         <v>0.01874999999995453</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>9.323219053247733E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.000186402765539162</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>-0.0005090353779587664</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>392.8</v>
@@ -12844,21 +13333,24 @@
         <v>393.2866666666666</v>
       </c>
       <c r="T163">
+        <v>392.8</v>
+      </c>
+      <c r="U163">
         <v>-0.08124999999995453</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>6.779890843766623E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0001355909221879559</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>0.0002546473134708016</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>392.8</v>
@@ -12915,21 +13407,24 @@
         <v>393.2466666666667</v>
       </c>
       <c r="T164">
+        <v>392.7666666666667</v>
+      </c>
+      <c r="U164">
         <v>-0.1937499999999659</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>7.626860106446642E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-0.0001017069821842576</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>392.7</v>
@@ -12986,21 +13481,24 @@
         <v>393.2133333333334</v>
       </c>
       <c r="T165">
+        <v>392.7666666666667</v>
+      </c>
+      <c r="U165">
         <v>-0.25</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>4.236821367142873E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-8.476443962224245E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0002545824847250966</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>393.6</v>
@@ -13057,21 +13555,24 @@
         <v>393.24</v>
       </c>
       <c r="T166">
+        <v>393.0333333333333</v>
+      </c>
+      <c r="U166">
         <v>-0.2250000000000227</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>0.0001186259723091609</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>6.781730019311816E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0.002291825821237659</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>394.1</v>
@@ -13128,21 +13629,24 @@
         <v>393.3133333333334</v>
       </c>
       <c r="T167">
+        <v>393.4666666666667</v>
+      </c>
+      <c r="U167">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>1.694455740808287E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>0.000186484928627495</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0.001270325203251987</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>394.3</v>
@@ -13199,21 +13703,24 @@
         <v>393.4</v>
       </c>
       <c r="T168">
+        <v>394</v>
+      </c>
+      <c r="U168">
         <v>-0.1375000000000455</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>5.930494603267888E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>0.0002203501872977132</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.0005074854097943948</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>393.8</v>
@@ -13270,21 +13777,24 @@
         <v>393.4133333333333</v>
       </c>
       <c r="T169">
+        <v>394.0666666666667</v>
+      </c>
+      <c r="U169">
         <v>-0.07499999999993179</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>2.541489821306087E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>3.389256058272672E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>-0.001268069997463872</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>393.5</v>
@@ -13341,21 +13851,24 @@
         <v>393.3733333333333</v>
       </c>
       <c r="T170">
+        <v>393.8666666666666</v>
+      </c>
+      <c r="U170">
         <v>0.03125000000005684</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>0</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-0.0001016742357486944</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0007618080243778635</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>393.6</v>
@@ -13412,21 +13925,24 @@
         <v>393.34</v>
       </c>
       <c r="T171">
+        <v>393.6333333333334</v>
+      </c>
+      <c r="U171">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-3.388566975026652E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-8.473714537482469E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0.0002541296060991627</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>393.3</v>
@@ -13483,21 +13999,24 @@
         <v>393.3266666666667</v>
       </c>
       <c r="T172">
+        <v>393.4666666666667</v>
+      </c>
+      <c r="U172">
         <v>0.2749999999999773</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-5.930193154857211E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-3.389773054696121E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>-0.0007621951219513035</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>393.8</v>
@@ -13554,21 +14073,24 @@
         <v>393.3666666666667</v>
       </c>
       <c r="T173">
+        <v>393.5666666666667</v>
+      </c>
+      <c r="U173">
         <v>0.3937499999999545</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-1.694441385036161E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>0.0001016966389260077</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0.001271294177472626</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>393.5</v>
@@ -13625,21 +14147,24 @@
         <v>393.3733333333333</v>
       </c>
       <c r="T174">
+        <v>393.5333333333333</v>
+      </c>
+      <c r="U174">
         <v>0.3625000000000114</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>8.472350484289848E-06</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>1.694771629523473E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.0007618080243778635</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>393.2</v>
@@ -13696,21 +14221,24 @@
         <v>393.3733333333333</v>
       </c>
       <c r="T175">
+        <v>393.5</v>
+      </c>
+      <c r="U175">
         <v>0.2625000000000455</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-5.083367222458168E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>0</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>-0.000762388818297377</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>393.2</v>
@@ -13767,21 +14295,24 @@
         <v>393.3933333333334</v>
       </c>
       <c r="T176">
+        <v>393.3</v>
+      </c>
+      <c r="U176">
         <v>0.125</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-4.236354701492306E-05</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>5.084228722518347E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>393</v>
@@ -13838,21 +14369,24 @@
         <v>393.4133333333333</v>
       </c>
       <c r="T177">
+        <v>393.1333333333334</v>
+      </c>
+      <c r="U177">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-6.778454681799495E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>5.083970241814839E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>-0.0005086469989826758</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>392.7</v>
@@ -13909,21 +14443,24 @@
         <v>393.4066666666666</v>
       </c>
       <c r="T178">
+        <v>392.9666666666666</v>
+      </c>
+      <c r="U178">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-7.626278460837188E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-1.694570595811573E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>-0.0007633587786259888</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>392.9</v>
@@ -13980,21 +14517,24 @@
         <v>393.4133333333334</v>
       </c>
       <c r="T179">
+        <v>392.8666666666666</v>
+      </c>
+      <c r="U179">
         <v>-0.1750000000000682</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-4.237144503582702E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>1.694599312007661E-05</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0.0005092946269416032</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>393</v>
@@ -14051,21 +14591,24 @@
         <v>393.4333333333333</v>
       </c>
       <c r="T180">
+        <v>392.8666666666666</v>
+      </c>
+      <c r="U180">
         <v>-0.2250000000000796</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-1.694929618034635E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>5.083711787423617E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0.0002545176889794387</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>393.2</v>
@@ -14122,21 +14665,24 @@
         <v>393.4066666666667</v>
       </c>
       <c r="T181">
+        <v>393.0333333333333</v>
+      </c>
+      <c r="U181">
         <v>-0.3312500000000114</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>-6.777937812418866E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0.0005089058524172518</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>393.2</v>
@@ -14193,21 +14739,24 @@
         <v>393.3466666666666</v>
       </c>
       <c r="T182">
+        <v>393.1333333333334</v>
+      </c>
+      <c r="U182">
         <v>-0.34375</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>1.694958346387665E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>-0.0001525139380794682</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>392.8</v>
@@ -14264,21 +14813,24 @@
         <v>393.2466666666667</v>
       </c>
       <c r="T183">
+        <v>393.0666666666667</v>
+      </c>
+      <c r="U183">
         <v>-0.3125</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-1.694929618045737E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>-0.000254228670214518</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>-0.001017293997965352</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>392.7</v>
@@ -14335,21 +14887,24 @@
         <v>393.1733333333333</v>
       </c>
       <c r="T184">
+        <v>392.9</v>
+      </c>
+      <c r="U184">
         <v>-0.2749999999999773</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-7.627312558800003E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>-0.0001864817671690666</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0002545824847250966</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>392.8</v>
@@ -14406,21 +14961,24 @@
         <v>393.1266666666667</v>
       </c>
       <c r="T185">
+        <v>392.7666666666667</v>
+      </c>
+      <c r="U185">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-0.0001101806963419438</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>-0.0001186923494301828</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0.0002546473134708016</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>392.8</v>
@@ -14477,21 +15035,24 @@
         <v>393.0733333333334</v>
       </c>
       <c r="T186">
+        <v>392.7666666666667</v>
+      </c>
+      <c r="U186">
         <v>-0.1812500000000341</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-0.0001101928374654948</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-0.0001356645016873381</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>392.8</v>
@@ -14548,21 +15109,24 @@
         <v>393.04</v>
       </c>
       <c r="T187">
+        <v>392.8</v>
+      </c>
+      <c r="U187">
         <v>-0.1437499999999545</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-5.93411437582736E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-8.480181815118115E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>392.8</v>
@@ -14619,21 +15183,24 @@
         <v>392.9733333333333</v>
       </c>
       <c r="T188">
+        <v>392.8</v>
+      </c>
+      <c r="U188">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-3.391123733620383E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-0.0001696180202184205</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>392.7</v>
@@ -14690,21 +15257,24 @@
         <v>392.92</v>
       </c>
       <c r="T189">
+        <v>392.7666666666667</v>
+      </c>
+      <c r="U189">
         <v>-0.1312499999999659</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-5.93466778578966E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>-0.0001357174362976998</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>-0.0002545824847250966</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>392.6</v>
@@ -14761,21 +15331,24 @@
         <v>392.88</v>
       </c>
       <c r="T190">
+        <v>392.7</v>
+      </c>
+      <c r="U190">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-5.087160008132585E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-0.0001018018935151632</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0002546473134708016</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>392.2</v>
@@ -14832,21 +15405,24 @@
         <v>392.8133333333333</v>
       </c>
       <c r="T191">
+        <v>392.5</v>
+      </c>
+      <c r="U191">
         <v>-0.1625000000000227</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-5.93532194881341E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-0.0001696870969931652</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.001018848700968022</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>392.1</v>
@@ -14903,21 +15479,24 @@
         <v>392.7533333333333</v>
       </c>
       <c r="T192">
+        <v>392.3</v>
+      </c>
+      <c r="U192">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-5.087720785890149E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-0.0001527443060317379</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.0002549719530851036</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>391.9</v>
@@ -14974,21 +15553,24 @@
         <v>392.7</v>
       </c>
       <c r="T193">
+        <v>392.0666666666667</v>
+      </c>
+      <c r="U193">
         <v>-0.2125000000000341</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-7.631969472110534E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-0.0001357934581501796</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.0005100739607244442</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>391.3</v>
@@ -15045,21 +15627,24 @@
         <v>392.5933333333333</v>
       </c>
       <c r="T194">
+        <v>391.7666666666667</v>
+      </c>
+      <c r="U194">
         <v>-0.3125</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-0.0001272091997693847</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-0.0002716238010356253</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>-0.001531002806838377</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>391</v>
@@ -15116,21 +15701,24 @@
         <v>392.46</v>
       </c>
       <c r="T195">
+        <v>391.4</v>
+      </c>
+      <c r="U195">
         <v>-0.4187499999999886</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-0.0001441887685431631</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-0.0003396220007131356</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.0007666751852798415</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>391.4</v>
@@ -15187,21 +15775,24 @@
         <v>392.34</v>
       </c>
       <c r="T196">
+        <v>391.2333333333333</v>
+      </c>
+      <c r="U196">
         <v>-0.4937499999999204</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-0.0001866241389841816</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-0.0003057636447026946</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0.001023017902813228</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>391.7</v>
@@ -15258,21 +15849,24 @@
         <v>392.24</v>
       </c>
       <c r="T197">
+        <v>391.3666666666666</v>
+      </c>
+      <c r="U197">
         <v>-0.5250000000000341</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-0.0002036279716954859</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.0002548809705866795</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>0.0007664793050587981</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>391.7</v>
@@ -15329,21 +15923,24 @@
         <v>392.1666666666667</v>
       </c>
       <c r="T198">
+        <v>391.6</v>
+      </c>
+      <c r="U198">
         <v>-0.5437499999999886</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-0.0002206418981992586</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0001869603644026885</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>391.5</v>
@@ -15400,21 +15997,24 @@
         <v>392.0866666666667</v>
       </c>
       <c r="T199">
+        <v>391.6333333333334</v>
+      </c>
+      <c r="U199">
         <v>-0.5499999999999545</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-0.0001952262927374937</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-0.0002039949001274577</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>-0.0005105948429920959</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>391.3</v>
@@ -15471,21 +16071,24 @@
         <v>391.9866666666667</v>
       </c>
       <c r="T200">
+        <v>391.5</v>
+      </c>
+      <c r="U200">
         <v>-0.5625000000000568</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-0.0001867746563770645</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-0.0002550456531720258</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.0005108556832694733</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>391</v>
@@ -15542,21 +16145,24 @@
         <v>391.8666666666667</v>
       </c>
       <c r="T201">
+        <v>391.2666666666667</v>
+      </c>
+      <c r="U201">
         <v>-0.5625</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>-0.0002207749199690801</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-0.000306132861661923</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.0007666751852798415</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>390.5</v>
@@ -15613,21 +16219,24 @@
         <v>391.7133333333334</v>
       </c>
       <c r="T202">
+        <v>390.9333333333333</v>
+      </c>
+      <c r="U202">
         <v>-0.5187500000000114</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>-0.0002378101086282225</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-0.0003912895542701467</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>-0.001278772378516591</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>390</v>
@@ -15684,21 +16293,24 @@
         <v>391.5266666666667</v>
       </c>
       <c r="T203">
+        <v>390.5</v>
+      </c>
+      <c r="U203">
         <v>-0.4687500000000568</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>-0.0003228190599170455</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-0.0004765389655700947</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.001280409731113985</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>390.1</v>
@@ -15755,21 +16367,24 @@
         <v>391.3533333333334</v>
       </c>
       <c r="T204">
+        <v>390.2</v>
+      </c>
+      <c r="U204">
         <v>-0.4625000000000341</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>-0.0002889313787975967</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.000442711437279697</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0002564102564102111</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>389.6</v>
@@ -15826,21 +16441,24 @@
         <v>391.1533333333334</v>
       </c>
       <c r="T205">
+        <v>389.9</v>
+      </c>
+      <c r="U205">
         <v>-0.53125</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>-0.0003060157598115953</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-0.0005110471355808111</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.001281722635221749</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>389.1</v>
@@ -15897,21 +16515,24 @@
         <v>390.9466666666667</v>
       </c>
       <c r="T206">
+        <v>389.6000000000001</v>
+      </c>
+      <c r="U206">
         <v>-0.6374999999999886</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>-0.0003486246333064269</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-0.0005283520529034691</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.001283367556468185</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>389.5</v>
@@ -15968,21 +16589,24 @@
         <v>390.7733333333333</v>
       </c>
       <c r="T207">
+        <v>389.4</v>
+      </c>
+      <c r="U207">
         <v>-0.7187499999999432</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>-0.0002977101833895324</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-0.0004433682343712997</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.001028013364173574</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>389.8</v>
@@ -16039,21 +16663,24 @@
         <v>390.6333333333333</v>
       </c>
       <c r="T208">
+        <v>389.4666666666667</v>
+      </c>
+      <c r="U208">
         <v>-0.7624999999999318</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-0.0002467476112277822</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0003582639552340838</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>0.0007702182284980985</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>389.5</v>
@@ -16110,21 +16737,24 @@
         <v>390.5133333333333</v>
       </c>
       <c r="T209">
+        <v>389.6</v>
+      </c>
+      <c r="U209">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-0.0002893617021276773</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.000307193446539844</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0007696254489482079</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>389.8</v>
@@ -16181,21 +16811,24 @@
         <v>390.4333333333333</v>
       </c>
       <c r="T210">
+        <v>389.7</v>
+      </c>
+      <c r="U210">
         <v>-0.7937499999999886</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-0.0002724192532307379</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-0.0002048585622342891</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.0007702182284980985</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>390.3</v>
@@ -16252,21 +16885,24 @@
         <v>390.36</v>
       </c>
       <c r="T211">
+        <v>389.8666666666666</v>
+      </c>
+      <c r="U211">
         <v>-0.7124999999999773</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-0.0002469472214179369</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>-0.0001878254930418599</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>0.001282709081580347</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>390.3</v>
@@ -16323,21 +16959,24 @@
         <v>390.2666666666667</v>
       </c>
       <c r="T212">
+        <v>390.1333333333334</v>
+      </c>
+      <c r="U212">
         <v>-0.6187500000000341</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-0.000247008219411482</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>-0.0002390955357448599</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>390.5</v>
@@ -16394,21 +17033,24 @@
         <v>390.1866666666667</v>
       </c>
       <c r="T213">
+        <v>390.3666666666667</v>
+      </c>
+      <c r="U213">
         <v>-0.4312500000000341</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-0.0001959514721918687</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>-0.0002049880423641293</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.000512426338713734</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>390.5</v>
@@ -16465,21 +17107,24 @@
         <v>390.12</v>
       </c>
       <c r="T214">
+        <v>390.4333333333333</v>
+      </c>
+      <c r="U214">
         <v>-0.1812500000000341</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-0.0001874685777100149</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>-0.0001708583925642548</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>390.6</v>
@@ -16536,21 +17181,24 @@
         <v>390.0733333333333</v>
       </c>
       <c r="T215">
+        <v>390.5333333333334</v>
+      </c>
+      <c r="U215">
         <v>0.01250000000004547</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-0.000187503728767302</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-0.0001196213131002821</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0002560819462229524</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>391</v>
@@ -16607,21 +17255,24 @@
         <v>390.0733333333333</v>
       </c>
       <c r="T216">
+        <v>390.7</v>
+      </c>
+      <c r="U216">
         <v>0.1812500000000341</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-0.000153440912461944</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0.001024065540194519</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>391</v>
@@ -16678,21 +17329,24 @@
         <v>390.1066666666666</v>
       </c>
       <c r="T217">
+        <v>390.8666666666667</v>
+      </c>
+      <c r="U217">
         <v>0.3687500000000341</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-0.0001534644601887125</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>8.545401719328716E-05</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>390.7</v>
@@ -16749,21 +17403,24 @@
         <v>390.1533333333333</v>
       </c>
       <c r="T218">
+        <v>390.8999999999999</v>
+      </c>
+      <c r="U218">
         <v>0.4687500000000568</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-0.0001790693510016483</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>0.000119625401599599</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.0007672634271099765</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>391.9</v>
@@ -16820,21 +17477,24 @@
         <v>390.2733333333334</v>
       </c>
       <c r="T219">
+        <v>391.2</v>
+      </c>
+      <c r="U219">
         <v>0.5500000000000114</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-6.822911336257231E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>0.0003075713821918402</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.003071410289224419</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>391.6</v>
@@ -16891,21 +17551,24 @@
         <v>390.4066666666667</v>
       </c>
       <c r="T220">
+        <v>391.3999999999999</v>
+      </c>
+      <c r="U220">
         <v>0.6187499999999773</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-8.529221111530649E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>0.0003416409012486632</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0007655014034191332</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>391.2</v>
@@ -16962,21 +17625,24 @@
         <v>390.5466666666667</v>
       </c>
       <c r="T221">
+        <v>391.5666666666667</v>
+      </c>
+      <c r="U221">
         <v>0.6062499999999886</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-8.529948649704799E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>0.0003586004337359228</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>-0.00102145045965274</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>391.1</v>
@@ -17033,21 +17699,24 @@
         <v>390.6533333333334</v>
       </c>
       <c r="T222">
+        <v>391.3</v>
+      </c>
+      <c r="U222">
         <v>0.5562500000000341</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-8.530676312012986E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0.0002731214366187285</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>-0.0002556237218812596</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>390.9</v>
@@ -17104,21 +17773,24 @@
         <v>390.7266666666667</v>
       </c>
       <c r="T223">
+        <v>391.0666666666667</v>
+      </c>
+      <c r="U223">
         <v>0.5062499999999091</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-8.531404098488515E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.0001877197173965062</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0005113781641524762</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>390.7</v>
@@ -17175,21 +17847,24 @@
         <v>390.8066666666667</v>
       </c>
       <c r="T224">
+        <v>390.8999999999999</v>
+      </c>
+      <c r="U224">
         <v>0.4124999999999659</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-5.119279205501037E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>0.0002047467112558099</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0005116398055768911</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>390.6</v>
@@ -17246,21 +17921,24 @@
         <v>390.86</v>
       </c>
       <c r="T225">
+        <v>390.7333333333333</v>
+      </c>
+      <c r="U225">
         <v>0.2937499999999318</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-3.41302752606687E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0.0001364698657475572</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>-0.0002559508574352387</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>390.5</v>
@@ -17317,21 +17995,24 @@
         <v>390.8733333333333</v>
       </c>
       <c r="T226">
+        <v>390.6</v>
+      </c>
+      <c r="U226">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-7.679574039620718E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>3.411281106635577E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.0002560163850486852</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>390.4</v>
@@ -17388,21 +18069,24 @@
         <v>390.88</v>
       </c>
       <c r="T227">
+        <v>390.5</v>
+      </c>
+      <c r="U227">
         <v>0.03125</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-0.0001109356999616784</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>1.705582371092085E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>-0.0002560819462228414</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>390.9</v>
@@ -17459,21 +18143,24 @@
         <v>390.9066666666666</v>
       </c>
       <c r="T228">
+        <v>390.6</v>
+      </c>
+      <c r="U228">
         <v>-0.09374999999994316</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>-6.827569726530758E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>6.82221312593434E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0.001280737704917989</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>390.5</v>
@@ -17530,21 +18217,24 @@
         <v>390.9066666666666</v>
       </c>
       <c r="T229">
+        <v>390.6</v>
+      </c>
+      <c r="U229">
         <v>-0.1812499999999204</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>-8.535044894342203E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>0</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>-0.001023279611153671</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>390.9</v>
@@ -17601,21 +18291,24 @@
         <v>390.9266666666667</v>
       </c>
       <c r="T230">
+        <v>390.7666666666667</v>
+      </c>
+      <c r="U230">
         <v>-0.2312500000000455</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-3.414309370586288E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>5.116310798847223E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>0.001024327784891144</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>391.3</v>
@@ -17672,21 +18365,24 @@
         <v>390.9466666666667</v>
       </c>
       <c r="T231">
+        <v>390.9</v>
+      </c>
+      <c r="U231">
         <v>-0.2249999999999659</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>2.560819462216202E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>5.116049045850168E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.001023279611153782</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>390.6</v>
@@ -17743,21 +18439,24 @@
         <v>390.92</v>
       </c>
       <c r="T232">
+        <v>390.9333333333333</v>
+      </c>
+      <c r="U232">
         <v>-0.2125000000000341</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>8.535846286461535E-06</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-6.821049759553333E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>-0.001788908765652963</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>390.5</v>
@@ -17814,21 +18513,24 @@
         <v>390.9066666666667</v>
       </c>
       <c r="T233">
+        <v>390.8</v>
+      </c>
+      <c r="U233">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>4.267886713216207E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>-3.410757529243025E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>-0.0002560163850486852</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>390.3</v>
@@ -17885,21 +18587,24 @@
         <v>390.8</v>
       </c>
       <c r="T234">
+        <v>390.4666666666667</v>
+      </c>
+      <c r="U234">
         <v>-0.1937500000000227</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>1.707081828961066E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-0.0002728699092707787</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.0005121638924455718</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>390</v>
@@ -17956,21 +18661,24 @@
         <v>390.6933333333333</v>
       </c>
       <c r="T235">
+        <v>390.2666666666667</v>
+      </c>
+      <c r="U235">
         <v>-0.125</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>3.414105376364773E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>-0.0002729443875810755</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>-0.000768639508070712</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>390.8</v>
@@ -18027,21 +18735,24 @@
         <v>390.6666666666667</v>
       </c>
       <c r="T236">
+        <v>390.3666666666666</v>
+      </c>
+      <c r="U236">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>0.0001450945248153701</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-6.825472663973819E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0.002051282051282133</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>391.2</v>
@@ -18098,21 +18809,24 @@
         <v>390.6733333333333</v>
       </c>
       <c r="T237">
+        <v>390.6666666666667</v>
+      </c>
+      <c r="U237">
         <v>0</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>0.0001450734754482319</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>1.70648464163925E-05</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>0.001023541453428756</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>390.7</v>
@@ -18169,21 +18883,24 @@
         <v>390.66</v>
       </c>
       <c r="T238">
+        <v>390.9</v>
+      </c>
+      <c r="U238">
         <v>0</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>7.67924640996398E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-3.412911042488531E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>-0.001278118609406964</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>390.5</v>
@@ -18240,21 +18957,24 @@
         <v>390.6466666666666</v>
       </c>
       <c r="T239">
+        <v>390.8</v>
+      </c>
+      <c r="U239">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>8.531840829961723E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-3.41302752606687E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>-0.0005119017148706995</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>390.2</v>
@@ -18311,21 +19031,24 @@
         <v>390.62</v>
       </c>
       <c r="T240">
+        <v>390.4666666666667</v>
+      </c>
+      <c r="U240">
         <v>-0.09375</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>3.412445187600532E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-6.826288035222117E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>-0.0007682458386684132</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>390.5</v>
@@ -18382,21 +19105,24 @@
         <v>390.6199999999999</v>
       </c>
       <c r="T241">
+        <v>390.3999999999999</v>
+      </c>
+      <c r="U241">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>1.706164371895191E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0.0007688364941056403</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>392</v>
@@ -18453,21 +19179,24 @@
         <v>390.7266666666666</v>
       </c>
       <c r="T242">
+        <v>390.8999999999999</v>
+      </c>
+      <c r="U242">
         <v>0.03125</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>0.0001450214973042208</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>0.0002730701619648723</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0.003841229193341844</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>391.5</v>
@@ -18524,21 +19253,24 @@
         <v>390.7666666666667</v>
       </c>
       <c r="T243">
+        <v>391.3333333333333</v>
+      </c>
+      <c r="U243">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>8.529439359961088E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>0.000102373355628016</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>-0.001275510204081676</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>392.1</v>
@@ -18595,21 +19327,24 @@
         <v>390.8733333333333</v>
       </c>
       <c r="T244">
+        <v>391.8666666666666</v>
+      </c>
+      <c r="U244">
         <v>0.2375000000000114</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>0.0001364593905381906</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>0.0002729676703916439</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0.001532567049808531</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>391.6</v>
@@ -18666,21 +19401,24 @@
         <v>390.92</v>
       </c>
       <c r="T245">
+        <v>391.7333333333333</v>
+      </c>
+      <c r="U245">
         <v>0.2187499999999432</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>8.527548244585681E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>0.00011939076597689</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>-0.001275184901810777</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>391.8</v>
@@ -18737,21 +19475,24 @@
         <v>390.9533333333333</v>
       </c>
       <c r="T246">
+        <v>391.8333333333333</v>
+      </c>
+      <c r="U246">
         <v>0.3000000000000682</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>6.82145689265834E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>8.526893823135318E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>0.0005107252298264253</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>391.2</v>
@@ -18808,21 +19549,24 @@
         <v>390.9933333333333</v>
       </c>
       <c r="T247">
+        <v>391.5333333333333</v>
+      </c>
+      <c r="U247">
         <v>0.3937500000000114</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>1.705247900418705E-05</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>0.0001023140016709334</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>-0.001531393568147021</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>391.2</v>
@@ -18879,21 +19623,24 @@
         <v>391.04</v>
       </c>
       <c r="T248">
+        <v>391.4</v>
+      </c>
+      <c r="U248">
         <v>0.4812499999999318</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>4.263047055519387E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>0.0001193541236852447</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>391.1</v>
@@ -18950,21 +19697,24 @@
         <v>391.0933333333333</v>
       </c>
       <c r="T249">
+        <v>391.1666666666667</v>
+      </c>
+      <c r="U249">
         <v>0.5187500000000114</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>-6.820584524092066E-05</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>0.0001363884342606703</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>-0.0002556237218812596</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>391.5</v>
@@ -19021,21 +19771,24 @@
         <v>391.1933333333333</v>
       </c>
       <c r="T250">
+        <v>391.2666666666667</v>
+      </c>
+      <c r="U250">
         <v>0.3812500000000227</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-8.526312199386155E-06</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>0.0002556934406110489</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>0.00102275632830473</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>393</v>
@@ -19092,21 +19845,24 @@
         <v>391.34</v>
       </c>
       <c r="T251">
+        <v>391.8666666666666</v>
+      </c>
+      <c r="U251">
         <v>0.3812500000000227</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>0.0001534749281650871</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>0.0003749211813424136</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>0.003831417624521105</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>392.3</v>
@@ -19163,21 +19919,24 @@
         <v>391.4133333333333</v>
       </c>
       <c r="T252">
+        <v>392.2666666666667</v>
+      </c>
+      <c r="U252">
         <v>0.3125</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>0.0001023009181506662</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>0.0001873903340658956</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>-0.001781170483460492</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>391.7</v>
@@ -19234,21 +19993,24 @@
         <v>391.48</v>
       </c>
       <c r="T253">
+        <v>392.3333333333333</v>
+      </c>
+      <c r="U253">
         <v>0.2937500000000455</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>6.819363582910576E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>0.0001703229322795874</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>-0.001529441753759908</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>392.1</v>
@@ -19305,21 +20067,24 @@
         <v>391.5866666666667</v>
       </c>
       <c r="T254">
+        <v>392.0333333333334</v>
+      </c>
+      <c r="U254">
         <v>0.2437499999999773</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>0.0001193307251046161</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>0.0002724702837098025</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0.001021189685984192</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>391.8</v>
@@ -19376,21 +20141,24 @@
         <v>391.6933333333334</v>
       </c>
       <c r="T255">
+        <v>391.8666666666666</v>
+      </c>
+      <c r="U255">
         <v>0.2374999999999545</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>0.0001022712745557541</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>0.0002723960638768563</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>-0.0007651109410864443</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>391.3</v>
@@ -19447,21 +20215,24 @@
         <v>391.7466666666667</v>
       </c>
       <c r="T256">
+        <v>391.7333333333333</v>
+      </c>
+      <c r="U256">
         <v>0.1812499999999773</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>6.817387747437564E-05</v>
       </c>
-      <c r="V256">
+      <c r="W256">
         <v>0.0001361609422336763</v>
       </c>
-      <c r="W256">
+      <c r="X256">
         <v>-0.001276161306789203</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>391.5</v>
@@ -19518,21 +20289,24 @@
         <v>391.7133333333334</v>
       </c>
       <c r="T257">
+        <v>391.5333333333334</v>
+      </c>
+      <c r="U257">
         <v>0.1687499999999318</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>9.373269140655616E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>-8.508900309733836E-05</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>0.000511116790186561</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>391.2</v>
@@ -19589,21 +20363,24 @@
         <v>391.6933333333334</v>
       </c>
       <c r="T258">
+        <v>391.3333333333333</v>
+      </c>
+      <c r="U258">
         <v>0.1812499999999204</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>2.556106538498248E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-5.105774631097848E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>-0.0007662835249042654</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>392.7</v>
@@ -19660,21 +20437,24 @@
         <v>391.7333333333333</v>
       </c>
       <c r="T259">
+        <v>391.8</v>
+      </c>
+      <c r="U259">
         <v>0.06874999999996589</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>0.0001874430215815792</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>0.0001021207066751462</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.003834355828220781</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>392.3</v>
@@ -19731,21 +20511,24 @@
         <v>391.78</v>
       </c>
       <c r="T260">
+        <v>392.0666666666667</v>
+      </c>
+      <c r="U260">
         <v>0.05625000000003411</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>0.0001192595684509357</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>0.0001191286589514728</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>-0.001018589253883317</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>392.4</v>
@@ -19802,21 +20585,24 @@
         <v>391.82</v>
       </c>
       <c r="T261">
+        <v>392.4666666666667</v>
+      </c>
+      <c r="U261">
         <v>0.09374999999994316</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>9.369277288007183E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>0.000102098116289806</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0.0002549069589599107</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>392.4</v>
@@ -19873,21 +20659,24 @@
         <v>391.9</v>
       </c>
       <c r="T262">
+        <v>392.3666666666666</v>
+      </c>
+      <c r="U262">
         <v>0.09374999999994316</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>0.0001533010833276727</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>0.0002041753866570684</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>392.7</v>
@@ -19944,21 +20733,24 @@
         <v>392</v>
       </c>
       <c r="T263">
+        <v>392.5</v>
+      </c>
+      <c r="U263">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>0.0001873392714206723</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>0.0002551671344730444</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0.000764525993883769</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>392.6</v>
@@ -20015,21 +20807,24 @@
         <v>392.1</v>
       </c>
       <c r="T264">
+        <v>392.5666666666667</v>
+      </c>
+      <c r="U264">
         <v>0.1875000000000568</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>0.0001958180084455918</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>0.0002551020408163573</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>-0.0002546473134708016</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>392.2</v>
@@ -20086,21 +20881,24 @@
         <v>392.1466666666667</v>
       </c>
       <c r="T265">
+        <v>392.5</v>
+      </c>
+      <c r="U265">
         <v>0.2062499999999545</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>0.0001872675116403322</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>0.0001190172575022963</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.001018848700968022</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>392.2</v>
@@ -20157,21 +20955,24 @@
         <v>392.0933333333334</v>
       </c>
       <c r="T266">
+        <v>392.3333333333333</v>
+      </c>
+      <c r="U266">
         <v>0.2874999999999659</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>0.0001191479221451797</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>-0.0001360035360919998</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>392.4</v>
@@ -20228,21 +21029,24 @@
         <v>392.1</v>
       </c>
       <c r="T267">
+        <v>392.2666666666667</v>
+      </c>
+      <c r="U267">
         <v>0.2874999999999659</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>0.0001021146236652726</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>1.70027544461604E-05</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>0.0005099439061702071</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>392.4</v>
@@ -20299,21 +21103,24 @@
         <v>392.1466666666666</v>
       </c>
       <c r="T268">
+        <v>392.3333333333333</v>
+      </c>
+      <c r="U268">
         <v>0.2937499999999886</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>0.000144647612888793</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>0.0001190172575022963</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>392.7</v>
@@ -20370,21 +21177,24 @@
         <v>392.1866666666667</v>
       </c>
       <c r="T269">
+        <v>392.5</v>
+      </c>
+      <c r="U269">
         <v>0.2687499999999545</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>0.0001871639556250138</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>0.0001020026520690553</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>0.000764525993883769</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>393.7</v>
@@ -20441,21 +21251,24 @@
         <v>392.3133333333333</v>
       </c>
       <c r="T270">
+        <v>392.9333333333333</v>
+      </c>
+      <c r="U270">
         <v>0.3312500000000114</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>0.0002977051188266522</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>0.0003229754538653928</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0.00254647313470846</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>393.9</v>
@@ -20512,21 +21325,24 @@
         <v>392.4866666666666</v>
       </c>
       <c r="T271">
+        <v>393.4333333333333</v>
+      </c>
+      <c r="U271">
         <v>0.3500000000000227</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>0.0002891131878131059</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>0.0004418237123386959</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.0005080010160019022</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>393.8</v>
@@ -20583,21 +21399,24 @@
         <v>392.64</v>
       </c>
       <c r="T272">
+        <v>393.8</v>
+      </c>
+      <c r="U272">
         <v>0.34375</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>0.000153015684107416</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>0.0003906714453145721</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>-0.0002538715410002057</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>394</v>
@@ -20654,21 +21473,24 @@
         <v>392.8266666666667</v>
       </c>
       <c r="T273">
+        <v>393.8999999999999</v>
+      </c>
+      <c r="U273">
         <v>0.4125000000000227</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>0.000212489269292071</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>0.0004754142895952995</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>0.000507872016251909</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>393.6</v>
@@ -20725,21 +21547,24 @@
         <v>392.8866666666667</v>
       </c>
       <c r="T274">
+        <v>393.8</v>
+      </c>
+      <c r="U274">
         <v>0.4375</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>0.0001274664763168953</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>0.0001527391215803142</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.001015228426395898</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>393.6</v>
@@ -20796,21 +21621,24 @@
         <v>392.9733333333333</v>
       </c>
       <c r="T275">
+        <v>393.7333333333333</v>
+      </c>
+      <c r="U275">
         <v>0.53125</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>0.0001699336409131114</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>0.0002205894829721</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>393.8</v>
@@ -20867,21 +21695,24 @@
         <v>393.0666666666667</v>
       </c>
       <c r="T276">
+        <v>393.6666666666667</v>
+      </c>
+      <c r="U276">
         <v>0.6125000000000114</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>0.0001699047683771937</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>0.0002375055135208637</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>0.000508130081300795</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>393.5</v>
@@ -20938,21 +21769,24 @@
         <v>393.14</v>
       </c>
       <c r="T277">
+        <v>393.6333333333334</v>
+      </c>
+      <c r="U277">
         <v>0.6437500000000114</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>0.0001953572914987767</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>0.0001865671641791966</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>-0.0007618080243778635</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>393.1</v>
@@ -21009,21 +21843,24 @@
         <v>393.1666666666667</v>
       </c>
       <c r="T278">
+        <v>393.4666666666667</v>
+      </c>
+      <c r="U278">
         <v>0.5249999999999204</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>0.0001613505893540701</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>6.7829950314513E-05</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>-0.001016518424396429</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>393</v>
@@ -21080,21 +21917,24 @@
         <v>393.1933333333334</v>
       </c>
       <c r="T279">
+        <v>393.2</v>
+      </c>
+      <c r="U279">
         <v>0.3937500000000114</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>0.0001613245595415425</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>6.782534972460397E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.0002543881963877892</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>393.4</v>
@@ -21151,15 +21991,18 @@
         <v>393.2733333333334</v>
       </c>
       <c r="T280">
+        <v>393.1666666666667</v>
+      </c>
+      <c r="U280">
         <v>0.2937499999999886</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>0.0001612985381258536</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>0.0002034622492750326</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0.001017811704834504</v>
       </c>
     </row>
